--- a/db_structure/00B. Masters.xlsx
+++ b/db_structure/00B. Masters.xlsx
@@ -3589,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B445" sqref="B445"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db_structure/00B. Masters.xlsx
+++ b/db_structure/00B. Masters.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{247D1DDC-12F5-4554-9EFE-FD16C2800AC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Sak-erp Form Testing Report" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="821">
   <si>
     <t>Table Description</t>
   </si>
@@ -2055,12 +2057,435 @@
   </si>
   <si>
     <t>stsk_a_flg</t>
+  </si>
+  <si>
+    <t>SP Created</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>New Mysql Version</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tested </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP Created </t>
+  </si>
+  <si>
+    <t>No Need to Create</t>
+  </si>
+  <si>
+    <t>pomd_a_flg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Clean </t>
+  </si>
+  <si>
+    <t>DQ SP1</t>
+  </si>
+  <si>
+    <t>DQ DP2</t>
+  </si>
+  <si>
+    <t>zp_dq_ptgm_01</t>
+  </si>
+  <si>
+    <t>zp_dq_ptgm_02</t>
+  </si>
+  <si>
+    <t>zp_dq_coma_01</t>
+  </si>
+  <si>
+    <t>zp_dq_coma_02</t>
+  </si>
+  <si>
+    <t>zp_dq_lctp_01</t>
+  </si>
+  <si>
+    <t>zp_dq_lctp_02</t>
+  </si>
+  <si>
+    <t>zp_dq_ittp_01</t>
+  </si>
+  <si>
+    <t>zp_dq_ittp_02</t>
+  </si>
+  <si>
+    <t>zp_dq_itgp_01</t>
+  </si>
+  <si>
+    <t>zp_dq_itgp_02</t>
+  </si>
+  <si>
+    <t>zp_dq_itct_01</t>
+  </si>
+  <si>
+    <t>zp_dq_itct_02</t>
+  </si>
+  <si>
+    <t>zp_dq_itcl_01</t>
+  </si>
+  <si>
+    <t>zp_dq_itcl_02</t>
+  </si>
+  <si>
+    <t>zp_dq_itut_01</t>
+  </si>
+  <si>
+    <t>zp_dq_itut_02</t>
+  </si>
+  <si>
+    <t>zp_dq_gstp_01</t>
+  </si>
+  <si>
+    <t>zp_dq_gstp_02</t>
+  </si>
+  <si>
+    <t>zp_dq_taxm_01</t>
+  </si>
+  <si>
+    <t>zp_dq_taxm_02</t>
+  </si>
+  <si>
+    <t>zp_dq_coum_01</t>
+  </si>
+  <si>
+    <t>zp_dq_coum_02</t>
+  </si>
+  <si>
+    <t>zp_dq_eslm_01</t>
+  </si>
+  <si>
+    <t>zp_dq_eslm_02</t>
+  </si>
+  <si>
+    <t>zp_dq_depm_01</t>
+  </si>
+  <si>
+    <t>zp_dq_depm_02</t>
+  </si>
+  <si>
+    <t>zp_dq_degm_01</t>
+  </si>
+  <si>
+    <t>zp_dq_degm_02</t>
+  </si>
+  <si>
+    <t>zp_dq_emty_01</t>
+  </si>
+  <si>
+    <t>zp_dq_emty_02</t>
+  </si>
+  <si>
+    <t>zp_dq_acgp_01</t>
+  </si>
+  <si>
+    <t>zp_dq_ptym_01</t>
+  </si>
+  <si>
+    <t>zp_dq_acgp_02</t>
+  </si>
+  <si>
+    <t>zp_dq_ptym_02</t>
+  </si>
+  <si>
+    <t>zp_dq_bank_01</t>
+  </si>
+  <si>
+    <t>zp_dq_curm_01</t>
+  </si>
+  <si>
+    <t>zp_dq_bomh_01</t>
+  </si>
+  <si>
+    <t>zp_dq_bank_02</t>
+  </si>
+  <si>
+    <t>zp_dq_curm_02</t>
+  </si>
+  <si>
+    <t>zp_dq_bomh_02</t>
+  </si>
+  <si>
+    <t>zp_dq_rgsm_01</t>
+  </si>
+  <si>
+    <t>zp_dq_rgsm_02</t>
+  </si>
+  <si>
+    <t>zp_dq_abbm_01</t>
+  </si>
+  <si>
+    <t>zp_dq_abbm_02</t>
+  </si>
+  <si>
+    <t>zp_dq_poms_01</t>
+  </si>
+  <si>
+    <t>zp_dq_poms_02</t>
+  </si>
+  <si>
+    <t>zp_dq_poim_01</t>
+  </si>
+  <si>
+    <t>zp_dq_poim_02</t>
+  </si>
+  <si>
+    <t>zp_dq_pmso_01</t>
+  </si>
+  <si>
+    <t>zp_dq_pmso_02</t>
+  </si>
+  <si>
+    <t>zp_dq_rgpm_01</t>
+  </si>
+  <si>
+    <t>zp_dq_rgpm_02</t>
+  </si>
+  <si>
+    <t>zp_dq_pmpt_01</t>
+  </si>
+  <si>
+    <t>zp_dq_pmpt_02</t>
+  </si>
+  <si>
+    <t>zp_dq_ccmt_01</t>
+  </si>
+  <si>
+    <t>zp_dq_ccmt_02</t>
+  </si>
+  <si>
+    <t>zp_dq_stsk_01</t>
+  </si>
+  <si>
+    <t>zp_dq_stsk_02</t>
+  </si>
+  <si>
+    <t>Not Tested</t>
+  </si>
+  <si>
+    <t>No Tested</t>
+  </si>
+  <si>
+    <t>zp_dq_dogp_02</t>
+  </si>
+  <si>
+    <t>zp_dq_dogp_01</t>
+  </si>
+  <si>
+    <t>zp_dq_delv_02</t>
+  </si>
+  <si>
+    <t>zp_dq_delv_01</t>
+  </si>
+  <si>
+    <t>zp_dq_ernt_01</t>
+  </si>
+  <si>
+    <t>zp_dq_ernt_02</t>
+  </si>
+  <si>
+    <t>zp_dq_dedt_02</t>
+  </si>
+  <si>
+    <t>zp_dq_dedt_01</t>
+  </si>
+  <si>
+    <t>zp_dq_qlct_01</t>
+  </si>
+  <si>
+    <t>zp_dq_qlct_02</t>
+  </si>
+  <si>
+    <t>ERP Form</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a25</t>
+  </si>
+  <si>
+    <t>a27</t>
+  </si>
+  <si>
+    <t>a55</t>
+  </si>
+  <si>
+    <t>a59</t>
+  </si>
+  <si>
+    <t>a37</t>
+  </si>
+  <si>
+    <t>a45</t>
+  </si>
+  <si>
+    <t>a42</t>
+  </si>
+  <si>
+    <t>a40</t>
+  </si>
+  <si>
+    <t>a34</t>
+  </si>
+  <si>
+    <t>a31</t>
+  </si>
+  <si>
+    <t>a75</t>
+  </si>
+  <si>
+    <t>a76</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>Form No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>a77</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>a22</t>
+  </si>
+  <si>
+    <t>a23</t>
+  </si>
+  <si>
+    <t>a24</t>
+  </si>
+  <si>
+    <t>a51</t>
+  </si>
+  <si>
+    <t>a56</t>
+  </si>
+  <si>
+    <t>a58</t>
+  </si>
+  <si>
+    <t>Total Master</t>
+  </si>
+  <si>
+    <t>a65</t>
+  </si>
+  <si>
+    <t>a69</t>
+  </si>
+  <si>
+    <t>a70</t>
+  </si>
+  <si>
+    <t>a49</t>
+  </si>
+  <si>
+    <t>a47</t>
+  </si>
+  <si>
+    <t>a46</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>a61</t>
+  </si>
+  <si>
+    <t>a63</t>
+  </si>
+  <si>
+    <t>a35</t>
+  </si>
+  <si>
+    <t>a39</t>
+  </si>
+  <si>
+    <t>zp_dq_psty_01</t>
+  </si>
+  <si>
+    <t>zp_dq_psty_02</t>
+  </si>
+  <si>
+    <t>Foreign Key</t>
+  </si>
+  <si>
+    <t>a53</t>
+  </si>
+  <si>
+    <t>a57</t>
+  </si>
+  <si>
+    <t>a52</t>
+  </si>
+  <si>
+    <t>a62</t>
+  </si>
+  <si>
+    <t>a64</t>
+  </si>
+  <si>
+    <t>a66</t>
+  </si>
+  <si>
+    <t>a68</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>a44</t>
+  </si>
+  <si>
+    <t>a26</t>
+  </si>
+  <si>
+    <t>a36</t>
+  </si>
+  <si>
+    <t>a32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2085,7 +2510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2098,8 +2523,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2108,19 +2569,51 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2134,10 +2627,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2475,11 +2982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,9 +2995,14 @@
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,8 +3018,26 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>22</v>
       </c>
@@ -2523,8 +3053,26 @@
       <c r="E2" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>23</v>
       </c>
@@ -2540,8 +3088,26 @@
       <c r="E3" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J3" t="s">
+        <v>696</v>
+      </c>
+      <c r="K3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>24</v>
       </c>
@@ -2557,8 +3123,26 @@
       <c r="E4" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J4" t="s">
+        <v>698</v>
+      </c>
+      <c r="K4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>25</v>
       </c>
@@ -2574,8 +3158,26 @@
       <c r="E5" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J5" t="s">
+        <v>700</v>
+      </c>
+      <c r="K5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>26</v>
       </c>
@@ -2591,8 +3193,26 @@
       <c r="E6" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J6" t="s">
+        <v>702</v>
+      </c>
+      <c r="K6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>27</v>
       </c>
@@ -2608,8 +3228,26 @@
       <c r="E7" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J7" t="s">
+        <v>704</v>
+      </c>
+      <c r="K7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>28</v>
       </c>
@@ -2625,8 +3263,26 @@
       <c r="E8" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J8" t="s">
+        <v>706</v>
+      </c>
+      <c r="K8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>29</v>
       </c>
@@ -2642,8 +3298,26 @@
       <c r="E9" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J9" t="s">
+        <v>708</v>
+      </c>
+      <c r="K9" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30</v>
       </c>
@@ -2659,8 +3333,20 @@
       <c r="E10" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>31</v>
       </c>
@@ -2676,8 +3362,26 @@
       <c r="E11" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J11" t="s">
+        <v>710</v>
+      </c>
+      <c r="K11" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>32</v>
       </c>
@@ -2693,8 +3397,20 @@
       <c r="E12" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>33</v>
       </c>
@@ -2710,8 +3426,20 @@
       <c r="E13" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>34</v>
       </c>
@@ -2727,8 +3455,26 @@
       <c r="E14" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J14" t="s">
+        <v>712</v>
+      </c>
+      <c r="K14" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>35</v>
       </c>
@@ -2744,8 +3490,20 @@
       <c r="E15" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>36</v>
       </c>
@@ -2761,8 +3519,20 @@
       <c r="E16" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37</v>
       </c>
@@ -2778,8 +3548,20 @@
       <c r="E17" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>38</v>
       </c>
@@ -2795,8 +3577,26 @@
       <c r="E18" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J18" t="s">
+        <v>714</v>
+      </c>
+      <c r="K18" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39</v>
       </c>
@@ -2812,8 +3612,26 @@
       <c r="E19" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="K19" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40</v>
       </c>
@@ -2829,8 +3647,20 @@
       <c r="E20" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -2846,8 +3676,26 @@
       <c r="E21" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J21" t="s">
+        <v>718</v>
+      </c>
+      <c r="K21" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42</v>
       </c>
@@ -2863,8 +3711,26 @@
       <c r="E22" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J22" t="s">
+        <v>720</v>
+      </c>
+      <c r="K22" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43</v>
       </c>
@@ -2880,8 +3746,20 @@
       <c r="E23" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44</v>
       </c>
@@ -2897,8 +3775,26 @@
       <c r="E24" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J24" t="s">
+        <v>756</v>
+      </c>
+      <c r="K24" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45</v>
       </c>
@@ -2914,8 +3810,20 @@
       <c r="E25" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46</v>
       </c>
@@ -2931,8 +3839,26 @@
       <c r="E26" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J26" t="s">
+        <v>759</v>
+      </c>
+      <c r="K26" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>47</v>
       </c>
@@ -2948,8 +3874,20 @@
       <c r="E27" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>48</v>
       </c>
@@ -2965,8 +3903,26 @@
       <c r="E28" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>49</v>
       </c>
@@ -2982,8 +3938,20 @@
       <c r="E29" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>50</v>
       </c>
@@ -2999,8 +3967,20 @@
       <c r="E30" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>51</v>
       </c>
@@ -3016,8 +3996,20 @@
       <c r="E31" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>52</v>
       </c>
@@ -3033,8 +4025,26 @@
       <c r="E32" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J32" t="s">
+        <v>692</v>
+      </c>
+      <c r="K32" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>53</v>
       </c>
@@ -3050,8 +4060,26 @@
       <c r="E33" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J33" t="s">
+        <v>723</v>
+      </c>
+      <c r="K33" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>54</v>
       </c>
@@ -3067,8 +4095,20 @@
       <c r="E34" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>55</v>
       </c>
@@ -3084,8 +4124,20 @@
       <c r="E35" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>56</v>
       </c>
@@ -3101,8 +4153,20 @@
       <c r="E36" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>57</v>
       </c>
@@ -3118,8 +4182,26 @@
       <c r="E37" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>686</v>
+      </c>
+      <c r="G37" t="s">
+        <v>681</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I37" t="s">
+        <v>683</v>
+      </c>
+      <c r="J37" t="s">
+        <v>726</v>
+      </c>
+      <c r="K37" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>58</v>
       </c>
@@ -3135,8 +4217,20 @@
       <c r="E38" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>686</v>
+      </c>
+      <c r="G38" t="s">
+        <v>681</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I38" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>59</v>
       </c>
@@ -3152,8 +4246,26 @@
       <c r="E39" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>680</v>
+      </c>
+      <c r="G39" t="s">
+        <v>681</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I39" t="s">
+        <v>683</v>
+      </c>
+      <c r="J39" t="s">
+        <v>727</v>
+      </c>
+      <c r="K39" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>60</v>
       </c>
@@ -3169,8 +4281,20 @@
       <c r="E40" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>686</v>
+      </c>
+      <c r="G40" t="s">
+        <v>681</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I40" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>61</v>
       </c>
@@ -3186,8 +4310,26 @@
       <c r="E41" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>686</v>
+      </c>
+      <c r="G41" t="s">
+        <v>681</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I41" t="s">
+        <v>683</v>
+      </c>
+      <c r="J41" t="s">
+        <v>728</v>
+      </c>
+      <c r="K41" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>62</v>
       </c>
@@ -3203,8 +4345,26 @@
       <c r="E42" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>686</v>
+      </c>
+      <c r="G42" t="s">
+        <v>681</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I42" t="s">
+        <v>683</v>
+      </c>
+      <c r="J42" t="s">
+        <v>732</v>
+      </c>
+      <c r="K42" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>63</v>
       </c>
@@ -3220,8 +4380,26 @@
       <c r="E43" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>680</v>
+      </c>
+      <c r="G43" t="s">
+        <v>681</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I43" t="s">
+        <v>683</v>
+      </c>
+      <c r="J43" t="s">
+        <v>734</v>
+      </c>
+      <c r="K43" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>64</v>
       </c>
@@ -3237,8 +4415,20 @@
       <c r="E44" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>680</v>
+      </c>
+      <c r="G44" t="s">
+        <v>681</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I44" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>65</v>
       </c>
@@ -3254,8 +4444,26 @@
       <c r="E45" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>680</v>
+      </c>
+      <c r="G45" t="s">
+        <v>681</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I45" t="s">
+        <v>683</v>
+      </c>
+      <c r="J45" t="s">
+        <v>736</v>
+      </c>
+      <c r="K45" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>66</v>
       </c>
@@ -3271,9 +4479,20 @@
       <c r="E46" s="2">
         <v>43</v>
       </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>680</v>
+      </c>
+      <c r="G46" t="s">
+        <v>681</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I46" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>67</v>
       </c>
@@ -3289,8 +4508,26 @@
       <c r="E47" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>680</v>
+      </c>
+      <c r="G47" t="s">
+        <v>681</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I47" t="s">
+        <v>683</v>
+      </c>
+      <c r="J47" t="s">
+        <v>738</v>
+      </c>
+      <c r="K47" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>68</v>
       </c>
@@ -3306,8 +4543,20 @@
       <c r="E48" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>680</v>
+      </c>
+      <c r="G48" t="s">
+        <v>681</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I48" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>69</v>
       </c>
@@ -3323,8 +4572,26 @@
       <c r="E49" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>680</v>
+      </c>
+      <c r="G49" t="s">
+        <v>681</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I49" t="s">
+        <v>683</v>
+      </c>
+      <c r="J49" t="s">
+        <v>753</v>
+      </c>
+      <c r="K49" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>70</v>
       </c>
@@ -3340,8 +4607,20 @@
       <c r="E50" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>680</v>
+      </c>
+      <c r="G50" t="s">
+        <v>681</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I50" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>71</v>
       </c>
@@ -3357,8 +4636,20 @@
       <c r="E51" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>680</v>
+      </c>
+      <c r="G51" t="s">
+        <v>681</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I51" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>72</v>
       </c>
@@ -3374,8 +4665,17 @@
       <c r="E52" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>687</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I52" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>73</v>
       </c>
@@ -3391,8 +4691,26 @@
       <c r="E53" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>686</v>
+      </c>
+      <c r="G53" t="s">
+        <v>681</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I53" t="s">
+        <v>683</v>
+      </c>
+      <c r="J53" t="s">
+        <v>755</v>
+      </c>
+      <c r="K53" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>74</v>
       </c>
@@ -3408,8 +4726,26 @@
       <c r="E54" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>686</v>
+      </c>
+      <c r="G54" t="s">
+        <v>681</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I54" t="s">
+        <v>683</v>
+      </c>
+      <c r="J54" t="s">
+        <v>805</v>
+      </c>
+      <c r="K54" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>75</v>
       </c>
@@ -3425,8 +4761,20 @@
       <c r="E55" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>686</v>
+      </c>
+      <c r="G55" t="s">
+        <v>681</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>76</v>
       </c>
@@ -3442,8 +4790,26 @@
       <c r="E56" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>686</v>
+      </c>
+      <c r="G56" t="s">
+        <v>681</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I56" t="s">
+        <v>683</v>
+      </c>
+      <c r="J56" t="s">
+        <v>740</v>
+      </c>
+      <c r="K56" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>77</v>
       </c>
@@ -3459,8 +4825,26 @@
       <c r="E57" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>686</v>
+      </c>
+      <c r="G57" t="s">
+        <v>681</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I57" t="s">
+        <v>683</v>
+      </c>
+      <c r="J57" t="s">
+        <v>742</v>
+      </c>
+      <c r="K57" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>78</v>
       </c>
@@ -3476,8 +4860,20 @@
       <c r="E58" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>686</v>
+      </c>
+      <c r="G58" t="s">
+        <v>681</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I58" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>79</v>
       </c>
@@ -3493,8 +4889,26 @@
       <c r="E59" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>686</v>
+      </c>
+      <c r="G59" t="s">
+        <v>681</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I59" t="s">
+        <v>683</v>
+      </c>
+      <c r="J59" t="s">
+        <v>760</v>
+      </c>
+      <c r="K59" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>80</v>
       </c>
@@ -3510,8 +4924,20 @@
       <c r="E60" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>686</v>
+      </c>
+      <c r="G60" t="s">
+        <v>684</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I60" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>81</v>
       </c>
@@ -3527,8 +4953,26 @@
       <c r="E61" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>680</v>
+      </c>
+      <c r="G61" t="s">
+        <v>681</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I61" t="s">
+        <v>683</v>
+      </c>
+      <c r="J61" t="s">
+        <v>744</v>
+      </c>
+      <c r="K61" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>82</v>
       </c>
@@ -3544,8 +4988,20 @@
       <c r="E62" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>680</v>
+      </c>
+      <c r="G62" t="s">
+        <v>681</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I62" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>83</v>
       </c>
@@ -3561,8 +5017,26 @@
       <c r="E63" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>686</v>
+      </c>
+      <c r="G63" t="s">
+        <v>681</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I63" t="s">
+        <v>683</v>
+      </c>
+      <c r="J63" t="s">
+        <v>746</v>
+      </c>
+      <c r="K63" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>84</v>
       </c>
@@ -3577,6 +5051,24 @@
       </c>
       <c r="E64" s="2">
         <v>77</v>
+      </c>
+      <c r="F64" t="s">
+        <v>680</v>
+      </c>
+      <c r="G64" t="s">
+        <v>681</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I64" t="s">
+        <v>683</v>
+      </c>
+      <c r="J64" t="s">
+        <v>748</v>
+      </c>
+      <c r="K64" t="s">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -3586,11 +5078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J445"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F391" sqref="F391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,7 +5099,7 @@
     <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -3638,15 +5130,18 @@
       <c r="J1" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2">
@@ -3661,8 +5156,11 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="D3" s="2">
         <v>2</v>
@@ -3680,7 +5178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="D4" s="2">
         <v>3</v>
@@ -3698,7 +5196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="D5" s="2">
         <v>4</v>
@@ -3713,18 +5211,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2">
@@ -3739,8 +5237,11 @@
       <c r="G7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="D8" s="2">
         <v>2</v>
@@ -3758,7 +5259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="D9" s="2">
         <v>3</v>
@@ -3776,7 +5277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="D10" s="2">
         <v>4</v>
@@ -3791,18 +5292,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2">
@@ -3817,8 +5318,11 @@
       <c r="G12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="9" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="D13" s="2">
         <v>2</v>
@@ -3836,7 +5340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="D14" s="2">
         <v>3</v>
@@ -3854,7 +5358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="D15" s="2">
         <v>4</v>
@@ -3872,7 +5376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="D16" s="2">
         <v>5</v>
@@ -3887,18 +5391,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2">
@@ -3913,8 +5417,11 @@
       <c r="G18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18" s="9" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D19" s="2">
         <v>2</v>
       </c>
@@ -3931,7 +5438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <v>3</v>
       </c>
@@ -3948,7 +5455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
         <v>4</v>
       </c>
@@ -3965,7 +5472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D22" s="2">
         <v>5</v>
       </c>
@@ -3979,14 +5486,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="2">
@@ -4001,8 +5508,11 @@
       <c r="G24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K24" s="9" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <v>2</v>
       </c>
@@ -4019,7 +5529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
         <v>3</v>
       </c>
@@ -4036,7 +5546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <v>4</v>
       </c>
@@ -4053,7 +5563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <v>5</v>
       </c>
@@ -4067,14 +5577,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="2">
@@ -4089,8 +5599,11 @@
       <c r="G30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K30" s="9" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <v>2</v>
       </c>
@@ -4107,7 +5620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <v>3</v>
       </c>
@@ -4124,7 +5637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <v>4</v>
       </c>
@@ -4141,7 +5654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <v>5</v>
       </c>
@@ -4155,14 +5668,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="2">
@@ -4177,8 +5690,11 @@
       <c r="G36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="9" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
         <v>2</v>
       </c>
@@ -4195,7 +5711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
         <v>3</v>
       </c>
@@ -4212,7 +5728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D39" s="2">
         <v>4</v>
       </c>
@@ -4229,7 +5745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D40" s="2">
         <v>5</v>
       </c>
@@ -4243,14 +5759,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>132</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D42" s="2">
@@ -4265,8 +5781,11 @@
       <c r="G42" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D43" s="2">
         <v>2</v>
       </c>
@@ -4283,7 +5802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D44" s="2">
         <v>3</v>
       </c>
@@ -4300,7 +5819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D45" s="2">
         <v>5</v>
       </c>
@@ -4314,14 +5833,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>30</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="22" t="s">
         <v>137</v>
       </c>
       <c r="D47" s="2">
@@ -4336,8 +5855,11 @@
       <c r="G47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="22" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="D48" s="2">
         <v>2</v>
@@ -4358,7 +5880,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D49" s="2">
         <v>3</v>
       </c>
@@ -4375,7 +5897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D50" s="2">
         <v>4</v>
       </c>
@@ -4392,7 +5914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <v>5</v>
       </c>
@@ -4406,17 +5928,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>31</v>
       </c>
       <c r="B53" t="s">
         <v>565</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="8" t="s">
         <v>566</v>
       </c>
       <c r="D53" s="2">
@@ -4431,8 +5953,11 @@
       <c r="G53" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D54" s="2">
         <v>2</v>
       </c>
@@ -4449,7 +5974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <v>3</v>
       </c>
@@ -4466,7 +5991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D56" s="2">
         <v>4</v>
       </c>
@@ -4480,11 +6005,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>32</v>
       </c>
@@ -4507,7 +6032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <v>2</v>
       </c>
@@ -4527,7 +6052,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D60" s="2">
         <v>3</v>
       </c>
@@ -4547,7 +6072,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D61" s="2">
         <v>4</v>
       </c>
@@ -4561,7 +6086,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D62" s="2">
         <v>5</v>
       </c>
@@ -4578,7 +6103,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>33</v>
       </c>
@@ -4601,7 +6126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="D65" s="2">
         <v>2</v>
@@ -4616,7 +6141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D66" s="2">
         <v>3</v>
       </c>
@@ -4633,7 +6158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D67" s="2">
         <v>4</v>
       </c>
@@ -4650,7 +6175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D68" s="2">
         <v>5</v>
       </c>
@@ -4667,7 +6192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D69" s="2">
         <v>6</v>
       </c>
@@ -4687,7 +6212,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D70" s="2">
         <v>7</v>
       </c>
@@ -4707,7 +6232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D71" s="2">
         <v>8</v>
       </c>
@@ -4727,7 +6252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D72" s="2">
         <v>9</v>
       </c>
@@ -4747,7 +6272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D73" s="2">
         <v>10</v>
       </c>
@@ -4767,7 +6292,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D74" s="2">
         <v>11</v>
       </c>
@@ -4787,14 +6312,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>34</v>
       </c>
       <c r="B76" t="s">
         <v>189</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D76" s="2">
@@ -4809,8 +6334,11 @@
       <c r="G76" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="9" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="D77" s="2">
         <v>2</v>
@@ -4828,7 +6356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="D78" s="2">
         <v>3</v>
@@ -4846,7 +6374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="D79" s="2">
         <v>4</v>
@@ -4864,7 +6392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="D80" s="2">
         <v>5</v>
@@ -4879,17 +6407,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>35</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="22" t="s">
         <v>88</v>
       </c>
       <c r="D82" s="2">
@@ -4904,8 +6432,11 @@
       <c r="G82" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="22" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="D83" s="2">
         <v>2</v>
@@ -4923,7 +6454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="D84" s="2">
         <v>3</v>
@@ -4941,7 +6472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="D85" s="2">
         <v>4</v>
@@ -4959,7 +6490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="D86" s="2">
         <v>5</v>
@@ -4980,7 +6511,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="D87" s="2">
         <v>6</v>
@@ -4995,17 +6526,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>36</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="2">
@@ -5020,8 +6551,11 @@
       <c r="G89" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="22" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D90" s="2">
         <v>2</v>
       </c>
@@ -5038,7 +6572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D91" s="2">
         <v>3</v>
       </c>
@@ -5055,7 +6589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D92" s="2">
         <v>4</v>
       </c>
@@ -5072,7 +6606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D93" s="2">
         <v>5</v>
       </c>
@@ -5092,7 +6626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D94" s="2">
         <v>6</v>
       </c>
@@ -5106,7 +6640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>37</v>
       </c>
@@ -5432,17 +6966,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>38</v>
       </c>
       <c r="B114" t="s">
         <v>72</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="8" t="s">
         <v>232</v>
       </c>
       <c r="D114" s="2">
@@ -5457,8 +6991,11 @@
       <c r="G114" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K114" s="8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="D115" s="2">
         <v>2</v>
@@ -5476,7 +7013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="D116" s="2">
         <v>3</v>
@@ -5494,7 +7031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="D117" s="2">
         <v>4</v>
@@ -5509,18 +7046,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>39</v>
       </c>
       <c r="B119" t="s">
         <v>646</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D119" s="2">
@@ -5535,8 +7072,11 @@
       <c r="G119" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K119" s="9" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="D120" s="2">
         <v>2</v>
@@ -5554,7 +7094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="D121" s="2">
         <v>3</v>
@@ -5572,7 +7112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="D122" s="2">
         <v>4</v>
@@ -5590,7 +7130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="D123" s="2">
         <v>5</v>
@@ -5605,17 +7145,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>40</v>
       </c>
       <c r="B125" t="s">
         <v>76</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D125" s="2">
@@ -5630,8 +7170,11 @@
       <c r="G125" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K125" s="22" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D126" s="2">
         <v>2</v>
       </c>
@@ -5648,7 +7191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D127" s="2">
         <v>3</v>
       </c>
@@ -5665,7 +7208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D128" s="2">
         <v>4</v>
       </c>
@@ -5682,7 +7225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D129" s="2">
         <v>5</v>
       </c>
@@ -5702,7 +7245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D130" s="2">
         <v>6</v>
       </c>
@@ -5716,17 +7259,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>41</v>
       </c>
       <c r="B132" t="s">
         <v>79</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D132" s="2">
@@ -5741,8 +7284,11 @@
       <c r="G132" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="9" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="D133" s="2">
         <v>2</v>
@@ -5760,7 +7306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="D134" s="2">
         <v>3</v>
@@ -5778,7 +7324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="D135" s="2">
         <v>4</v>
@@ -5796,7 +7342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="D136" s="2">
         <v>5</v>
@@ -5811,17 +7357,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>42</v>
       </c>
       <c r="B138" t="s">
         <v>255</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="8" t="s">
         <v>231</v>
       </c>
       <c r="D138" s="2">
@@ -5836,8 +7382,11 @@
       <c r="G138" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="D139" s="2">
         <v>2</v>
@@ -5855,7 +7404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="D140" s="2">
         <v>3</v>
@@ -5873,7 +7422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="D141" s="2">
         <v>4</v>
@@ -5888,10 +7437,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43</v>
       </c>
@@ -5914,7 +7463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="D144" s="2">
         <v>2</v>
@@ -6247,7 +7796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="D161" s="2">
         <v>19</v>
@@ -6265,7 +7814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="D162" s="2">
         <v>20</v>
@@ -6283,7 +7832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="D163" s="2">
         <v>21</v>
@@ -6301,7 +7850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="D164" s="2">
         <v>22</v>
@@ -6319,7 +7868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="D165" s="2">
         <v>23</v>
@@ -6337,7 +7886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="D166" s="2">
         <v>24</v>
@@ -6352,18 +7901,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44</v>
       </c>
       <c r="B168" t="s">
         <v>296</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="10" t="s">
         <v>298</v>
       </c>
       <c r="D168" s="2">
@@ -6378,8 +7927,11 @@
       <c r="G168" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K168" s="10" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="D169" s="2">
         <v>2</v>
@@ -6394,7 +7946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="D170" s="2">
         <v>3</v>
@@ -6412,7 +7964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="D171" s="2">
         <v>4</v>
@@ -6427,17 +7979,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>45</v>
       </c>
       <c r="B173" t="s">
         <v>115</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="22" t="s">
         <v>300</v>
       </c>
       <c r="D173" s="2">
@@ -6452,8 +8004,11 @@
       <c r="G173" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K173" s="22" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D174" s="2">
         <v>2</v>
       </c>
@@ -6467,7 +8022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D175" s="2">
         <v>3</v>
       </c>
@@ -6484,7 +8039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D176" s="2">
         <v>4</v>
       </c>
@@ -6501,7 +8056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D177" s="2">
         <v>5</v>
       </c>
@@ -6521,7 +8076,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D178" s="2">
         <v>6</v>
       </c>
@@ -6535,17 +8090,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>46</v>
       </c>
       <c r="B180" t="s">
         <v>297</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="10" t="s">
         <v>299</v>
       </c>
       <c r="D180" s="2">
@@ -6560,8 +8115,11 @@
       <c r="G180" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="D181" s="2">
         <v>2</v>
@@ -6576,7 +8134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="D182" s="2">
         <v>3</v>
@@ -6594,7 +8152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="D183" s="2">
         <v>4</v>
@@ -6609,17 +8167,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>47</v>
       </c>
       <c r="B185" t="s">
         <v>116</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="22" t="s">
         <v>301</v>
       </c>
       <c r="D185" s="2">
@@ -6634,8 +8192,11 @@
       <c r="G185" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185" s="22" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D186" s="2">
         <v>2</v>
       </c>
@@ -6649,7 +8210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D187" s="2">
         <v>3</v>
       </c>
@@ -6666,7 +8227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D188" s="2">
         <v>4</v>
       </c>
@@ -6683,7 +8244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D189" s="2">
         <v>5</v>
       </c>
@@ -6703,7 +8264,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D190" s="2">
         <v>6</v>
       </c>
@@ -6717,17 +8278,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>48</v>
       </c>
       <c r="B192" t="s">
         <v>341</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="9" t="s">
         <v>329</v>
       </c>
       <c r="D192" s="2">
@@ -6742,8 +8303,11 @@
       <c r="G192" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192" s="9" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="D193" s="2">
         <v>2</v>
@@ -6761,7 +8325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="D194" s="2">
         <v>3</v>
@@ -6779,7 +8343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="D195" s="2">
         <v>4</v>
@@ -6797,7 +8361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="D196" s="2">
         <v>5</v>
@@ -6812,17 +8376,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>49</v>
       </c>
       <c r="B198" t="s">
         <v>96</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="22" t="s">
         <v>330</v>
       </c>
       <c r="D198" s="2">
@@ -6837,8 +8401,11 @@
       <c r="G198" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198" s="22" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D199" s="2">
         <v>2</v>
       </c>
@@ -6855,7 +8422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D200" s="2">
         <v>3</v>
       </c>
@@ -6872,7 +8439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D201" s="2">
         <v>4</v>
       </c>
@@ -6889,7 +8456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D202" s="2">
         <v>5</v>
       </c>
@@ -6909,7 +8476,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D203" s="2">
         <v>6</v>
       </c>
@@ -6923,17 +8490,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>50</v>
       </c>
       <c r="B205" t="s">
         <v>97</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="22" t="s">
         <v>328</v>
       </c>
       <c r="D205" s="2">
@@ -6949,7 +8516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="D206" s="2">
         <v>2</v>
@@ -6967,7 +8534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="D207" s="2">
         <v>3</v>
@@ -6985,7 +8552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="D208" s="2">
         <v>4</v>
@@ -7003,7 +8570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="D209" s="2">
         <v>5</v>
@@ -7024,7 +8591,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="D210" s="2">
         <v>6</v>
@@ -7045,7 +8612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="D211" s="2">
         <v>7</v>
@@ -7060,17 +8627,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>51</v>
       </c>
       <c r="B213" t="s">
         <v>98</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="22" t="s">
         <v>331</v>
       </c>
       <c r="D213" s="2">
@@ -7085,8 +8652,11 @@
       <c r="G213" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213" s="22" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="D214" s="2">
         <v>2</v>
@@ -7104,7 +8674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="D215" s="2">
         <v>3</v>
@@ -7122,7 +8692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="D216" s="2">
         <v>4</v>
@@ -7140,7 +8710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="D217" s="2">
         <v>5</v>
@@ -7161,7 +8731,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="D218" s="2">
         <v>6</v>
@@ -7176,17 +8746,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>52</v>
       </c>
       <c r="B220" t="s">
         <v>99</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="9" t="s">
         <v>332</v>
       </c>
       <c r="D220" s="2">
@@ -7201,8 +8771,11 @@
       <c r="G220" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220" s="9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="D221" s="2">
         <v>2</v>
@@ -7220,7 +8793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="D222" s="2">
         <v>3</v>
@@ -7238,7 +8811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="D223" s="2">
         <v>4</v>
@@ -7256,7 +8829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="D224" s="2">
         <v>5</v>
@@ -7271,17 +8844,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>53</v>
       </c>
       <c r="B226" t="s">
         <v>100</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="9" t="s">
         <v>333</v>
       </c>
       <c r="D226" s="2">
@@ -7296,8 +8869,11 @@
       <c r="G226" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226" s="9" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="D227" s="2">
         <v>2</v>
@@ -7315,7 +8891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="D228" s="2">
         <v>3</v>
@@ -7333,7 +8909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="D229" s="2">
         <v>4</v>
@@ -7351,7 +8927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="D230" s="2">
         <v>5</v>
@@ -7366,10 +8942,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>54</v>
       </c>
@@ -7392,7 +8968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="D233" s="2">
         <v>2</v>
@@ -7410,7 +8986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="D234" s="2">
         <v>3</v>
@@ -7428,7 +9004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="D235" s="2">
         <v>4</v>
@@ -7446,7 +9022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="D236" s="2">
         <v>5</v>
@@ -7467,7 +9043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="D237" s="2">
         <v>6</v>
@@ -7488,7 +9064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="D238" s="2">
         <v>7</v>
@@ -7506,7 +9082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="D239" s="2">
         <v>8</v>
@@ -7524,7 +9100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D240" s="2">
         <v>9</v>
       </c>
@@ -7814,7 +9390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D257" s="2">
         <v>8</v>
       </c>
@@ -7831,7 +9407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D258" s="2">
         <v>9</v>
       </c>
@@ -7848,7 +9424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D259" s="2">
         <v>10</v>
       </c>
@@ -7865,7 +9441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D260" s="2">
         <v>11</v>
       </c>
@@ -7879,7 +9455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>56</v>
       </c>
@@ -7902,7 +9478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D263" s="2">
         <v>2</v>
       </c>
@@ -7922,7 +9498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D264" s="2">
         <v>3</v>
       </c>
@@ -7942,7 +9518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D265" s="2">
         <v>4</v>
       </c>
@@ -7956,14 +9532,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>57</v>
       </c>
       <c r="B267" t="s">
         <v>101</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="9" t="s">
         <v>417</v>
       </c>
       <c r="D267" s="2">
@@ -7978,8 +9554,11 @@
       <c r="G267" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267" s="9" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D268" s="2">
         <v>2</v>
       </c>
@@ -7996,7 +9575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D269" s="2">
         <v>3</v>
       </c>
@@ -8013,7 +9592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D270" s="2">
         <v>4</v>
       </c>
@@ -8030,7 +9609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D271" s="2">
         <v>5</v>
       </c>
@@ -8334,7 +9913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D289" s="2">
         <v>17</v>
       </c>
@@ -8348,14 +9927,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>59</v>
       </c>
       <c r="B291" t="s">
         <v>103</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="9" t="s">
         <v>441</v>
       </c>
       <c r="D291" s="2">
@@ -8370,8 +9949,11 @@
       <c r="G291" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K291" s="9" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D292" s="2">
         <v>2</v>
       </c>
@@ -8388,7 +9970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D293" s="2">
         <v>3</v>
       </c>
@@ -8405,7 +9987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D294" s="2">
         <v>4</v>
       </c>
@@ -8422,7 +10004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D295" s="2">
         <v>5</v>
       </c>
@@ -8436,14 +10018,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>60</v>
       </c>
       <c r="B297" t="s">
         <v>502</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="22" t="s">
         <v>503</v>
       </c>
       <c r="D297" s="2">
@@ -8459,7 +10041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D298" s="2">
         <v>2</v>
       </c>
@@ -8479,7 +10061,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D299" s="2">
         <v>3</v>
       </c>
@@ -8493,7 +10075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D300" s="2">
         <v>4</v>
       </c>
@@ -8510,14 +10092,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>61</v>
       </c>
       <c r="B302" t="s">
         <v>104</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="9" t="s">
         <v>448</v>
       </c>
       <c r="D302" s="2">
@@ -8532,8 +10114,11 @@
       <c r="G302" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K302" s="9" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D303" s="2">
         <v>2</v>
       </c>
@@ -8550,7 +10135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D304" s="2">
         <v>3</v>
       </c>
@@ -8567,7 +10152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D305" s="2">
         <v>4</v>
       </c>
@@ -8584,7 +10169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D306" s="2">
         <v>5</v>
       </c>
@@ -8598,14 +10183,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>62</v>
       </c>
       <c r="B308" t="s">
         <v>580</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="8" t="s">
         <v>581</v>
       </c>
       <c r="D308" s="2">
@@ -8620,8 +10205,11 @@
       <c r="G308" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K308" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D309" s="2">
         <v>2</v>
       </c>
@@ -8638,7 +10226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D310" s="2">
         <v>3</v>
       </c>
@@ -8655,7 +10243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D311" s="2">
         <v>4</v>
       </c>
@@ -8669,14 +10257,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>63</v>
       </c>
       <c r="B313" t="s">
         <v>105</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D313" s="2">
@@ -8691,8 +10279,11 @@
       <c r="G313" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K313" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D314" s="2">
         <v>2</v>
       </c>
@@ -8709,7 +10300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D315" s="2">
         <v>3</v>
       </c>
@@ -8726,7 +10317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D316" s="2">
         <v>4</v>
       </c>
@@ -8740,14 +10331,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>64</v>
       </c>
       <c r="B318" t="s">
         <v>109</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="22" t="s">
         <v>460</v>
       </c>
       <c r="D318" s="2">
@@ -8762,8 +10353,11 @@
       <c r="G318" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K318" s="22" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D319" s="2">
         <v>2</v>
       </c>
@@ -8780,7 +10374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D320" s="2">
         <v>3</v>
       </c>
@@ -8797,7 +10391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D321" s="2">
         <v>4</v>
       </c>
@@ -8814,7 +10408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D322" s="2">
         <v>5</v>
       </c>
@@ -8834,7 +10428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D323" s="2">
         <v>6</v>
       </c>
@@ -8848,14 +10442,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>65</v>
       </c>
       <c r="B325" t="s">
         <v>110</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="8" t="s">
         <v>494</v>
       </c>
       <c r="D325" s="2">
@@ -8870,8 +10464,11 @@
       <c r="G325" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K325" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D326" s="2">
         <v>2</v>
       </c>
@@ -8888,7 +10485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D327" s="2">
         <v>3</v>
       </c>
@@ -8905,7 +10502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D328" s="2">
         <v>4</v>
       </c>
@@ -8919,14 +10516,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>66</v>
       </c>
       <c r="B330" t="s">
         <v>112</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="22" t="s">
         <v>512</v>
       </c>
       <c r="D330" s="2">
@@ -8942,7 +10539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D331" s="2">
         <v>2</v>
       </c>
@@ -8962,8 +10559,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="332" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D332" s="8">
+    <row r="332" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D332" s="7">
         <v>3</v>
       </c>
       <c r="E332" t="s">
@@ -8977,8 +10574,8 @@
       </c>
       <c r="H332" s="2"/>
     </row>
-    <row r="333" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D333" s="8">
+    <row r="333" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D333" s="7">
         <v>4</v>
       </c>
       <c r="E333" t="s">
@@ -8994,8 +10591,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="334" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D334" s="8">
+    <row r="334" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D334" s="7">
         <v>5</v>
       </c>
       <c r="E334" t="s">
@@ -9014,32 +10611,32 @@
         <v>579</v>
       </c>
     </row>
-    <row r="335" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D335" s="8">
+    <row r="335" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D335" s="7">
         <v>6</v>
       </c>
       <c r="E335" t="s">
         <v>25</v>
       </c>
       <c r="F335" t="s">
-        <v>470</v>
+        <v>688</v>
       </c>
       <c r="G335" t="s">
         <v>27</v>
       </c>
       <c r="H335" s="2"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>67</v>
       </c>
       <c r="B337" t="s">
         <v>111</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="D337" s="8">
+      <c r="D337" s="7">
         <v>1</v>
       </c>
       <c r="E337" t="s">
@@ -9051,9 +10648,12 @@
       <c r="G337" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D338" s="8">
+      <c r="K337" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D338" s="7">
         <v>2</v>
       </c>
       <c r="E338" t="s">
@@ -9069,8 +10669,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D339" s="8">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D339" s="7">
         <v>3</v>
       </c>
       <c r="E339" t="s">
@@ -9086,8 +10686,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D340" s="8">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D340" s="7">
         <v>4</v>
       </c>
       <c r="E340" t="s">
@@ -9100,17 +10700,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>68</v>
       </c>
       <c r="B342" t="s">
         <v>113</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="D342" s="8">
+      <c r="D342" s="7">
         <v>1</v>
       </c>
       <c r="E342" t="s">
@@ -9123,8 +10723,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D343" s="8">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D343" s="7">
         <v>2</v>
       </c>
       <c r="E343" t="s">
@@ -9143,11 +10743,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
-      <c r="D344" s="8">
+      <c r="D344" s="7">
         <v>3</v>
       </c>
       <c r="E344" t="s">
@@ -9162,11 +10762,11 @@
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
-      <c r="D345" s="8">
+      <c r="D345" s="7">
         <v>4</v>
       </c>
       <c r="E345" t="s">
@@ -9184,11 +10784,11 @@
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
-      <c r="D346" s="8">
+      <c r="D346" s="7">
         <v>5</v>
       </c>
       <c r="E346" t="s">
@@ -9203,17 +10803,17 @@
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>69</v>
       </c>
       <c r="B348" t="s">
         <v>63</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D348" s="8">
+      <c r="D348" s="7">
         <v>1</v>
       </c>
       <c r="E348" t="s">
@@ -9225,9 +10825,12 @@
       <c r="G348" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D349" s="8">
+      <c r="K348" s="9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D349" s="7">
         <v>2</v>
       </c>
       <c r="E349" t="s">
@@ -9243,8 +10846,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D350" s="8">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D350" s="7">
         <v>3</v>
       </c>
       <c r="E350" t="s">
@@ -9260,8 +10863,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D351" s="8">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D351" s="7">
         <v>4</v>
       </c>
       <c r="E351" t="s">
@@ -9277,8 +10880,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D352" s="8">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D352" s="7">
         <v>5</v>
       </c>
       <c r="E352" t="s">
@@ -9298,10 +10901,10 @@
       <c r="B354" t="s">
         <v>66</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D354" s="8">
+      <c r="D354" s="7">
         <v>1</v>
       </c>
       <c r="E354" t="s">
@@ -9315,7 +10918,7 @@
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D355" s="8">
+      <c r="D355" s="7">
         <v>2</v>
       </c>
       <c r="E355" t="s">
@@ -9332,7 +10935,7 @@
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D356" s="8">
+      <c r="D356" s="7">
         <v>3</v>
       </c>
       <c r="E356" t="s">
@@ -9349,7 +10952,7 @@
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D357" s="8">
+      <c r="D357" s="7">
         <v>4</v>
       </c>
       <c r="E357" t="s">
@@ -9366,7 +10969,7 @@
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D358" s="8">
+      <c r="D358" s="7">
         <v>5</v>
       </c>
       <c r="E358" t="s">
@@ -9386,7 +10989,7 @@
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D359" s="8">
+      <c r="D359" s="7">
         <v>6</v>
       </c>
       <c r="E359" t="s">
@@ -9406,10 +11009,10 @@
       <c r="B361" t="s">
         <v>69</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C361" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D361" s="8">
+      <c r="D361" s="7">
         <v>1</v>
       </c>
       <c r="E361" t="s">
@@ -9423,7 +11026,7 @@
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D362" s="8">
+      <c r="D362" s="7">
         <v>2</v>
       </c>
       <c r="E362" t="s">
@@ -9440,7 +11043,7 @@
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D363" s="8">
+      <c r="D363" s="7">
         <v>3</v>
       </c>
       <c r="E363" t="s">
@@ -9457,7 +11060,7 @@
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D364" s="8">
+      <c r="D364" s="7">
         <v>4</v>
       </c>
       <c r="E364" t="s">
@@ -9474,7 +11077,7 @@
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D365" s="8">
+      <c r="D365" s="7">
         <v>5</v>
       </c>
       <c r="E365" t="s">
@@ -9494,7 +11097,7 @@
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D366" s="8">
+      <c r="D366" s="7">
         <v>6</v>
       </c>
       <c r="E366" t="s">
@@ -9517,7 +11120,7 @@
       <c r="C368" t="s">
         <v>531</v>
       </c>
-      <c r="D368" s="8">
+      <c r="D368" s="7">
         <v>1</v>
       </c>
       <c r="E368" t="s">
@@ -9530,8 +11133,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D369" s="8">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D369" s="7">
         <v>2</v>
       </c>
       <c r="E369" t="s">
@@ -9550,8 +11153,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D370" s="8">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D370" s="7">
         <v>3</v>
       </c>
       <c r="E370" t="s">
@@ -9570,8 +11173,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D371" s="8">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D371" s="7">
         <v>4</v>
       </c>
       <c r="E371" t="s">
@@ -9584,8 +11187,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D372" s="8">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D372" s="7">
         <v>5</v>
       </c>
       <c r="E372" t="s">
@@ -9598,8 +11201,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D373" s="8">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D373" s="7">
         <v>6</v>
       </c>
       <c r="E373" t="s">
@@ -9612,17 +11215,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>73</v>
       </c>
       <c r="B375" t="s">
         <v>548</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C375" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="D375" s="8">
+      <c r="D375" s="7">
         <v>1</v>
       </c>
       <c r="E375" t="s">
@@ -9634,9 +11237,12 @@
       <c r="G375" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D376" s="8">
+      <c r="K375" s="9" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D376" s="7">
         <v>2</v>
       </c>
       <c r="E376" t="s">
@@ -9652,8 +11258,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D377" s="8">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D377" s="7">
         <v>3</v>
       </c>
       <c r="E377" t="s">
@@ -9669,8 +11275,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D378" s="8">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D378" s="7">
         <v>4</v>
       </c>
       <c r="E378" t="s">
@@ -9686,8 +11292,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D379" s="8">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D379" s="7">
         <v>5</v>
       </c>
       <c r="E379" t="s">
@@ -9700,17 +11306,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>74</v>
       </c>
       <c r="B381" t="s">
         <v>558</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C381" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="D381" s="8">
+      <c r="D381" s="7">
         <v>1</v>
       </c>
       <c r="E381" t="s">
@@ -9722,9 +11328,12 @@
       <c r="G381" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D382" s="8">
+      <c r="K381" s="20" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D382" s="7">
         <v>2</v>
       </c>
       <c r="E382" t="s">
@@ -9740,8 +11349,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D383" s="8">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D383" s="7">
         <v>3</v>
       </c>
       <c r="E383" t="s">
@@ -9757,8 +11366,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D384" s="8">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D384" s="7">
         <v>4</v>
       </c>
       <c r="E384" t="s">
@@ -9771,8 +11380,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D385" s="8">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D385" s="7">
         <v>5</v>
       </c>
       <c r="E385" t="s">
@@ -9785,20 +11394,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D386" s="8"/>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D386" s="7"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>75</v>
       </c>
       <c r="B387" t="s">
         <v>583</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="D387" s="8">
+      <c r="D387" s="7">
         <v>1</v>
       </c>
       <c r="E387" t="s">
@@ -9811,8 +11420,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D388" s="8">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D388" s="7">
         <v>2</v>
       </c>
       <c r="E388" t="s">
@@ -9828,8 +11437,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D389" s="8">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D389" s="7">
         <v>3</v>
       </c>
       <c r="E389" t="s">
@@ -9845,8 +11454,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D390" s="8">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D390" s="7">
         <v>4</v>
       </c>
       <c r="E390" t="s">
@@ -9862,8 +11471,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D391" s="8">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D391" s="7">
         <v>5</v>
       </c>
       <c r="E391" t="s">
@@ -9882,8 +11491,8 @@
         <v>580</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D392" s="8">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D392" s="7">
         <v>6</v>
       </c>
       <c r="E392" t="s">
@@ -9896,17 +11505,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>76</v>
       </c>
       <c r="B394" t="s">
         <v>597</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C394" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="D394" s="8">
+      <c r="D394" s="7">
         <v>1</v>
       </c>
       <c r="E394" t="s">
@@ -9918,9 +11527,12 @@
       <c r="G394" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D395" s="8">
+      <c r="K394" s="8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D395" s="7">
         <v>2</v>
       </c>
       <c r="E395" t="s">
@@ -9936,8 +11548,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D396" s="8">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D396" s="7">
         <v>3</v>
       </c>
       <c r="E396" t="s">
@@ -9953,8 +11565,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D397" s="8">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D397" s="7">
         <v>4</v>
       </c>
       <c r="E397" t="s">
@@ -9967,17 +11579,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>77</v>
       </c>
       <c r="B399" t="s">
         <v>606</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="D399" s="8">
+      <c r="D399" s="7">
         <v>1</v>
       </c>
       <c r="E399" t="s">
@@ -9989,9 +11601,12 @@
       <c r="G399" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D400" s="8">
+      <c r="K399" s="8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D400" s="7">
         <v>2</v>
       </c>
       <c r="E400" t="s">
@@ -10007,8 +11622,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D401" s="8">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D401" s="7">
         <v>3</v>
       </c>
       <c r="E401" t="s">
@@ -10024,8 +11639,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D402" s="8">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D402" s="7">
         <v>4</v>
       </c>
       <c r="E402" t="s">
@@ -10038,17 +11653,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>78</v>
       </c>
       <c r="B404" t="s">
         <v>607</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="22" t="s">
         <v>609</v>
       </c>
-      <c r="D404" s="8">
+      <c r="D404" s="7">
         <v>1</v>
       </c>
       <c r="E404" t="s">
@@ -10060,9 +11675,12 @@
       <c r="G404" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D405" s="8">
+      <c r="K404" s="22" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D405" s="7">
         <v>2</v>
       </c>
       <c r="E405" t="s">
@@ -10078,8 +11696,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D406" s="8">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D406" s="7">
         <v>3</v>
       </c>
       <c r="E406" t="s">
@@ -10095,8 +11713,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D407" s="8">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D407" s="7">
         <v>4</v>
       </c>
       <c r="E407" t="s">
@@ -10112,8 +11730,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D408" s="8">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D408" s="7">
         <v>5</v>
       </c>
       <c r="E408" t="s">
@@ -10132,8 +11750,8 @@
         <v>606</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D409" s="8">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D409" s="7">
         <v>6</v>
       </c>
       <c r="E409" t="s">
@@ -10146,14 +11764,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>79</v>
       </c>
       <c r="B411" t="s">
         <v>629</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="10" t="s">
         <v>630</v>
       </c>
       <c r="D411" s="2">
@@ -10168,8 +11786,11 @@
       <c r="G411" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K411" s="10" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="D412" s="2">
         <v>2</v>
@@ -10184,7 +11805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="D413" s="2">
         <v>3</v>
@@ -10202,7 +11823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="D414" s="2">
         <v>4</v>
@@ -10217,17 +11838,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>80</v>
       </c>
       <c r="B416" t="s">
         <v>635</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="22" t="s">
         <v>636</v>
       </c>
       <c r="D416" s="2">
@@ -10243,7 +11864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D417" s="2">
         <v>2</v>
       </c>
@@ -10257,7 +11878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D418" s="2">
         <v>3</v>
       </c>
@@ -10274,7 +11895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D419" s="2">
         <v>4</v>
       </c>
@@ -10291,7 +11912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D420" s="2">
         <v>5</v>
       </c>
@@ -10311,7 +11932,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D421" s="2">
         <v>6</v>
       </c>
@@ -10325,14 +11946,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>81</v>
       </c>
       <c r="B424" t="s">
         <v>655</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="8" t="s">
         <v>649</v>
       </c>
       <c r="D424" s="2">
@@ -10347,8 +11968,11 @@
       <c r="G424" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K424" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D425" s="2">
         <v>2</v>
       </c>
@@ -10365,7 +11989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D426" s="2">
         <v>3</v>
       </c>
@@ -10382,7 +12006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D427" s="2">
         <v>4</v>
       </c>
@@ -10396,14 +12020,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>82</v>
       </c>
       <c r="B429" t="s">
         <v>656</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="22" t="s">
         <v>657</v>
       </c>
       <c r="D429" s="2">
@@ -10419,7 +12043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D430" s="2">
         <v>2</v>
       </c>
@@ -10436,7 +12060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D431" s="2">
         <v>3</v>
       </c>
@@ -10453,7 +12077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D432" s="2">
         <v>4</v>
       </c>
@@ -10470,7 +12094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D433" s="2">
         <v>5</v>
       </c>
@@ -10490,7 +12114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D434" s="2">
         <v>6</v>
       </c>
@@ -10504,14 +12128,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>83</v>
       </c>
       <c r="B437" t="s">
         <v>667</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="8" t="s">
         <v>666</v>
       </c>
       <c r="D437" s="2">
@@ -10526,8 +12150,11 @@
       <c r="G437" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K437" s="8" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D438" s="2">
         <v>2</v>
       </c>
@@ -10544,7 +12171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D439" s="2">
         <v>3</v>
       </c>
@@ -10561,7 +12188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D440" s="2">
         <v>4</v>
       </c>
@@ -10575,14 +12202,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>84</v>
       </c>
       <c r="B442" t="s">
         <v>673</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="8" t="s">
         <v>674</v>
       </c>
       <c r="D442" s="2">
@@ -10597,8 +12224,11 @@
       <c r="G442" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K442" s="8" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D443" s="2">
         <v>2</v>
       </c>
@@ -10615,7 +12245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D444" s="2">
         <v>3</v>
       </c>
@@ -10632,7 +12262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D445" s="2">
         <v>4</v>
       </c>
@@ -10650,4 +12280,980 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC3A7C8-423C-4447-AAAD-B70897D5CA88}">
+  <dimension ref="A2:I61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="I2" s="11">
+        <f>84-21</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="I3" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="I4" s="11">
+        <f>I2-I3</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>19</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>30</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>31</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>32</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>33</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>34</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>35</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>36</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>37</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>38</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>39</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>40</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>41</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>42</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>43</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>44</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>45</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>46</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>47</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>48</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>49</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>50</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>51</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>52</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>53</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db_structure/00B. Masters.xlsx
+++ b/db_structure/00B. Masters.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{247D1DDC-12F5-4554-9EFE-FD16C2800AC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F86198C-9009-434E-97EE-C5881AAA6100}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="827">
   <si>
     <t>Table Description</t>
   </si>
@@ -2480,6 +2480,24 @@
   </si>
   <si>
     <t>a32</t>
+  </si>
+  <si>
+    <t>a38</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>a43</t>
+  </si>
+  <si>
+    <t>a41</t>
+  </si>
+  <si>
+    <t>HTTP Parsing Error During Update</t>
   </si>
 </sst>
 </file>
@@ -5081,8 +5099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F391" sqref="F391"/>
+    <sheetView topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K342" sqref="K342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10538,6 +10556,9 @@
       <c r="G330" t="s">
         <v>19</v>
       </c>
+      <c r="K330" s="22" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D331" s="2">
@@ -10721,6 +10742,9 @@
       </c>
       <c r="G342" t="s">
         <v>19</v>
+      </c>
+      <c r="K342" s="22" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
@@ -10894,7 +10918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>70</v>
       </c>
@@ -10916,8 +10940,11 @@
       <c r="G354" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K354" s="22" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D355" s="7">
         <v>2</v>
       </c>
@@ -10934,7 +10961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D356" s="7">
         <v>3</v>
       </c>
@@ -10951,7 +10978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D357" s="7">
         <v>4</v>
       </c>
@@ -10968,7 +10995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D358" s="7">
         <v>5</v>
       </c>
@@ -10988,7 +11015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D359" s="7">
         <v>6</v>
       </c>
@@ -11002,7 +11029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>71</v>
       </c>
@@ -11024,8 +11051,11 @@
       <c r="G361" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K361" s="22" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D362" s="7">
         <v>2</v>
       </c>
@@ -11042,7 +11072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D363" s="7">
         <v>3</v>
       </c>
@@ -11059,7 +11089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D364" s="7">
         <v>4</v>
       </c>
@@ -11076,7 +11106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D365" s="7">
         <v>5</v>
       </c>
@@ -11096,7 +11126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D366" s="7">
         <v>6</v>
       </c>
@@ -11110,7 +11140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>72</v>
       </c>
@@ -11418,6 +11448,9 @@
       </c>
       <c r="G387" t="s">
         <v>19</v>
+      </c>
+      <c r="K387" s="22" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
@@ -11862,6 +11895,9 @@
       </c>
       <c r="G416" t="s">
         <v>19</v>
+      </c>
+      <c r="K416" s="22" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
@@ -12286,8 +12322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC3A7C8-423C-4447-AAAD-B70897D5CA88}">
   <dimension ref="A2:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12345,7 +12381,7 @@
         <v>797</v>
       </c>
       <c r="I3" s="11">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -12369,7 +12405,7 @@
       </c>
       <c r="I4" s="11">
         <f>I2-I3</f>
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -13100,8 +13136,12 @@
       <c r="C49" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="D49" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
@@ -13113,8 +13153,12 @@
       <c r="C50" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
@@ -13126,8 +13170,12 @@
       <c r="C51" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="D51" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
@@ -13139,8 +13187,12 @@
       <c r="C52" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="D52" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
@@ -13152,8 +13204,12 @@
       <c r="C53" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="11">

--- a/db_structure/00B. Masters.xlsx
+++ b/db_structure/00B. Masters.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F86198C-9009-434E-97EE-C5881AAA6100}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E1F4C9C-7B05-4C31-AA6A-FE512A83F098}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="832">
   <si>
     <t>Table Description</t>
   </si>
@@ -2440,9 +2440,6 @@
     <t>zp_dq_psty_02</t>
   </si>
   <si>
-    <t>Foreign Key</t>
-  </si>
-  <si>
     <t>a53</t>
   </si>
   <si>
@@ -2497,14 +2494,32 @@
     <t>a41</t>
   </si>
   <si>
-    <t>HTTP Parsing Error During Update</t>
+    <t>Date Function</t>
+  </si>
+  <si>
+    <t>Single Foreign Key</t>
+  </si>
+  <si>
+    <t>Multiple Foreign Keys</t>
+  </si>
+  <si>
+    <t>a78</t>
+  </si>
+  <si>
+    <t>Hard Coding For SerchType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>Example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2527,8 +2542,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2577,8 +2599,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2627,11 +2655,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2659,10 +2711,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5099,8 +5157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K445"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K342" sqref="K342"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5858,7 +5916,7 @@
       <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>137</v>
       </c>
       <c r="D47" s="2">
@@ -5873,8 +5931,8 @@
       <c r="G47" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="22" t="s">
-        <v>816</v>
+      <c r="K47" s="21" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -6034,7 +6092,7 @@
       <c r="B58" t="s">
         <v>143</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D58" s="2">
@@ -6128,7 +6186,7 @@
       <c r="B64" t="s">
         <v>61</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="24" t="s">
         <v>156</v>
       </c>
       <c r="D64" s="2">
@@ -6435,7 +6493,7 @@
       <c r="B82" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D82" s="2">
@@ -6450,8 +6508,8 @@
       <c r="G82" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="22" t="s">
-        <v>810</v>
+      <c r="K82" s="21" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -6554,7 +6612,7 @@
       <c r="B89" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="2">
@@ -6569,8 +6627,8 @@
       <c r="G89" t="s">
         <v>19</v>
       </c>
-      <c r="K89" s="22" t="s">
-        <v>808</v>
+      <c r="K89" s="21" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -6665,7 +6723,7 @@
       <c r="B96" t="s">
         <v>199</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="24" t="s">
         <v>197</v>
       </c>
       <c r="D96" s="2">
@@ -7173,7 +7231,7 @@
       <c r="B125" t="s">
         <v>76</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="C125" s="21" t="s">
         <v>77</v>
       </c>
       <c r="D125" s="2">
@@ -7188,8 +7246,8 @@
       <c r="G125" t="s">
         <v>19</v>
       </c>
-      <c r="K125" s="22" t="s">
-        <v>809</v>
+      <c r="K125" s="21" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -7465,7 +7523,7 @@
       <c r="B143" t="s">
         <v>82</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="24" t="s">
         <v>261</v>
       </c>
       <c r="D143" s="2">
@@ -8007,7 +8065,7 @@
       <c r="B173" t="s">
         <v>115</v>
       </c>
-      <c r="C173" s="22" t="s">
+      <c r="C173" s="21" t="s">
         <v>300</v>
       </c>
       <c r="D173" s="2">
@@ -8022,8 +8080,8 @@
       <c r="G173" t="s">
         <v>19</v>
       </c>
-      <c r="K173" s="22" t="s">
-        <v>811</v>
+      <c r="K173" s="21" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -8195,7 +8253,7 @@
       <c r="B185" t="s">
         <v>116</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="21" t="s">
         <v>301</v>
       </c>
       <c r="D185" s="2">
@@ -8210,8 +8268,8 @@
       <c r="G185" t="s">
         <v>19</v>
       </c>
-      <c r="K185" s="22" t="s">
-        <v>812</v>
+      <c r="K185" s="21" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -8404,7 +8462,7 @@
       <c r="B198" t="s">
         <v>96</v>
       </c>
-      <c r="C198" s="22" t="s">
+      <c r="C198" s="21" t="s">
         <v>330</v>
       </c>
       <c r="D198" s="2">
@@ -8419,8 +8477,8 @@
       <c r="G198" t="s">
         <v>19</v>
       </c>
-      <c r="K198" s="22" t="s">
-        <v>813</v>
+      <c r="K198" s="21" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8518,7 +8576,7 @@
       <c r="B205" t="s">
         <v>97</v>
       </c>
-      <c r="C205" s="22" t="s">
+      <c r="C205" s="24" t="s">
         <v>328</v>
       </c>
       <c r="D205" s="2">
@@ -8655,7 +8713,7 @@
       <c r="B213" t="s">
         <v>98</v>
       </c>
-      <c r="C213" s="22" t="s">
+      <c r="C213" s="21" t="s">
         <v>331</v>
       </c>
       <c r="D213" s="2">
@@ -8670,8 +8728,8 @@
       <c r="G213" t="s">
         <v>19</v>
       </c>
-      <c r="K213" s="22" t="s">
-        <v>814</v>
+      <c r="K213" s="21" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8970,7 +9028,7 @@
       <c r="B232" t="s">
         <v>114</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="24" t="s">
         <v>626</v>
       </c>
       <c r="D232" s="2">
@@ -9287,7 +9345,7 @@
       <c r="B250" t="s">
         <v>108</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="24" t="s">
         <v>627</v>
       </c>
       <c r="D250" s="2">
@@ -9480,7 +9538,7 @@
       <c r="B262" t="s">
         <v>374</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="24" t="s">
         <v>377</v>
       </c>
       <c r="D262" s="2">
@@ -9648,7 +9706,7 @@
       <c r="B273" t="s">
         <v>102</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="24" t="s">
         <v>424</v>
       </c>
       <c r="D273" s="2">
@@ -10043,7 +10101,7 @@
       <c r="B297" t="s">
         <v>502</v>
       </c>
-      <c r="C297" s="22" t="s">
+      <c r="C297" s="21" t="s">
         <v>503</v>
       </c>
       <c r="D297" s="2">
@@ -10356,7 +10414,7 @@
       <c r="B318" t="s">
         <v>109</v>
       </c>
-      <c r="C318" s="22" t="s">
+      <c r="C318" s="21" t="s">
         <v>460</v>
       </c>
       <c r="D318" s="2">
@@ -10371,8 +10429,8 @@
       <c r="G318" t="s">
         <v>19</v>
       </c>
-      <c r="K318" s="22" t="s">
-        <v>817</v>
+      <c r="K318" s="21" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
@@ -10541,7 +10599,7 @@
       <c r="B330" t="s">
         <v>112</v>
       </c>
-      <c r="C330" s="22" t="s">
+      <c r="C330" s="21" t="s">
         <v>512</v>
       </c>
       <c r="D330" s="2">
@@ -10556,8 +10614,8 @@
       <c r="G330" t="s">
         <v>19</v>
       </c>
-      <c r="K330" s="22" t="s">
-        <v>824</v>
+      <c r="K330" s="21" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
@@ -10728,7 +10786,7 @@
       <c r="B342" t="s">
         <v>113</v>
       </c>
-      <c r="C342" s="22" t="s">
+      <c r="C342" s="21" t="s">
         <v>522</v>
       </c>
       <c r="D342" s="7">
@@ -10743,8 +10801,8 @@
       <c r="G342" t="s">
         <v>19</v>
       </c>
-      <c r="K342" s="22" t="s">
-        <v>825</v>
+      <c r="K342" s="21" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
@@ -10925,7 +10983,7 @@
       <c r="B354" t="s">
         <v>66</v>
       </c>
-      <c r="C354" s="22" t="s">
+      <c r="C354" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D354" s="7">
@@ -10940,8 +10998,8 @@
       <c r="G354" t="s">
         <v>19</v>
       </c>
-      <c r="K354" s="22" t="s">
-        <v>822</v>
+      <c r="K354" s="21" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
@@ -11036,7 +11094,7 @@
       <c r="B361" t="s">
         <v>69</v>
       </c>
-      <c r="C361" s="22" t="s">
+      <c r="C361" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D361" s="7">
@@ -11051,8 +11109,8 @@
       <c r="G361" t="s">
         <v>19</v>
       </c>
-      <c r="K361" s="22" t="s">
-        <v>823</v>
+      <c r="K361" s="21" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
@@ -11147,7 +11205,7 @@
       <c r="B368" t="s">
         <v>533</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C368" s="24" t="s">
         <v>531</v>
       </c>
       <c r="D368" s="7">
@@ -11343,7 +11401,7 @@
       <c r="B381" t="s">
         <v>558</v>
       </c>
-      <c r="C381" s="20" t="s">
+      <c r="C381" s="19" t="s">
         <v>559</v>
       </c>
       <c r="D381" s="7">
@@ -11358,7 +11416,7 @@
       <c r="G381" t="s">
         <v>19</v>
       </c>
-      <c r="K381" s="20" t="s">
+      <c r="K381" s="19" t="s">
         <v>804</v>
       </c>
     </row>
@@ -11434,7 +11492,7 @@
       <c r="B387" t="s">
         <v>583</v>
       </c>
-      <c r="C387" s="22" t="s">
+      <c r="C387" s="21" t="s">
         <v>588</v>
       </c>
       <c r="D387" s="7">
@@ -11449,8 +11507,8 @@
       <c r="G387" t="s">
         <v>19</v>
       </c>
-      <c r="K387" s="22" t="s">
-        <v>821</v>
+      <c r="K387" s="21" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
@@ -11693,7 +11751,7 @@
       <c r="B404" t="s">
         <v>607</v>
       </c>
-      <c r="C404" s="22" t="s">
+      <c r="C404" s="21" t="s">
         <v>609</v>
       </c>
       <c r="D404" s="7">
@@ -11708,8 +11766,8 @@
       <c r="G404" t="s">
         <v>19</v>
       </c>
-      <c r="K404" s="22" t="s">
-        <v>820</v>
+      <c r="K404" s="21" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
@@ -11881,7 +11939,7 @@
       <c r="B416" t="s">
         <v>635</v>
       </c>
-      <c r="C416" s="22" t="s">
+      <c r="C416" s="21" t="s">
         <v>636</v>
       </c>
       <c r="D416" s="2">
@@ -11896,8 +11954,8 @@
       <c r="G416" t="s">
         <v>19</v>
       </c>
-      <c r="K416" s="22" t="s">
-        <v>819</v>
+      <c r="K416" s="21" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
@@ -12063,7 +12121,7 @@
       <c r="B429" t="s">
         <v>656</v>
       </c>
-      <c r="C429" s="22" t="s">
+      <c r="C429" s="21" t="s">
         <v>657</v>
       </c>
       <c r="D429" s="2">
@@ -12320,10 +12378,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC3A7C8-423C-4447-AAAD-B70897D5CA88}">
-  <dimension ref="A2:I61"/>
+  <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12333,6 +12391,8 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
@@ -12353,12 +12413,15 @@
       <c r="E2" s="13" t="s">
         <v>780</v>
       </c>
+      <c r="F2" s="13" t="s">
+        <v>829</v>
+      </c>
       <c r="H2" s="11" t="s">
         <v>790</v>
       </c>
       <c r="I2" s="11">
-        <f>84-21</f>
-        <v>63</v>
+        <f>84-22</f>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12377,6 +12440,9 @@
       <c r="E3" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F3" s="14" t="s">
+        <v>781</v>
+      </c>
       <c r="H3" s="14" t="s">
         <v>797</v>
       </c>
@@ -12400,12 +12466,15 @@
       <c r="E4" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F4" s="14" t="s">
+        <v>781</v>
+      </c>
       <c r="H4" s="14" t="s">
         <v>798</v>
       </c>
       <c r="I4" s="11">
         <f>I2-I3</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -12424,6 +12493,9 @@
       <c r="E5" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F5" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -12441,6 +12513,9 @@
       <c r="E6" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F6" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -12458,6 +12533,9 @@
       <c r="E7" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F7" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -12475,6 +12553,9 @@
       <c r="E8" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F8" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -12492,6 +12573,9 @@
       <c r="E9" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F9" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
@@ -12509,6 +12593,9 @@
       <c r="E10" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F10" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -12526,6 +12613,9 @@
       <c r="E11" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
@@ -12543,6 +12633,9 @@
       <c r="E12" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F12" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
@@ -12560,6 +12653,9 @@
       <c r="E13" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -12577,6 +12673,9 @@
       <c r="E14" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F14" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
@@ -12594,6 +12693,9 @@
       <c r="E15" s="14" t="s">
         <v>781</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -12611,8 +12713,11 @@
       <c r="E16" s="14" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -12628,15 +12733,19 @@
       <c r="E17" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -12652,8 +12761,11 @@
       <c r="E19" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -12669,8 +12781,11 @@
       <c r="E20" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -12686,8 +12801,11 @@
       <c r="E21" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>19</v>
       </c>
@@ -12703,8 +12821,11 @@
       <c r="E22" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -12720,8 +12841,11 @@
       <c r="E23" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -12737,8 +12861,11 @@
       <c r="E24" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -12754,8 +12881,11 @@
       <c r="E25" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -12771,8 +12901,11 @@
       <c r="E26" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -12788,8 +12921,11 @@
       <c r="E27" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -12805,8 +12941,11 @@
       <c r="E28" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -12822,8 +12961,11 @@
       <c r="E29" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -12839,8 +12981,11 @@
       <c r="E30" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -12856,8 +13001,11 @@
       <c r="E31" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -12873,8 +13021,11 @@
       <c r="E32" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -12890,8 +13041,11 @@
       <c r="E33" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -12907,15 +13061,19 @@
       <c r="E34" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -12931,9 +13089,11 @@
       <c r="E36" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="26" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -12949,8 +13109,11 @@
       <c r="E37" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -12966,8 +13129,11 @@
       <c r="E38" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>35</v>
       </c>
@@ -12983,18 +13149,21 @@
       <c r="E39" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="11" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>36</v>
       </c>
@@ -13005,13 +13174,16 @@
         <v>91</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>37</v>
       </c>
@@ -13022,13 +13194,16 @@
         <v>77</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>38</v>
       </c>
@@ -13039,13 +13214,16 @@
         <v>300</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>39</v>
       </c>
@@ -13056,13 +13234,16 @@
         <v>301</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>40</v>
       </c>
@@ -13073,13 +13254,16 @@
         <v>330</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>41</v>
       </c>
@@ -13090,51 +13274,65 @@
         <v>331</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>814</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>42</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>502</v>
+        <v>109</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>43</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>44</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>824</v>
@@ -13142,33 +13340,42 @@
       <c r="E49" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>45</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>522</v>
+        <v>67</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>46</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>822</v>
@@ -13176,76 +13383,87 @@
       <c r="E51" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>47</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>69</v>
+        <v>583</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>70</v>
+        <v>588</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>48</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>49</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>50</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>635</v>
+        <v>86</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>636</v>
+        <v>137</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>51</v>
       </c>
@@ -13255,59 +13473,209 @@
       <c r="C56" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>52</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>137</v>
+        <v>87</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>53</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>328</v>
+        <v>502</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>503</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+      <c r="F58" s="11" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="11" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>53</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>54</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>55</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>56</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>57</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>58</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>59</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>60</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>61</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>62</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_structure/00B. Masters.xlsx
+++ b/db_structure/00B. Masters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E1F4C9C-7B05-4C31-AA6A-FE512A83F098}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2EDA17C-7988-48DF-A897-2D8CC1B9CA9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="834">
   <si>
     <t>Table Description</t>
   </si>
@@ -2461,9 +2461,6 @@
     <t>a68</t>
   </si>
   <si>
-    <t>Not Done</t>
-  </si>
-  <si>
     <t>A26</t>
   </si>
   <si>
@@ -2513,6 +2510,15 @@
   </si>
   <si>
     <t>Example</t>
+  </si>
+  <si>
+    <t>a67</t>
+  </si>
+  <si>
+    <t>A60</t>
+  </si>
+  <si>
+    <t>a60</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3068,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5157,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E342" sqref="E342"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5932,7 +5938,7 @@
         <v>19</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -6738,6 +6744,9 @@
       <c r="G96" t="s">
         <v>19</v>
       </c>
+      <c r="K96" s="24" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
@@ -8591,6 +8600,9 @@
       <c r="G205" t="s">
         <v>19</v>
       </c>
+      <c r="K205" s="24" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
@@ -10430,7 +10442,7 @@
         <v>19</v>
       </c>
       <c r="K318" s="21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
@@ -10615,7 +10627,7 @@
         <v>19</v>
       </c>
       <c r="K330" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
@@ -10802,7 +10814,7 @@
         <v>19</v>
       </c>
       <c r="K342" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
@@ -10999,7 +11011,7 @@
         <v>19</v>
       </c>
       <c r="K354" s="21" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
@@ -11110,7 +11122,7 @@
         <v>19</v>
       </c>
       <c r="K361" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
@@ -11508,7 +11520,7 @@
         <v>19</v>
       </c>
       <c r="K387" s="21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
@@ -11767,7 +11779,7 @@
         <v>19</v>
       </c>
       <c r="K404" s="21" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
@@ -11955,7 +11967,7 @@
         <v>19</v>
       </c>
       <c r="K416" s="21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
@@ -12135,6 +12147,9 @@
       </c>
       <c r="G429" t="s">
         <v>19</v>
+      </c>
+      <c r="K429" s="21" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
@@ -12380,8 +12395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC3A7C8-423C-4447-AAAD-B70897D5CA88}">
   <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12414,7 +12429,7 @@
         <v>780</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>790</v>
@@ -13090,7 +13105,7 @@
         <v>781</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -13110,7 +13125,7 @@
         <v>781</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -13130,7 +13145,7 @@
         <v>781</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -13150,7 +13165,7 @@
         <v>781</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -13160,7 +13175,7 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -13180,7 +13195,7 @@
         <v>781</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -13200,7 +13215,7 @@
         <v>781</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -13220,7 +13235,7 @@
         <v>781</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -13240,7 +13255,7 @@
         <v>781</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -13260,7 +13275,7 @@
         <v>781</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -13277,9 +13292,11 @@
         <v>813</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="F46" s="11"/>
+        <v>781</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
@@ -13292,13 +13309,13 @@
         <v>460</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>781</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -13312,16 +13329,16 @@
         <v>512</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>781</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="G48" s="28" t="s">
         <v>830</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -13335,16 +13352,16 @@
         <v>522</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>781</v>
       </c>
       <c r="F49" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="G49" s="28" t="s">
         <v>830</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -13358,13 +13375,13 @@
         <v>67</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>781</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -13378,13 +13395,13 @@
         <v>70</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>781</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -13398,13 +13415,13 @@
         <v>588</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>781</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -13418,13 +13435,13 @@
         <v>609</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>781</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -13438,12 +13455,14 @@
         <v>636</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="F54" s="11"/>
+      <c r="F54" s="11" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
@@ -13456,12 +13475,14 @@
         <v>137</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="F55" s="11"/>
+      <c r="F55" s="11" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
@@ -13474,12 +13495,14 @@
         <v>657</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="F56" s="11"/>
+        <v>781</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
@@ -13498,7 +13521,7 @@
         <v>781</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -13514,7 +13537,7 @@
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -13524,7 +13547,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
       <c r="F59" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -13551,9 +13574,15 @@
       <c r="C61" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="D61" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
@@ -13579,9 +13608,15 @@
       <c r="C63" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
+      <c r="D63" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
@@ -13666,7 +13701,7 @@
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">

--- a/db_structure/00B. Masters.xlsx
+++ b/db_structure/00B. Masters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2EDA17C-7988-48DF-A897-2D8CC1B9CA9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70718672-3EB6-4E10-820E-5201814FCA29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="838">
   <si>
     <t>Table Description</t>
   </si>
@@ -2519,6 +2519,18 @@
   </si>
   <si>
     <t>a60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>a50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending </t>
+  </si>
+  <si>
+    <t>A54</t>
   </si>
 </sst>
 </file>
@@ -2556,7 +2568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2608,6 +2620,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2689,7 +2707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2727,6 +2745,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5163,8 +5185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A436" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I270" sqref="I270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6207,6 +6229,9 @@
       <c r="G64" t="s">
         <v>19</v>
       </c>
+      <c r="K64" s="24" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -9055,6 +9080,9 @@
       <c r="G232" t="s">
         <v>19</v>
       </c>
+      <c r="K232" s="29" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
@@ -9219,7 +9247,7 @@
         <v>19</v>
       </c>
       <c r="I241" t="s">
-        <v>91</v>
+        <v>834</v>
       </c>
       <c r="J241" t="s">
         <v>90</v>
@@ -9711,7 +9739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>58</v>
       </c>
@@ -9733,8 +9761,11 @@
       <c r="G273" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K273" s="29" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D274" s="2">
         <v>2</v>
       </c>
@@ -9754,7 +9785,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D275" s="2">
         <v>3</v>
       </c>
@@ -9771,7 +9802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D276" s="2">
         <v>4</v>
       </c>
@@ -9788,7 +9819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D277" s="2">
         <v>5</v>
       </c>
@@ -9805,7 +9836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D278" s="2">
         <v>6</v>
       </c>
@@ -9822,7 +9853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D279" s="2">
         <v>7</v>
       </c>
@@ -9839,7 +9870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D280" s="2">
         <v>8</v>
       </c>
@@ -9856,7 +9887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D281" s="2">
         <v>9</v>
       </c>
@@ -9873,7 +9904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D282" s="2">
         <v>10</v>
       </c>
@@ -9890,7 +9921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D283" s="2">
         <v>11</v>
       </c>
@@ -9907,7 +9938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D284" s="2">
         <v>12</v>
       </c>
@@ -9924,7 +9955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D285" s="2">
         <v>13</v>
       </c>
@@ -9944,7 +9975,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D286" s="2">
         <v>14</v>
       </c>
@@ -9964,7 +9995,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D287" s="2">
         <v>15</v>
       </c>
@@ -9984,7 +10015,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D288" s="2">
         <v>16</v>
       </c>
@@ -12395,8 +12426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC3A7C8-423C-4447-AAAD-B70897D5CA88}">
   <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12462,7 +12493,7 @@
         <v>797</v>
       </c>
       <c r="I3" s="11">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -12489,7 +12520,7 @@
       </c>
       <c r="I4" s="11">
         <f>I2-I3</f>
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -13524,19 +13555,19 @@
         <v>829</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
+    <row r="58" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
         <v>53</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11" t="s">
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30" t="s">
         <v>824</v>
       </c>
     </row>
@@ -13560,9 +13591,15 @@
       <c r="C60" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="D60" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
@@ -13670,23 +13707,31 @@
       <c r="C67" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
+      <c r="D67" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
         <v>61</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="31" t="s">
         <v>531</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
@@ -13714,5 +13759,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/db_structure/00B. Masters.xlsx
+++ b/db_structure/00B. Masters.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70718672-3EB6-4E10-820E-5201814FCA29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{313E2354-0C9C-4F29-B212-B620170D1BCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="840">
   <si>
     <t>Table Description</t>
   </si>
@@ -2521,9 +2521,6 @@
     <t>a60</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>a50</t>
   </si>
   <si>
@@ -2531,6 +2528,15 @@
   </si>
   <si>
     <t>A54</t>
+  </si>
+  <si>
+    <t>a73</t>
+  </si>
+  <si>
+    <t>a71</t>
+  </si>
+  <si>
+    <t>locm_a_flg</t>
   </si>
 </sst>
 </file>
@@ -5183,10 +5189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K445"/>
+  <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I270" sqref="I270"/>
+    <sheetView topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6230,7 +6236,7 @@
         <v>19</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -7078,160 +7084,158 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
+      <c r="D113" s="2">
+        <v>18</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" t="s">
+        <v>839</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="A114" s="2"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>38</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>72</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C115" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D115" s="2">
         <v>1</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E115" t="s">
         <v>17</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F115" t="s">
         <v>234</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G115" t="s">
         <v>19</v>
       </c>
-      <c r="K114" s="8" t="s">
+      <c r="K115" s="8" t="s">
         <v>767</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="D115" s="2">
-        <v>2</v>
-      </c>
-      <c r="E115" t="s">
-        <v>20</v>
-      </c>
-      <c r="F115" t="s">
-        <v>235</v>
-      </c>
-      <c r="G115" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="D116" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G116" t="s">
         <v>22</v>
       </c>
       <c r="H116" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="D117" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G117" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H117" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2">
+        <v>4</v>
+      </c>
+      <c r="E118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" t="s">
+        <v>237</v>
+      </c>
+      <c r="G118" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+      <c r="A119" s="2"/>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>39</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>646</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C120" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D120" s="2">
         <v>1</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E120" t="s">
         <v>17</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F120" t="s">
         <v>238</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G120" t="s">
         <v>19</v>
       </c>
-      <c r="K119" s="9" t="s">
+      <c r="K120" s="9" t="s">
         <v>788</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="D120" s="2">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s">
-        <v>20</v>
-      </c>
-      <c r="F120" t="s">
-        <v>239</v>
-      </c>
-      <c r="G120" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="D121" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G121" t="s">
         <v>22</v>
       </c>
       <c r="H121" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="D122" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G122" t="s">
         <v>22</v>
@@ -7243,90 +7247,91 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="D123" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G123" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H123" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
+      <c r="D124" s="2">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" t="s">
+        <v>242</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>40</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>76</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C126" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D126" s="2">
         <v>1</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E126" t="s">
         <v>17</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F126" t="s">
         <v>243</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G126" t="s">
         <v>19</v>
       </c>
-      <c r="K125" s="21" t="s">
+      <c r="K126" s="21" t="s">
         <v>808</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D126" s="2">
-        <v>2</v>
-      </c>
-      <c r="E126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F126" t="s">
-        <v>245</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D127" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G127" t="s">
         <v>22</v>
       </c>
       <c r="H127" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D128" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F128" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G128" t="s">
         <v>22</v>
@@ -7337,113 +7342,112 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D129" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G129" t="s">
-        <v>19</v>
-      </c>
-      <c r="I129" t="s">
-        <v>74</v>
-      </c>
-      <c r="J129" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="H129" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D130" s="2">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>244</v>
+      </c>
+      <c r="F130" t="s">
+        <v>248</v>
+      </c>
+      <c r="G130" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s">
+        <v>74</v>
+      </c>
+      <c r="J130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D131" s="2">
         <v>6</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E131" t="s">
         <v>25</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F131" t="s">
         <v>249</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G131" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-    </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>41</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>79</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C133" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D133" s="2">
         <v>1</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" t="s">
         <v>17</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F133" t="s">
         <v>250</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G133" t="s">
         <v>19</v>
       </c>
-      <c r="K132" s="9" t="s">
+      <c r="K133" s="9" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="D133" s="2">
-        <v>2</v>
-      </c>
-      <c r="E133" t="s">
-        <v>20</v>
-      </c>
-      <c r="F133" t="s">
-        <v>251</v>
-      </c>
-      <c r="G133" t="s">
-        <v>22</v>
-      </c>
-      <c r="H133" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="D134" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G134" t="s">
         <v>22</v>
       </c>
       <c r="H134" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="D135" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F135" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G135" t="s">
         <v>22</v>
@@ -7455,170 +7459,170 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="D136" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G136" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H136" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
+      <c r="D137" s="2">
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" t="s">
+        <v>254</v>
+      </c>
+      <c r="G137" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>42</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>255</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C139" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D139" s="2">
         <v>1</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E139" t="s">
         <v>17</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F139" t="s">
         <v>257</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G139" t="s">
         <v>19</v>
       </c>
-      <c r="K138" s="8" t="s">
+      <c r="K139" s="8" t="s">
         <v>768</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="D139" s="2">
-        <v>2</v>
-      </c>
-      <c r="E139" t="s">
-        <v>20</v>
-      </c>
-      <c r="F139" t="s">
-        <v>258</v>
-      </c>
-      <c r="G139" t="s">
-        <v>22</v>
-      </c>
-      <c r="H139" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="D140" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G140" t="s">
         <v>22</v>
       </c>
       <c r="H140" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="D141" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G141" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H141" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
+      <c r="D142" s="2">
+        <v>4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>25</v>
+      </c>
+      <c r="F142" t="s">
+        <v>260</v>
+      </c>
+      <c r="G142" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>43</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>82</v>
       </c>
-      <c r="C143" s="24" t="s">
+      <c r="C144" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D144" s="2">
         <v>1</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E144" t="s">
         <v>17</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F144" t="s">
         <v>263</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G144" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="D144" s="2">
-        <v>2</v>
-      </c>
-      <c r="E144" t="s">
-        <v>20</v>
-      </c>
-      <c r="F144" t="s">
-        <v>273</v>
-      </c>
-      <c r="G144" t="s">
-        <v>22</v>
-      </c>
-      <c r="H144" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="D145" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G145" t="s">
         <v>22</v>
       </c>
       <c r="H145" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="D146" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="F146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G146" t="s">
         <v>22</v>
@@ -7630,193 +7634,193 @@
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="D147" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G147" t="s">
-        <v>150</v>
+        <v>22</v>
+      </c>
+      <c r="H147" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="D148" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="F148" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G148" t="s">
-        <v>19</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="D149" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G149" t="s">
         <v>19</v>
       </c>
-      <c r="I149" t="s">
-        <v>197</v>
-      </c>
-      <c r="J149" t="s">
-        <v>62</v>
+      <c r="I149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="D150" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F150" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G150" t="s">
         <v>19</v>
       </c>
       <c r="I150" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="J150" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="D151" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="F151" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G151" t="s">
         <v>19</v>
       </c>
       <c r="I151" t="s">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="J151" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="D152" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="F152" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G152" t="s">
         <v>19</v>
       </c>
       <c r="I152" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J152" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="D153" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F153" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G153" t="s">
         <v>19</v>
       </c>
       <c r="I153" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J153" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="D154" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F154" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G154" t="s">
         <v>19</v>
       </c>
       <c r="I154" t="s">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="J154" t="s">
-        <v>255</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="D155" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E155" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="F155" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G155" t="s">
-        <v>22</v>
-      </c>
-      <c r="H155" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="I155" t="s">
+        <v>231</v>
+      </c>
+      <c r="J155" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="D156" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F156" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G156" t="s">
         <v>22</v>
@@ -7828,13 +7832,13 @@
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="D157" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F157" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G157" t="s">
         <v>22</v>
@@ -7846,112 +7850,112 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="D158" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F158" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G158" t="s">
-        <v>19</v>
-      </c>
-      <c r="I158" t="s">
-        <v>91</v>
-      </c>
-      <c r="J158" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="H158" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="D159" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F159" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G159" t="s">
         <v>19</v>
       </c>
       <c r="I159" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J159" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="D160" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F160" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G160" t="s">
         <v>19</v>
       </c>
       <c r="I160" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J160" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="D161" s="2">
+        <v>18</v>
+      </c>
+      <c r="E161" t="s">
+        <v>187</v>
+      </c>
+      <c r="F161" t="s">
+        <v>289</v>
+      </c>
+      <c r="G161" t="s">
         <v>19</v>
       </c>
-      <c r="E161" t="s">
-        <v>271</v>
-      </c>
-      <c r="F161" t="s">
-        <v>290</v>
-      </c>
-      <c r="G161" t="s">
-        <v>22</v>
-      </c>
-      <c r="H161" s="2">
-        <v>50</v>
+      <c r="I161" t="s">
+        <v>94</v>
+      </c>
+      <c r="J161" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="D162" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E162" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="F162" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G162" t="s">
         <v>22</v>
       </c>
       <c r="H162" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="D163" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E163" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G163" t="s">
         <v>22</v>
@@ -7963,13 +7967,13 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="D164" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E164" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F164" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G164" t="s">
         <v>22</v>
@@ -7981,13 +7985,13 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="D165" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E165" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F165" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G165" t="s">
         <v>22</v>
@@ -7999,1232 +8003,1219 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="D166" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E166" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="F166" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G166" t="s">
-        <v>150</v>
+        <v>22</v>
+      </c>
+      <c r="H166" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
-      <c r="D167" s="2"/>
+      <c r="D167" s="2">
+        <v>24</v>
+      </c>
+      <c r="E167" t="s">
+        <v>272</v>
+      </c>
+      <c r="F167" t="s">
+        <v>295</v>
+      </c>
+      <c r="G167" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>44</v>
-      </c>
-      <c r="B168" t="s">
-        <v>296</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D168" s="2">
-        <v>1</v>
-      </c>
-      <c r="E168" t="s">
-        <v>17</v>
-      </c>
-      <c r="F168" t="s">
-        <v>306</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
-      <c r="K168" s="10" t="s">
-        <v>801</v>
-      </c>
+      <c r="A168" s="2"/>
+      <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
-      <c r="D169" s="2">
-        <v>2</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>44</v>
       </c>
-      <c r="F169" t="s">
-        <v>307</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="B170" t="s">
+        <v>296</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" t="s">
+        <v>306</v>
+      </c>
+      <c r="G170" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="D170" s="2">
-        <v>3</v>
-      </c>
-      <c r="E170" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" t="s">
-        <v>308</v>
-      </c>
-      <c r="G170" t="s">
-        <v>22</v>
-      </c>
-      <c r="H170" s="2">
-        <v>100</v>
+      <c r="K170" s="10" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="D171" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F171" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G171" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
+      <c r="D172" s="2">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>23</v>
+      </c>
+      <c r="F172" t="s">
+        <v>308</v>
+      </c>
+      <c r="G172" t="s">
+        <v>22</v>
+      </c>
+      <c r="H172" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+      <c r="A173" s="2"/>
+      <c r="D173" s="2">
+        <v>4</v>
+      </c>
+      <c r="E173" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" t="s">
+        <v>309</v>
+      </c>
+      <c r="G173" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>45</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B175" t="s">
         <v>115</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="C175" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D175" s="2">
         <v>1</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E175" t="s">
         <v>17</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F175" t="s">
         <v>310</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G175" t="s">
         <v>19</v>
       </c>
-      <c r="K173" s="21" t="s">
+      <c r="K175" s="21" t="s">
         <v>810</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D174" s="2">
-        <v>2</v>
-      </c>
-      <c r="E174" t="s">
-        <v>44</v>
-      </c>
-      <c r="F174" t="s">
-        <v>311</v>
-      </c>
-      <c r="G174" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D175" s="2">
-        <v>3</v>
-      </c>
-      <c r="E175" t="s">
-        <v>23</v>
-      </c>
-      <c r="F175" t="s">
-        <v>312</v>
-      </c>
-      <c r="G175" t="s">
-        <v>22</v>
-      </c>
-      <c r="H175" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D176" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G176" t="s">
-        <v>22</v>
-      </c>
-      <c r="H176" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D177" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="F177" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G177" t="s">
-        <v>19</v>
-      </c>
-      <c r="I177" t="s">
-        <v>298</v>
-      </c>
-      <c r="J177" t="s">
-        <v>296</v>
+        <v>22</v>
+      </c>
+      <c r="H177" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D178" s="2">
+        <v>4</v>
+      </c>
+      <c r="E178" t="s">
+        <v>51</v>
+      </c>
+      <c r="F178" t="s">
+        <v>313</v>
+      </c>
+      <c r="G178" t="s">
+        <v>22</v>
+      </c>
+      <c r="H178" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D179" s="2">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>314</v>
+      </c>
+      <c r="F179" t="s">
+        <v>315</v>
+      </c>
+      <c r="G179" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" t="s">
+        <v>298</v>
+      </c>
+      <c r="J179" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D180" s="2">
         <v>6</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E180" t="s">
         <v>25</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F180" t="s">
         <v>316</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G180" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>46</v>
-      </c>
-      <c r="B180" t="s">
-        <v>297</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D180" s="2">
-        <v>1</v>
-      </c>
-      <c r="E180" t="s">
-        <v>17</v>
-      </c>
-      <c r="F180" t="s">
-        <v>317</v>
-      </c>
-      <c r="G180" t="s">
-        <v>19</v>
-      </c>
-      <c r="K180" s="10" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
-      <c r="D181" s="2">
-        <v>2</v>
-      </c>
-      <c r="E181" t="s">
-        <v>44</v>
-      </c>
-      <c r="F181" t="s">
-        <v>318</v>
-      </c>
-      <c r="G181" t="s">
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>46</v>
+      </c>
+      <c r="B182" t="s">
+        <v>297</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D182" s="2">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>17</v>
+      </c>
+      <c r="F182" t="s">
+        <v>317</v>
+      </c>
+      <c r="G182" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="D182" s="2">
-        <v>3</v>
-      </c>
-      <c r="E182" t="s">
-        <v>23</v>
-      </c>
-      <c r="F182" t="s">
-        <v>319</v>
-      </c>
-      <c r="G182" t="s">
-        <v>22</v>
-      </c>
-      <c r="H182" s="2">
-        <v>100</v>
+      <c r="K182" s="10" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="D183" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G183" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
+      <c r="D184" s="2">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>23</v>
+      </c>
+      <c r="F184" t="s">
+        <v>319</v>
+      </c>
+      <c r="G184" t="s">
+        <v>22</v>
+      </c>
+      <c r="H184" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+      <c r="A185" s="2"/>
+      <c r="D185" s="2">
+        <v>4</v>
+      </c>
+      <c r="E185" t="s">
+        <v>25</v>
+      </c>
+      <c r="F185" t="s">
+        <v>320</v>
+      </c>
+      <c r="G185" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>47</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B187" t="s">
         <v>116</v>
       </c>
-      <c r="C185" s="21" t="s">
+      <c r="C187" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D187" s="2">
         <v>1</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E187" t="s">
         <v>17</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F187" t="s">
         <v>321</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G187" t="s">
         <v>19</v>
       </c>
-      <c r="K185" s="21" t="s">
+      <c r="K187" s="21" t="s">
         <v>811</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D186" s="2">
-        <v>2</v>
-      </c>
-      <c r="E186" t="s">
-        <v>44</v>
-      </c>
-      <c r="F186" t="s">
-        <v>322</v>
-      </c>
-      <c r="G186" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D187" s="2">
-        <v>3</v>
-      </c>
-      <c r="E187" t="s">
-        <v>23</v>
-      </c>
-      <c r="F187" t="s">
-        <v>323</v>
-      </c>
-      <c r="G187" t="s">
-        <v>22</v>
-      </c>
-      <c r="H187" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D188" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F188" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G188" t="s">
-        <v>22</v>
-      </c>
-      <c r="H188" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D189" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>327</v>
+        <v>23</v>
       </c>
       <c r="F189" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G189" t="s">
-        <v>19</v>
-      </c>
-      <c r="I189" t="s">
-        <v>299</v>
-      </c>
-      <c r="J189" t="s">
-        <v>297</v>
+        <v>22</v>
+      </c>
+      <c r="H189" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D190" s="2">
+        <v>4</v>
+      </c>
+      <c r="E190" t="s">
+        <v>51</v>
+      </c>
+      <c r="F190" t="s">
+        <v>324</v>
+      </c>
+      <c r="G190" t="s">
+        <v>22</v>
+      </c>
+      <c r="H190" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D191" s="2">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>327</v>
+      </c>
+      <c r="F191" t="s">
+        <v>325</v>
+      </c>
+      <c r="G191" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" t="s">
+        <v>299</v>
+      </c>
+      <c r="J191" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D192" s="2">
         <v>6</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E192" t="s">
         <v>25</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F192" t="s">
         <v>326</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G192" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>48</v>
-      </c>
-      <c r="B192" t="s">
-        <v>341</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D192" s="2">
-        <v>1</v>
-      </c>
-      <c r="E192" t="s">
-        <v>17</v>
-      </c>
-      <c r="F192" t="s">
-        <v>340</v>
-      </c>
-      <c r="G192" t="s">
-        <v>19</v>
-      </c>
-      <c r="K192" s="9" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
-      <c r="D193" s="2">
-        <v>2</v>
-      </c>
-      <c r="E193" t="s">
-        <v>20</v>
-      </c>
-      <c r="F193" t="s">
-        <v>342</v>
-      </c>
-      <c r="G193" t="s">
-        <v>22</v>
-      </c>
-      <c r="H193" s="2">
-        <v>15</v>
-      </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
+      <c r="A194" s="1">
+        <v>48</v>
+      </c>
+      <c r="B194" t="s">
+        <v>341</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>329</v>
+      </c>
       <c r="D194" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F194" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G194" t="s">
-        <v>22</v>
-      </c>
-      <c r="H194" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="K194" s="9" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="D195" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F195" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G195" t="s">
         <v>22</v>
       </c>
       <c r="H195" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="D196" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F196" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G196" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H196" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
+      <c r="D197" s="2">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>51</v>
+      </c>
+      <c r="F197" t="s">
+        <v>344</v>
+      </c>
+      <c r="G197" t="s">
+        <v>22</v>
+      </c>
+      <c r="H197" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+      <c r="A198" s="2"/>
+      <c r="D198" s="2">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>25</v>
+      </c>
+      <c r="F198" t="s">
+        <v>345</v>
+      </c>
+      <c r="G198" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>49</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B200" t="s">
         <v>96</v>
       </c>
-      <c r="C198" s="21" t="s">
+      <c r="C200" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D200" s="2">
         <v>1</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E200" t="s">
         <v>17</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F200" t="s">
         <v>346</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G200" t="s">
         <v>19</v>
       </c>
-      <c r="K198" s="21" t="s">
+      <c r="K200" s="21" t="s">
         <v>812</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D199" s="2">
-        <v>2</v>
-      </c>
-      <c r="E199" t="s">
-        <v>20</v>
-      </c>
-      <c r="F199" t="s">
-        <v>347</v>
-      </c>
-      <c r="G199" t="s">
-        <v>22</v>
-      </c>
-      <c r="H199" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D200" s="2">
-        <v>3</v>
-      </c>
-      <c r="E200" t="s">
-        <v>23</v>
-      </c>
-      <c r="F200" t="s">
-        <v>348</v>
-      </c>
-      <c r="G200" t="s">
-        <v>22</v>
-      </c>
-      <c r="H200" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D201" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E201" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F201" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G201" t="s">
         <v>22</v>
       </c>
       <c r="H201" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D202" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>350</v>
+        <v>23</v>
       </c>
       <c r="F202" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G202" t="s">
-        <v>19</v>
-      </c>
-      <c r="I202" t="s">
-        <v>329</v>
-      </c>
-      <c r="J202" t="s">
-        <v>341</v>
+        <v>22</v>
+      </c>
+      <c r="H202" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D203" s="2">
+        <v>4</v>
+      </c>
+      <c r="E203" t="s">
+        <v>51</v>
+      </c>
+      <c r="F203" t="s">
+        <v>349</v>
+      </c>
+      <c r="G203" t="s">
+        <v>22</v>
+      </c>
+      <c r="H203" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D204" s="2">
+        <v>5</v>
+      </c>
+      <c r="E204" t="s">
+        <v>350</v>
+      </c>
+      <c r="F204" t="s">
+        <v>351</v>
+      </c>
+      <c r="G204" t="s">
+        <v>19</v>
+      </c>
+      <c r="I204" t="s">
+        <v>329</v>
+      </c>
+      <c r="J204" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D205" s="2">
         <v>6</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E205" t="s">
         <v>25</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F205" t="s">
         <v>352</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G205" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>50</v>
-      </c>
-      <c r="B205" t="s">
-        <v>97</v>
-      </c>
-      <c r="C205" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="D205" s="2">
-        <v>1</v>
-      </c>
-      <c r="E205" t="s">
-        <v>17</v>
-      </c>
-      <c r="F205" t="s">
-        <v>353</v>
-      </c>
-      <c r="G205" t="s">
-        <v>19</v>
-      </c>
-      <c r="K205" s="24" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
-      <c r="D206" s="2">
-        <v>2</v>
-      </c>
-      <c r="E206" t="s">
-        <v>354</v>
-      </c>
-      <c r="F206" t="s">
-        <v>355</v>
-      </c>
-      <c r="G206" t="s">
-        <v>22</v>
-      </c>
-      <c r="H206" s="2">
-        <v>15</v>
-      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
+      <c r="A207" s="1">
+        <v>50</v>
+      </c>
+      <c r="B207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>328</v>
+      </c>
       <c r="D207" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F207" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G207" t="s">
-        <v>22</v>
-      </c>
-      <c r="H207" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="K207" s="24" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="D208" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E208" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F208" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G208" t="s">
         <v>22</v>
       </c>
       <c r="H208" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="D209" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>350</v>
+        <v>23</v>
       </c>
       <c r="F209" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G209" t="s">
-        <v>19</v>
-      </c>
-      <c r="I209" t="s">
-        <v>329</v>
-      </c>
-      <c r="J209" t="s">
-        <v>341</v>
+        <v>22</v>
+      </c>
+      <c r="H209" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="D210" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E210" t="s">
-        <v>358</v>
+        <v>51</v>
       </c>
       <c r="F210" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G210" t="s">
-        <v>19</v>
-      </c>
-      <c r="I210" t="s">
-        <v>330</v>
-      </c>
-      <c r="J210" t="s">
-        <v>96</v>
+        <v>22</v>
+      </c>
+      <c r="H210" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="D211" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="F211" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G211" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I211" t="s">
+        <v>329</v>
+      </c>
+      <c r="J211" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
+      <c r="D212" s="2">
+        <v>6</v>
+      </c>
+      <c r="E212" t="s">
+        <v>358</v>
+      </c>
+      <c r="F212" t="s">
+        <v>360</v>
+      </c>
+      <c r="G212" t="s">
+        <v>19</v>
+      </c>
+      <c r="I212" t="s">
+        <v>330</v>
+      </c>
+      <c r="J212" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>51</v>
-      </c>
-      <c r="B213" t="s">
-        <v>98</v>
-      </c>
-      <c r="C213" s="21" t="s">
-        <v>331</v>
-      </c>
+      <c r="A213" s="2"/>
       <c r="D213" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F213" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G213" t="s">
-        <v>19</v>
-      </c>
-      <c r="K213" s="21" t="s">
-        <v>813</v>
+        <v>27</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
-      <c r="D214" s="2">
-        <v>2</v>
-      </c>
-      <c r="E214" t="s">
-        <v>354</v>
-      </c>
-      <c r="F214" t="s">
-        <v>363</v>
-      </c>
-      <c r="G214" t="s">
-        <v>22</v>
-      </c>
-      <c r="H214" s="2">
-        <v>15</v>
-      </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
+      <c r="A215" s="1">
+        <v>51</v>
+      </c>
+      <c r="B215" t="s">
+        <v>98</v>
+      </c>
+      <c r="C215" s="21" t="s">
+        <v>331</v>
+      </c>
       <c r="D215" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F215" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G215" t="s">
-        <v>22</v>
-      </c>
-      <c r="H215" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="K215" s="21" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="D216" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E216" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F216" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G216" t="s">
         <v>22</v>
       </c>
       <c r="H216" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="D217" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
       <c r="F217" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G217" t="s">
-        <v>19</v>
-      </c>
-      <c r="I217" t="s">
-        <v>328</v>
-      </c>
-      <c r="J217" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="H217" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="D218" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E218" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F218" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G218" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H218" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
+      <c r="D219" s="2">
+        <v>5</v>
+      </c>
+      <c r="E219" t="s">
+        <v>367</v>
+      </c>
+      <c r="F219" t="s">
+        <v>368</v>
+      </c>
+      <c r="G219" t="s">
+        <v>19</v>
+      </c>
+      <c r="I219" t="s">
+        <v>328</v>
+      </c>
+      <c r="J219" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>52</v>
-      </c>
-      <c r="B220" t="s">
-        <v>99</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>332</v>
-      </c>
+      <c r="A220" s="2"/>
       <c r="D220" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E220" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F220" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G220" t="s">
-        <v>19</v>
-      </c>
-      <c r="K220" s="9" t="s">
-        <v>792</v>
+        <v>27</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
-      <c r="D221" s="2">
-        <v>2</v>
-      </c>
-      <c r="E221" t="s">
-        <v>354</v>
-      </c>
-      <c r="F221" t="s">
-        <v>370</v>
-      </c>
-      <c r="G221" t="s">
-        <v>22</v>
-      </c>
-      <c r="H221" s="2">
-        <v>15</v>
-      </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
+      <c r="A222" s="1">
+        <v>52</v>
+      </c>
+      <c r="B222" t="s">
+        <v>99</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>332</v>
+      </c>
       <c r="D222" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E222" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F222" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G222" t="s">
-        <v>22</v>
-      </c>
-      <c r="H222" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="K222" s="9" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="D223" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E223" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F223" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G223" t="s">
         <v>22</v>
       </c>
       <c r="H223" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="D224" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F224" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G224" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H224" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
+      <c r="D225" s="2">
+        <v>4</v>
+      </c>
+      <c r="E225" t="s">
+        <v>51</v>
+      </c>
+      <c r="F225" t="s">
+        <v>372</v>
+      </c>
+      <c r="G225" t="s">
+        <v>22</v>
+      </c>
+      <c r="H225" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>53</v>
-      </c>
-      <c r="B226" t="s">
-        <v>100</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>333</v>
-      </c>
+      <c r="A226" s="2"/>
       <c r="D226" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E226" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F226" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G226" t="s">
-        <v>19</v>
-      </c>
-      <c r="K226" s="9" t="s">
-        <v>793</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
-      <c r="D227" s="2">
-        <v>2</v>
-      </c>
-      <c r="E227" t="s">
-        <v>354</v>
-      </c>
-      <c r="F227" t="s">
-        <v>380</v>
-      </c>
-      <c r="G227" t="s">
-        <v>22</v>
-      </c>
-      <c r="H227" s="2">
-        <v>15</v>
-      </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
+      <c r="A228" s="1">
+        <v>53</v>
+      </c>
+      <c r="B228" t="s">
+        <v>100</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="D228" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F228" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G228" t="s">
-        <v>22</v>
-      </c>
-      <c r="H228" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="K228" s="9" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="D229" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E229" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F229" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G229" t="s">
         <v>22</v>
       </c>
       <c r="H229" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="D230" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F230" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G230" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H230" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
+      <c r="D231" s="2">
+        <v>4</v>
+      </c>
+      <c r="E231" t="s">
+        <v>51</v>
+      </c>
+      <c r="F231" t="s">
+        <v>382</v>
+      </c>
+      <c r="G231" t="s">
+        <v>22</v>
+      </c>
+      <c r="H231" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>54</v>
-      </c>
-      <c r="B232" t="s">
-        <v>114</v>
-      </c>
-      <c r="C232" s="24" t="s">
-        <v>626</v>
-      </c>
+      <c r="A232" s="2"/>
       <c r="D232" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E232" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F232" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G232" t="s">
-        <v>19</v>
-      </c>
-      <c r="K232" s="29" t="s">
-        <v>832</v>
+        <v>27</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
-      <c r="D233" s="2">
-        <v>2</v>
-      </c>
-      <c r="E233" t="s">
-        <v>20</v>
-      </c>
-      <c r="F233" t="s">
-        <v>386</v>
-      </c>
-      <c r="G233" t="s">
-        <v>22</v>
-      </c>
-      <c r="H233" s="2">
-        <v>15</v>
-      </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
+      <c r="A234" s="1">
+        <v>54</v>
+      </c>
+      <c r="B234" t="s">
+        <v>114</v>
+      </c>
+      <c r="C234" s="24" t="s">
+        <v>626</v>
+      </c>
       <c r="D234" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F234" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G234" t="s">
-        <v>22</v>
-      </c>
-      <c r="H234" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="K234" s="29" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="D235" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E235" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F235" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G235" t="s">
         <v>22</v>
       </c>
       <c r="H235" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="D236" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E236" t="s">
-        <v>384</v>
+        <v>23</v>
       </c>
       <c r="F236" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G236" t="s">
-        <v>19</v>
-      </c>
-      <c r="I236" t="s">
-        <v>333</v>
-      </c>
-      <c r="J236" t="s">
+        <v>22</v>
+      </c>
+      <c r="H236" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="D237" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E237" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="F237" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G237" t="s">
-        <v>19</v>
-      </c>
-      <c r="I237" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J237" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="H237" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="D238" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E238" t="s">
-        <v>202</v>
+        <v>384</v>
       </c>
       <c r="F238" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G238" t="s">
-        <v>22</v>
-      </c>
-      <c r="H238" s="2">
+        <v>19</v>
+      </c>
+      <c r="I238" t="s">
+        <v>333</v>
+      </c>
+      <c r="J238" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="D239" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E239" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F239" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G239" t="s">
-        <v>22</v>
-      </c>
-      <c r="H239" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J239" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
       <c r="D240" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E240" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F240" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G240" t="s">
         <v>22</v>
@@ -9234,125 +9225,126 @@
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
       <c r="D241" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E241" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F241" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G241" t="s">
-        <v>19</v>
-      </c>
-      <c r="I241" t="s">
-        <v>834</v>
-      </c>
-      <c r="J241" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="H241" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D242" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E242" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F242" t="s">
-        <v>578</v>
+        <v>393</v>
       </c>
       <c r="G242" t="s">
-        <v>19</v>
-      </c>
-      <c r="I242" t="s">
-        <v>88</v>
-      </c>
-      <c r="J242" t="s">
-        <v>87</v>
+        <v>22</v>
+      </c>
+      <c r="H242" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D243" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E243" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="F243" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G243" t="s">
         <v>19</v>
       </c>
       <c r="I243" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J243" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D244" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E244" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F244" t="s">
-        <v>396</v>
+        <v>578</v>
       </c>
       <c r="G244" t="s">
-        <v>22</v>
-      </c>
-      <c r="H244" s="2">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="I244" t="s">
+        <v>88</v>
+      </c>
+      <c r="J244" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D245" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E245" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F245" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G245" t="s">
-        <v>22</v>
-      </c>
-      <c r="H245" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="I245" t="s">
+        <v>94</v>
+      </c>
+      <c r="J245" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D246" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E246" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F246" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G246" t="s">
         <v>22</v>
       </c>
       <c r="H246" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D247" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E247" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F247" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G247" t="s">
         <v>22</v>
@@ -9363,13 +9355,13 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D248" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E248" t="s">
-        <v>624</v>
+        <v>208</v>
       </c>
       <c r="F248" t="s">
-        <v>625</v>
+        <v>398</v>
       </c>
       <c r="G248" t="s">
         <v>22</v>
@@ -9378,126 +9370,126 @@
         <v>100</v>
       </c>
     </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D249" s="2">
+        <v>16</v>
+      </c>
+      <c r="E249" t="s">
+        <v>209</v>
+      </c>
+      <c r="F249" t="s">
+        <v>399</v>
+      </c>
+      <c r="G249" t="s">
+        <v>22</v>
+      </c>
+      <c r="H249" s="2">
+        <v>100</v>
+      </c>
+    </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
+      <c r="D250" s="2">
+        <v>17</v>
+      </c>
+      <c r="E250" t="s">
+        <v>624</v>
+      </c>
+      <c r="F250" t="s">
+        <v>625</v>
+      </c>
+      <c r="G250" t="s">
+        <v>22</v>
+      </c>
+      <c r="H250" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>55</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B252" t="s">
         <v>108</v>
       </c>
-      <c r="C250" s="24" t="s">
+      <c r="C252" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D252" s="2">
         <v>1</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E252" t="s">
         <v>17</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F252" t="s">
         <v>400</v>
-      </c>
-      <c r="G250" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D251" s="2">
-        <v>2</v>
-      </c>
-      <c r="E251" t="s">
-        <v>384</v>
-      </c>
-      <c r="F251" t="s">
-        <v>401</v>
-      </c>
-      <c r="G251" t="s">
-        <v>19</v>
-      </c>
-      <c r="I251" t="s">
-        <v>333</v>
-      </c>
-      <c r="J251" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D252" s="2">
-        <v>3</v>
-      </c>
-      <c r="E252" t="s">
-        <v>402</v>
-      </c>
-      <c r="F252" t="s">
-        <v>403</v>
       </c>
       <c r="G252" t="s">
         <v>19</v>
       </c>
-      <c r="I252" t="s">
-        <v>626</v>
-      </c>
-      <c r="J252" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D253" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="F253" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G253" t="s">
         <v>19</v>
       </c>
+      <c r="I253" t="s">
+        <v>333</v>
+      </c>
+      <c r="J253" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D254" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>225</v>
+        <v>402</v>
       </c>
       <c r="F254" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G254" t="s">
-        <v>22</v>
-      </c>
-      <c r="H254" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="I254" t="s">
+        <v>626</v>
+      </c>
+      <c r="J254" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D255" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="F255" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G255" t="s">
-        <v>22</v>
-      </c>
-      <c r="H255" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D256" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E256" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F256" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G256" t="s">
         <v>22</v>
@@ -9508,13 +9500,13 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D257" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E257" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F257" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G257" t="s">
         <v>22</v>
@@ -9525,13 +9517,13 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D258" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E258" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F258" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G258" t="s">
         <v>22</v>
@@ -9542,13 +9534,13 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D259" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E259" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F259" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G259" t="s">
         <v>22</v>
@@ -9559,292 +9551,295 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D260" s="2">
+        <v>9</v>
+      </c>
+      <c r="E260" t="s">
+        <v>229</v>
+      </c>
+      <c r="F260" t="s">
+        <v>409</v>
+      </c>
+      <c r="G260" t="s">
+        <v>22</v>
+      </c>
+      <c r="H260" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D261" s="2">
+        <v>10</v>
+      </c>
+      <c r="E261" t="s">
+        <v>230</v>
+      </c>
+      <c r="F261" t="s">
+        <v>410</v>
+      </c>
+      <c r="G261" t="s">
+        <v>22</v>
+      </c>
+      <c r="H261" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D262" s="2">
         <v>11</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E262" t="s">
         <v>25</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F262" t="s">
         <v>411</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G262" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>56</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B264" t="s">
         <v>374</v>
       </c>
-      <c r="C262" s="24" t="s">
+      <c r="C264" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D264" s="2">
         <v>1</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E264" t="s">
         <v>17</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F264" t="s">
         <v>412</v>
-      </c>
-      <c r="G262" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D263" s="2">
-        <v>2</v>
-      </c>
-      <c r="E263" t="s">
-        <v>384</v>
-      </c>
-      <c r="F263" t="s">
-        <v>413</v>
-      </c>
-      <c r="G263" t="s">
-        <v>19</v>
-      </c>
-      <c r="I263" t="s">
-        <v>333</v>
-      </c>
-      <c r="J263" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D264" s="2">
-        <v>3</v>
-      </c>
-      <c r="E264" t="s">
-        <v>414</v>
-      </c>
-      <c r="F264" t="s">
-        <v>415</v>
       </c>
       <c r="G264" t="s">
         <v>19</v>
       </c>
-      <c r="I264" t="s">
-        <v>331</v>
-      </c>
-      <c r="J264" t="s">
-        <v>98</v>
+      <c r="K264" s="24" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D265" s="2">
+        <v>2</v>
+      </c>
+      <c r="E265" t="s">
+        <v>384</v>
+      </c>
+      <c r="F265" t="s">
+        <v>413</v>
+      </c>
+      <c r="G265" t="s">
+        <v>19</v>
+      </c>
+      <c r="I265" t="s">
+        <v>333</v>
+      </c>
+      <c r="J265" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D266" s="2">
+        <v>3</v>
+      </c>
+      <c r="E266" t="s">
+        <v>414</v>
+      </c>
+      <c r="F266" t="s">
+        <v>415</v>
+      </c>
+      <c r="G266" t="s">
+        <v>19</v>
+      </c>
+      <c r="I266" t="s">
+        <v>331</v>
+      </c>
+      <c r="J266" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D267" s="2">
         <v>4</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E267" t="s">
         <v>25</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F267" t="s">
         <v>416</v>
       </c>
-      <c r="G265" t="s">
+      <c r="G267" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
         <v>57</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B269" t="s">
         <v>101</v>
       </c>
-      <c r="C267" s="9" t="s">
+      <c r="C269" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D269" s="2">
         <v>1</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E269" t="s">
         <v>17</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F269" t="s">
         <v>419</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G269" t="s">
         <v>19</v>
       </c>
-      <c r="K267" s="9" t="s">
+      <c r="K269" s="9" t="s">
         <v>794</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D268" s="2">
-        <v>2</v>
-      </c>
-      <c r="E268" t="s">
-        <v>354</v>
-      </c>
-      <c r="F268" t="s">
-        <v>420</v>
-      </c>
-      <c r="G268" t="s">
-        <v>22</v>
-      </c>
-      <c r="H268" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D269" s="2">
-        <v>3</v>
-      </c>
-      <c r="E269" t="s">
-        <v>23</v>
-      </c>
-      <c r="F269" t="s">
-        <v>421</v>
-      </c>
-      <c r="G269" t="s">
-        <v>22</v>
-      </c>
-      <c r="H269" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D270" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E270" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F270" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G270" t="s">
         <v>22</v>
       </c>
       <c r="H270" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D271" s="2">
+        <v>3</v>
+      </c>
+      <c r="E271" t="s">
+        <v>23</v>
+      </c>
+      <c r="F271" t="s">
+        <v>421</v>
+      </c>
+      <c r="G271" t="s">
+        <v>22</v>
+      </c>
+      <c r="H271" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D272" s="2">
+        <v>4</v>
+      </c>
+      <c r="E272" t="s">
+        <v>51</v>
+      </c>
+      <c r="F272" t="s">
+        <v>422</v>
+      </c>
+      <c r="G272" t="s">
+        <v>22</v>
+      </c>
+      <c r="H272" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D273" s="2">
         <v>5</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E273" t="s">
         <v>25</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F273" t="s">
         <v>423</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G273" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
         <v>58</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B275" t="s">
         <v>102</v>
       </c>
-      <c r="C273" s="24" t="s">
+      <c r="C275" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D275" s="2">
         <v>1</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E275" t="s">
         <v>17</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F275" t="s">
         <v>427</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G275" t="s">
         <v>19</v>
       </c>
-      <c r="K273" s="29" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D274" s="2">
-        <v>2</v>
-      </c>
-      <c r="E274" t="s">
-        <v>428</v>
-      </c>
-      <c r="F274" t="s">
-        <v>426</v>
-      </c>
-      <c r="G274" t="s">
-        <v>19</v>
-      </c>
-      <c r="I274" t="s">
-        <v>417</v>
-      </c>
-      <c r="J274" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D275" s="2">
-        <v>3</v>
-      </c>
-      <c r="E275" t="s">
-        <v>20</v>
-      </c>
-      <c r="F275" t="s">
-        <v>429</v>
-      </c>
-      <c r="G275" t="s">
-        <v>22</v>
-      </c>
-      <c r="H275" s="2">
-        <v>15</v>
+      <c r="K275" s="29" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D276" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E276" t="s">
-        <v>23</v>
+        <v>428</v>
       </c>
       <c r="F276" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G276" t="s">
-        <v>22</v>
-      </c>
-      <c r="H276" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="I276" t="s">
+        <v>417</v>
+      </c>
+      <c r="J276" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D277" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E277" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F277" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G277" t="s">
         <v>22</v>
       </c>
       <c r="H277" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D278" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E278" t="s">
-        <v>437</v>
+        <v>23</v>
       </c>
       <c r="F278" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G278" t="s">
         <v>22</v>
@@ -9855,13 +9850,13 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D279" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E279" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="F279" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G279" t="s">
         <v>22</v>
@@ -9872,13 +9867,13 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D280" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E280" t="s">
-        <v>203</v>
+        <v>437</v>
       </c>
       <c r="F280" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G280" t="s">
         <v>22</v>
@@ -9889,13 +9884,13 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D281" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E281" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F281" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G281" t="s">
         <v>22</v>
@@ -9906,13 +9901,13 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D282" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E282" t="s">
-        <v>496</v>
+        <v>203</v>
       </c>
       <c r="F282" t="s">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="G282" t="s">
         <v>22</v>
@@ -9923,13 +9918,13 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D283" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E283" t="s">
-        <v>497</v>
+        <v>204</v>
       </c>
       <c r="F283" t="s">
-        <v>500</v>
+        <v>435</v>
       </c>
       <c r="G283" t="s">
         <v>22</v>
@@ -9940,13 +9935,13 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D284" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E284" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F284" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G284" t="s">
         <v>22</v>
@@ -9957,2462 +9952,2496 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D285" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E285" t="s">
-        <v>205</v>
+        <v>497</v>
       </c>
       <c r="F285" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="G285" t="s">
-        <v>19</v>
-      </c>
-      <c r="I285" t="s">
-        <v>91</v>
-      </c>
-      <c r="J285" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="H285" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D286" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E286" t="s">
-        <v>194</v>
+        <v>498</v>
       </c>
       <c r="F286" t="s">
-        <v>628</v>
+        <v>501</v>
       </c>
       <c r="G286" t="s">
-        <v>19</v>
-      </c>
-      <c r="I286" t="s">
-        <v>88</v>
-      </c>
-      <c r="J286" t="s">
-        <v>87</v>
+        <v>22</v>
+      </c>
+      <c r="H286" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D287" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E287" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="F287" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G287" t="s">
         <v>19</v>
       </c>
       <c r="I287" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J287" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D288" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E288" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F288" t="s">
-        <v>438</v>
+        <v>628</v>
       </c>
       <c r="G288" t="s">
-        <v>22</v>
-      </c>
-      <c r="H288" s="2">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="I288" t="s">
+        <v>88</v>
+      </c>
+      <c r="J288" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D289" s="2">
+        <v>15</v>
+      </c>
+      <c r="E289" t="s">
+        <v>187</v>
+      </c>
+      <c r="F289" t="s">
+        <v>440</v>
+      </c>
+      <c r="G289" t="s">
+        <v>19</v>
+      </c>
+      <c r="I289" t="s">
+        <v>94</v>
+      </c>
+      <c r="J289" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D290" s="2">
+        <v>16</v>
+      </c>
+      <c r="E290" t="s">
+        <v>206</v>
+      </c>
+      <c r="F290" t="s">
+        <v>438</v>
+      </c>
+      <c r="G290" t="s">
+        <v>22</v>
+      </c>
+      <c r="H290" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D291" s="2">
         <v>17</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E291" t="s">
         <v>25</v>
       </c>
-      <c r="F289" t="s">
+      <c r="F291" t="s">
         <v>436</v>
       </c>
-      <c r="G289" t="s">
+      <c r="G291" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
         <v>59</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B293" t="s">
         <v>103</v>
       </c>
-      <c r="C291" s="9" t="s">
+      <c r="C293" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D293" s="2">
         <v>1</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E293" t="s">
         <v>17</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F293" t="s">
         <v>443</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G293" t="s">
         <v>19</v>
       </c>
-      <c r="K291" s="9" t="s">
+      <c r="K293" s="9" t="s">
         <v>795</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D292" s="2">
-        <v>2</v>
-      </c>
-      <c r="E292" t="s">
-        <v>354</v>
-      </c>
-      <c r="F292" t="s">
-        <v>444</v>
-      </c>
-      <c r="G292" t="s">
-        <v>22</v>
-      </c>
-      <c r="H292" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D293" s="2">
-        <v>3</v>
-      </c>
-      <c r="E293" t="s">
-        <v>23</v>
-      </c>
-      <c r="F293" t="s">
-        <v>445</v>
-      </c>
-      <c r="G293" t="s">
-        <v>22</v>
-      </c>
-      <c r="H293" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D294" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E294" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F294" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G294" t="s">
         <v>22</v>
       </c>
       <c r="H294" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D295" s="2">
+        <v>3</v>
+      </c>
+      <c r="E295" t="s">
+        <v>23</v>
+      </c>
+      <c r="F295" t="s">
+        <v>445</v>
+      </c>
+      <c r="G295" t="s">
+        <v>22</v>
+      </c>
+      <c r="H295" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D296" s="2">
+        <v>4</v>
+      </c>
+      <c r="E296" t="s">
+        <v>51</v>
+      </c>
+      <c r="F296" t="s">
+        <v>446</v>
+      </c>
+      <c r="G296" t="s">
+        <v>22</v>
+      </c>
+      <c r="H296" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D297" s="2">
         <v>5</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E297" t="s">
         <v>25</v>
       </c>
-      <c r="F295" t="s">
+      <c r="F297" t="s">
         <v>447</v>
       </c>
-      <c r="G295" t="s">
+      <c r="G297" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
         <v>60</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B299" t="s">
         <v>502</v>
       </c>
-      <c r="C297" s="21" t="s">
+      <c r="C299" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D299" s="2">
         <v>1</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E299" t="s">
         <v>17</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F299" t="s">
         <v>505</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G299" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D298" s="2">
-        <v>2</v>
-      </c>
-      <c r="E298" t="s">
-        <v>506</v>
-      </c>
-      <c r="F298" t="s">
-        <v>507</v>
-      </c>
-      <c r="G298" t="s">
-        <v>19</v>
-      </c>
-      <c r="I298" t="s">
-        <v>441</v>
-      </c>
-      <c r="J298" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D299" s="2">
-        <v>3</v>
-      </c>
-      <c r="E299" t="s">
-        <v>508</v>
-      </c>
-      <c r="F299" t="s">
-        <v>509</v>
-      </c>
-      <c r="G299" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D300" s="2">
+        <v>2</v>
+      </c>
+      <c r="E300" t="s">
+        <v>506</v>
+      </c>
+      <c r="F300" t="s">
+        <v>507</v>
+      </c>
+      <c r="G300" t="s">
+        <v>19</v>
+      </c>
+      <c r="I300" t="s">
+        <v>441</v>
+      </c>
+      <c r="J300" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D301" s="2">
+        <v>3</v>
+      </c>
+      <c r="E301" t="s">
+        <v>508</v>
+      </c>
+      <c r="F301" t="s">
+        <v>509</v>
+      </c>
+      <c r="G301" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D302" s="2">
         <v>4</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E302" t="s">
         <v>510</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F302" t="s">
         <v>511</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G302" t="s">
         <v>151</v>
       </c>
-      <c r="H300" s="2" t="s">
+      <c r="H302" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
         <v>61</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B304" t="s">
         <v>104</v>
       </c>
-      <c r="C302" s="9" t="s">
+      <c r="C304" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D304" s="2">
         <v>1</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E304" t="s">
         <v>17</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F304" t="s">
         <v>450</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G304" t="s">
         <v>19</v>
       </c>
-      <c r="K302" s="9" t="s">
+      <c r="K304" s="9" t="s">
         <v>796</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D303" s="2">
-        <v>2</v>
-      </c>
-      <c r="E303" t="s">
-        <v>354</v>
-      </c>
-      <c r="F303" t="s">
-        <v>451</v>
-      </c>
-      <c r="G303" t="s">
-        <v>22</v>
-      </c>
-      <c r="H303" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D304" s="2">
-        <v>3</v>
-      </c>
-      <c r="E304" t="s">
-        <v>23</v>
-      </c>
-      <c r="F304" t="s">
-        <v>452</v>
-      </c>
-      <c r="G304" t="s">
-        <v>22</v>
-      </c>
-      <c r="H304" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D305" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E305" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F305" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G305" t="s">
         <v>22</v>
       </c>
       <c r="H305" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D306" s="2">
+        <v>3</v>
+      </c>
+      <c r="E306" t="s">
+        <v>23</v>
+      </c>
+      <c r="F306" t="s">
+        <v>452</v>
+      </c>
+      <c r="G306" t="s">
+        <v>22</v>
+      </c>
+      <c r="H306" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D307" s="2">
+        <v>4</v>
+      </c>
+      <c r="E307" t="s">
+        <v>51</v>
+      </c>
+      <c r="F307" t="s">
+        <v>453</v>
+      </c>
+      <c r="G307" t="s">
+        <v>22</v>
+      </c>
+      <c r="H307" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D308" s="2">
         <v>5</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E308" t="s">
         <v>25</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F308" t="s">
         <v>454</v>
       </c>
-      <c r="G306" t="s">
+      <c r="G308" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
         <v>62</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B310" t="s">
         <v>580</v>
       </c>
-      <c r="C308" s="8" t="s">
+      <c r="C310" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="D308" s="2">
+      <c r="D310" s="2">
         <v>1</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E310" t="s">
         <v>17</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F310" t="s">
         <v>584</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G310" t="s">
         <v>19</v>
       </c>
-      <c r="K308" s="8" t="s">
+      <c r="K310" s="8" t="s">
         <v>769</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D309" s="2">
-        <v>2</v>
-      </c>
-      <c r="E309" t="s">
-        <v>354</v>
-      </c>
-      <c r="F309" t="s">
-        <v>585</v>
-      </c>
-      <c r="G309" t="s">
-        <v>22</v>
-      </c>
-      <c r="H309" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D310" s="2">
-        <v>3</v>
-      </c>
-      <c r="E310" t="s">
-        <v>23</v>
-      </c>
-      <c r="F310" t="s">
-        <v>586</v>
-      </c>
-      <c r="G310" t="s">
-        <v>22</v>
-      </c>
-      <c r="H310" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D311" s="2">
+        <v>2</v>
+      </c>
+      <c r="E311" t="s">
+        <v>354</v>
+      </c>
+      <c r="F311" t="s">
+        <v>585</v>
+      </c>
+      <c r="G311" t="s">
+        <v>22</v>
+      </c>
+      <c r="H311" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D312" s="2">
+        <v>3</v>
+      </c>
+      <c r="E312" t="s">
+        <v>23</v>
+      </c>
+      <c r="F312" t="s">
+        <v>586</v>
+      </c>
+      <c r="G312" t="s">
+        <v>22</v>
+      </c>
+      <c r="H312" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D313" s="2">
         <v>4</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E313" t="s">
         <v>25</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F313" t="s">
         <v>587</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G313" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
         <v>63</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B315" t="s">
         <v>105</v>
       </c>
-      <c r="C313" s="8" t="s">
+      <c r="C315" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D313" s="2">
+      <c r="D315" s="2">
         <v>1</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E315" t="s">
         <v>17</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F315" t="s">
         <v>455</v>
       </c>
-      <c r="G313" t="s">
+      <c r="G315" t="s">
         <v>19</v>
       </c>
-      <c r="K313" s="8" t="s">
+      <c r="K315" s="8" t="s">
         <v>770</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D314" s="2">
-        <v>2</v>
-      </c>
-      <c r="E314" t="s">
-        <v>354</v>
-      </c>
-      <c r="F314" t="s">
-        <v>456</v>
-      </c>
-      <c r="G314" t="s">
-        <v>22</v>
-      </c>
-      <c r="H314" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D315" s="2">
-        <v>3</v>
-      </c>
-      <c r="E315" t="s">
-        <v>23</v>
-      </c>
-      <c r="F315" t="s">
-        <v>457</v>
-      </c>
-      <c r="G315" t="s">
-        <v>22</v>
-      </c>
-      <c r="H315" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D316" s="2">
+        <v>2</v>
+      </c>
+      <c r="E316" t="s">
+        <v>354</v>
+      </c>
+      <c r="F316" t="s">
+        <v>456</v>
+      </c>
+      <c r="G316" t="s">
+        <v>22</v>
+      </c>
+      <c r="H316" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D317" s="2">
+        <v>3</v>
+      </c>
+      <c r="E317" t="s">
+        <v>23</v>
+      </c>
+      <c r="F317" t="s">
+        <v>457</v>
+      </c>
+      <c r="G317" t="s">
+        <v>22</v>
+      </c>
+      <c r="H317" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D318" s="2">
         <v>4</v>
       </c>
-      <c r="E316" t="s">
+      <c r="E318" t="s">
         <v>25</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F318" t="s">
         <v>458</v>
       </c>
-      <c r="G316" t="s">
+      <c r="G318" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
         <v>64</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B320" t="s">
         <v>109</v>
       </c>
-      <c r="C318" s="21" t="s">
+      <c r="C320" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="D318" s="2">
+      <c r="D320" s="2">
         <v>1</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E320" t="s">
         <v>17</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F320" t="s">
         <v>461</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G320" t="s">
         <v>19</v>
       </c>
-      <c r="K318" s="21" t="s">
+      <c r="K320" s="21" t="s">
         <v>815</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D319" s="2">
-        <v>2</v>
-      </c>
-      <c r="E319" t="s">
-        <v>354</v>
-      </c>
-      <c r="F319" t="s">
-        <v>462</v>
-      </c>
-      <c r="G319" t="s">
-        <v>22</v>
-      </c>
-      <c r="H319" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D320" s="2">
-        <v>3</v>
-      </c>
-      <c r="E320" t="s">
-        <v>23</v>
-      </c>
-      <c r="F320" t="s">
-        <v>463</v>
-      </c>
-      <c r="G320" t="s">
-        <v>22</v>
-      </c>
-      <c r="H320" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D321" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E321" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F321" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G321" t="s">
         <v>22</v>
       </c>
       <c r="H321" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D322" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E322" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="F322" t="s">
-        <v>556</v>
+        <v>463</v>
       </c>
       <c r="G322" t="s">
-        <v>19</v>
-      </c>
-      <c r="I322" t="s">
-        <v>137</v>
-      </c>
-      <c r="J322" t="s">
-        <v>86</v>
+        <v>22</v>
+      </c>
+      <c r="H322" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D323" s="2">
+        <v>4</v>
+      </c>
+      <c r="E323" t="s">
+        <v>51</v>
+      </c>
+      <c r="F323" t="s">
+        <v>464</v>
+      </c>
+      <c r="G323" t="s">
+        <v>22</v>
+      </c>
+      <c r="H323" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D324" s="2">
+        <v>5</v>
+      </c>
+      <c r="E324" t="s">
+        <v>163</v>
+      </c>
+      <c r="F324" t="s">
+        <v>556</v>
+      </c>
+      <c r="G324" t="s">
+        <v>19</v>
+      </c>
+      <c r="I324" t="s">
+        <v>137</v>
+      </c>
+      <c r="J324" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D325" s="2">
         <v>6</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E325" t="s">
         <v>25</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F325" t="s">
         <v>465</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G325" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
         <v>65</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B327" t="s">
         <v>110</v>
       </c>
-      <c r="C325" s="8" t="s">
+      <c r="C327" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="D325" s="2">
+      <c r="D327" s="2">
         <v>1</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E327" t="s">
         <v>17</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F327" t="s">
         <v>467</v>
       </c>
-      <c r="G325" t="s">
+      <c r="G327" t="s">
         <v>19</v>
       </c>
-      <c r="K325" s="8" t="s">
+      <c r="K327" s="8" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D326" s="2">
-        <v>2</v>
-      </c>
-      <c r="E326" t="s">
-        <v>354</v>
-      </c>
-      <c r="F326" t="s">
-        <v>468</v>
-      </c>
-      <c r="G326" t="s">
-        <v>22</v>
-      </c>
-      <c r="H326" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D327" s="2">
-        <v>3</v>
-      </c>
-      <c r="E327" t="s">
-        <v>23</v>
-      </c>
-      <c r="F327" t="s">
-        <v>469</v>
-      </c>
-      <c r="G327" t="s">
-        <v>22</v>
-      </c>
-      <c r="H327" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D328" s="2">
+        <v>2</v>
+      </c>
+      <c r="E328" t="s">
+        <v>354</v>
+      </c>
+      <c r="F328" t="s">
+        <v>468</v>
+      </c>
+      <c r="G328" t="s">
+        <v>22</v>
+      </c>
+      <c r="H328" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D329" s="2">
+        <v>3</v>
+      </c>
+      <c r="E329" t="s">
+        <v>23</v>
+      </c>
+      <c r="F329" t="s">
+        <v>469</v>
+      </c>
+      <c r="G329" t="s">
+        <v>22</v>
+      </c>
+      <c r="H329" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D330" s="2">
         <v>4</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E330" t="s">
         <v>25</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F330" t="s">
         <v>470</v>
       </c>
-      <c r="G328" t="s">
+      <c r="G330" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
         <v>66</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B332" t="s">
         <v>112</v>
       </c>
-      <c r="C330" s="21" t="s">
+      <c r="C332" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="D330" s="2">
+      <c r="D332" s="2">
         <v>1</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E332" t="s">
         <v>17</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F332" t="s">
         <v>514</v>
-      </c>
-      <c r="G330" t="s">
-        <v>19</v>
-      </c>
-      <c r="K330" s="21" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D331" s="2">
-        <v>2</v>
-      </c>
-      <c r="E331" t="s">
-        <v>515</v>
-      </c>
-      <c r="F331" t="s">
-        <v>516</v>
-      </c>
-      <c r="G331" t="s">
-        <v>19</v>
-      </c>
-      <c r="I331" t="s">
-        <v>494</v>
-      </c>
-      <c r="J331" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D332" s="7">
-        <v>3</v>
-      </c>
-      <c r="E332" t="s">
-        <v>44</v>
-      </c>
-      <c r="F332" t="s">
-        <v>517</v>
       </c>
       <c r="G332" t="s">
         <v>19</v>
       </c>
-      <c r="H332" s="2"/>
-    </row>
-    <row r="333" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D333" s="7">
-        <v>4</v>
+      <c r="K332" s="21" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D333" s="2">
+        <v>2</v>
       </c>
       <c r="E333" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F333" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G333" t="s">
-        <v>22</v>
-      </c>
-      <c r="H333" s="2">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="I333" t="s">
+        <v>494</v>
+      </c>
+      <c r="J333" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="334" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D334" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E334" t="s">
-        <v>519</v>
+        <v>44</v>
       </c>
       <c r="F334" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G334" t="s">
-        <v>22</v>
-      </c>
-      <c r="H334" s="2">
-        <v>200</v>
-      </c>
-      <c r="J334" s="6" t="s">
-        <v>579</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H334" s="2"/>
     </row>
     <row r="335" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D335" s="7">
+        <v>4</v>
+      </c>
+      <c r="E335" t="s">
+        <v>518</v>
+      </c>
+      <c r="F335" t="s">
+        <v>520</v>
+      </c>
+      <c r="G335" t="s">
+        <v>22</v>
+      </c>
+      <c r="H335" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D336" s="7">
+        <v>5</v>
+      </c>
+      <c r="E336" t="s">
+        <v>519</v>
+      </c>
+      <c r="F336" t="s">
+        <v>521</v>
+      </c>
+      <c r="G336" t="s">
+        <v>22</v>
+      </c>
+      <c r="H336" s="2">
+        <v>200</v>
+      </c>
+      <c r="J336" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D337" s="7">
         <v>6</v>
       </c>
-      <c r="E335" t="s">
+      <c r="E337" t="s">
         <v>25</v>
       </c>
-      <c r="F335" t="s">
+      <c r="F337" t="s">
         <v>688</v>
       </c>
-      <c r="G335" t="s">
+      <c r="G337" t="s">
         <v>27</v>
       </c>
-      <c r="H335" s="2"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A337" s="2">
+      <c r="H337" s="2"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
         <v>67</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B339" t="s">
         <v>111</v>
       </c>
-      <c r="C337" s="8" t="s">
+      <c r="C339" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="D337" s="7">
+      <c r="D339" s="7">
         <v>1</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E339" t="s">
         <v>17</v>
       </c>
-      <c r="F337" t="s">
+      <c r="F339" t="s">
         <v>472</v>
       </c>
-      <c r="G337" t="s">
+      <c r="G339" t="s">
         <v>19</v>
       </c>
-      <c r="K337" s="8" t="s">
+      <c r="K339" s="8" t="s">
         <v>772</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D338" s="7">
-        <v>2</v>
-      </c>
-      <c r="E338" t="s">
-        <v>354</v>
-      </c>
-      <c r="F338" t="s">
-        <v>473</v>
-      </c>
-      <c r="G338" t="s">
-        <v>22</v>
-      </c>
-      <c r="H338" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D339" s="7">
-        <v>3</v>
-      </c>
-      <c r="E339" t="s">
-        <v>23</v>
-      </c>
-      <c r="F339" t="s">
-        <v>474</v>
-      </c>
-      <c r="G339" t="s">
-        <v>22</v>
-      </c>
-      <c r="H339" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D340" s="7">
+        <v>2</v>
+      </c>
+      <c r="E340" t="s">
+        <v>354</v>
+      </c>
+      <c r="F340" t="s">
+        <v>473</v>
+      </c>
+      <c r="G340" t="s">
+        <v>22</v>
+      </c>
+      <c r="H340" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D341" s="7">
+        <v>3</v>
+      </c>
+      <c r="E341" t="s">
+        <v>23</v>
+      </c>
+      <c r="F341" t="s">
+        <v>474</v>
+      </c>
+      <c r="G341" t="s">
+        <v>22</v>
+      </c>
+      <c r="H341" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D342" s="7">
         <v>4</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E342" t="s">
         <v>25</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F342" t="s">
         <v>475</v>
       </c>
-      <c r="G340" t="s">
+      <c r="G342" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
         <v>68</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B344" t="s">
         <v>113</v>
       </c>
-      <c r="C342" s="21" t="s">
+      <c r="C344" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="D342" s="7">
+      <c r="D344" s="7">
         <v>1</v>
       </c>
-      <c r="E342" t="s">
+      <c r="E344" t="s">
         <v>17</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F344" t="s">
         <v>524</v>
-      </c>
-      <c r="G342" t="s">
-        <v>19</v>
-      </c>
-      <c r="K342" s="21" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D343" s="7">
-        <v>2</v>
-      </c>
-      <c r="E343" t="s">
-        <v>527</v>
-      </c>
-      <c r="F343" t="s">
-        <v>525</v>
-      </c>
-      <c r="G343" t="s">
-        <v>19</v>
-      </c>
-      <c r="I343" t="s">
-        <v>495</v>
-      </c>
-      <c r="J343" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="6"/>
-      <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
-      <c r="D344" s="7">
-        <v>3</v>
-      </c>
-      <c r="E344" t="s">
-        <v>44</v>
-      </c>
-      <c r="F344" t="s">
-        <v>526</v>
       </c>
       <c r="G344" t="s">
         <v>19</v>
       </c>
-      <c r="I344" s="6"/>
-      <c r="J344" s="6"/>
+      <c r="K344" s="21" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="6"/>
-      <c r="B345" s="6"/>
-      <c r="C345" s="6"/>
       <c r="D345" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E345" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F345" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G345" t="s">
-        <v>22</v>
-      </c>
-      <c r="H345" s="2">
-        <v>500</v>
-      </c>
-      <c r="I345" s="6"/>
-      <c r="J345" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="I345" t="s">
+        <v>495</v>
+      </c>
+      <c r="J345" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
       <c r="D346" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E346" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F346" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G346" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
     </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="6"/>
+      <c r="B347" s="6"/>
+      <c r="C347" s="6"/>
+      <c r="D347" s="7">
+        <v>4</v>
+      </c>
+      <c r="E347" t="s">
+        <v>528</v>
+      </c>
+      <c r="F347" t="s">
+        <v>529</v>
+      </c>
+      <c r="G347" t="s">
+        <v>22</v>
+      </c>
+      <c r="H347" s="2">
+        <v>500</v>
+      </c>
+      <c r="I347" s="6"/>
+      <c r="J347" s="6"/>
+    </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="2">
+      <c r="A348" s="6"/>
+      <c r="B348" s="6"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="7">
+        <v>5</v>
+      </c>
+      <c r="E348" t="s">
+        <v>25</v>
+      </c>
+      <c r="F348" t="s">
+        <v>530</v>
+      </c>
+      <c r="G348" t="s">
+        <v>27</v>
+      </c>
+      <c r="I348" s="6"/>
+      <c r="J348" s="6"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
         <v>69</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B350" t="s">
         <v>63</v>
       </c>
-      <c r="C348" s="9" t="s">
+      <c r="C350" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D348" s="7">
+      <c r="D350" s="7">
         <v>1</v>
       </c>
-      <c r="E348" t="s">
+      <c r="E350" t="s">
         <v>17</v>
       </c>
-      <c r="F348" t="s">
+      <c r="F350" t="s">
         <v>476</v>
       </c>
-      <c r="G348" t="s">
+      <c r="G350" t="s">
         <v>19</v>
       </c>
-      <c r="K348" s="9" t="s">
+      <c r="K350" s="9" t="s">
         <v>799</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D349" s="7">
-        <v>2</v>
-      </c>
-      <c r="E349" t="s">
-        <v>354</v>
-      </c>
-      <c r="F349" t="s">
-        <v>477</v>
-      </c>
-      <c r="G349" t="s">
-        <v>22</v>
-      </c>
-      <c r="H349" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D350" s="7">
-        <v>3</v>
-      </c>
-      <c r="E350" t="s">
-        <v>23</v>
-      </c>
-      <c r="F350" t="s">
-        <v>478</v>
-      </c>
-      <c r="G350" t="s">
-        <v>22</v>
-      </c>
-      <c r="H350" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D351" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E351" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F351" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G351" t="s">
         <v>22</v>
       </c>
       <c r="H351" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D352" s="7">
+        <v>3</v>
+      </c>
+      <c r="E352" t="s">
+        <v>23</v>
+      </c>
+      <c r="F352" t="s">
+        <v>478</v>
+      </c>
+      <c r="G352" t="s">
+        <v>22</v>
+      </c>
+      <c r="H352" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D353" s="7">
+        <v>4</v>
+      </c>
+      <c r="E353" t="s">
+        <v>51</v>
+      </c>
+      <c r="F353" t="s">
+        <v>479</v>
+      </c>
+      <c r="G353" t="s">
+        <v>22</v>
+      </c>
+      <c r="H353" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D354" s="7">
         <v>5</v>
       </c>
-      <c r="E352" t="s">
+      <c r="E354" t="s">
         <v>25</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F354" t="s">
         <v>480</v>
       </c>
-      <c r="G352" t="s">
+      <c r="G354" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
         <v>70</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B356" t="s">
         <v>66</v>
       </c>
-      <c r="C354" s="21" t="s">
+      <c r="C356" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D354" s="7">
+      <c r="D356" s="7">
         <v>1</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E356" t="s">
         <v>17</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F356" t="s">
         <v>481</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G356" t="s">
         <v>19</v>
       </c>
-      <c r="K354" s="21" t="s">
+      <c r="K356" s="21" t="s">
         <v>820</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D355" s="7">
-        <v>2</v>
-      </c>
-      <c r="E355" t="s">
-        <v>354</v>
-      </c>
-      <c r="F355" t="s">
-        <v>482</v>
-      </c>
-      <c r="G355" t="s">
-        <v>22</v>
-      </c>
-      <c r="H355" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D356" s="7">
-        <v>3</v>
-      </c>
-      <c r="E356" t="s">
-        <v>23</v>
-      </c>
-      <c r="F356" t="s">
-        <v>483</v>
-      </c>
-      <c r="G356" t="s">
-        <v>22</v>
-      </c>
-      <c r="H356" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D357" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E357" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F357" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G357" t="s">
         <v>22</v>
       </c>
       <c r="H357" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D358" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E358" t="s">
-        <v>487</v>
+        <v>23</v>
       </c>
       <c r="F358" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G358" t="s">
-        <v>19</v>
-      </c>
-      <c r="I358" t="s">
-        <v>64</v>
-      </c>
-      <c r="J358" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="H358" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D359" s="7">
+        <v>4</v>
+      </c>
+      <c r="E359" t="s">
+        <v>51</v>
+      </c>
+      <c r="F359" t="s">
+        <v>484</v>
+      </c>
+      <c r="G359" t="s">
+        <v>22</v>
+      </c>
+      <c r="H359" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D360" s="7">
+        <v>5</v>
+      </c>
+      <c r="E360" t="s">
+        <v>487</v>
+      </c>
+      <c r="F360" t="s">
+        <v>486</v>
+      </c>
+      <c r="G360" t="s">
+        <v>19</v>
+      </c>
+      <c r="I360" t="s">
+        <v>64</v>
+      </c>
+      <c r="J360" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D361" s="7">
         <v>6</v>
       </c>
-      <c r="E359" t="s">
+      <c r="E361" t="s">
         <v>25</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F361" t="s">
         <v>485</v>
       </c>
-      <c r="G359" t="s">
+      <c r="G361" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
         <v>71</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B363" t="s">
         <v>69</v>
       </c>
-      <c r="C361" s="21" t="s">
+      <c r="C363" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D361" s="7">
+      <c r="D363" s="7">
         <v>1</v>
       </c>
-      <c r="E361" t="s">
+      <c r="E363" t="s">
         <v>17</v>
       </c>
-      <c r="F361" t="s">
+      <c r="F363" t="s">
         <v>488</v>
       </c>
-      <c r="G361" t="s">
+      <c r="G363" t="s">
         <v>19</v>
       </c>
-      <c r="K361" s="21" t="s">
+      <c r="K363" s="21" t="s">
         <v>821</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D362" s="7">
-        <v>2</v>
-      </c>
-      <c r="E362" t="s">
-        <v>354</v>
-      </c>
-      <c r="F362" t="s">
-        <v>489</v>
-      </c>
-      <c r="G362" t="s">
-        <v>22</v>
-      </c>
-      <c r="H362" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D363" s="7">
-        <v>3</v>
-      </c>
-      <c r="E363" t="s">
-        <v>23</v>
-      </c>
-      <c r="F363" t="s">
-        <v>490</v>
-      </c>
-      <c r="G363" t="s">
-        <v>22</v>
-      </c>
-      <c r="H363" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D364" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E364" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F364" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G364" t="s">
         <v>22</v>
       </c>
       <c r="H364" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D365" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E365" t="s">
-        <v>547</v>
+        <v>23</v>
       </c>
       <c r="F365" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G365" t="s">
-        <v>19</v>
-      </c>
-      <c r="I365" t="s">
-        <v>67</v>
-      </c>
-      <c r="J365" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="H365" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D366" s="7">
+        <v>4</v>
+      </c>
+      <c r="E366" t="s">
+        <v>51</v>
+      </c>
+      <c r="F366" t="s">
+        <v>491</v>
+      </c>
+      <c r="G366" t="s">
+        <v>22</v>
+      </c>
+      <c r="H366" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D367" s="7">
+        <v>5</v>
+      </c>
+      <c r="E367" t="s">
+        <v>547</v>
+      </c>
+      <c r="F367" t="s">
+        <v>492</v>
+      </c>
+      <c r="G367" t="s">
+        <v>19</v>
+      </c>
+      <c r="I367" t="s">
+        <v>67</v>
+      </c>
+      <c r="J367" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D368" s="7">
         <v>6</v>
       </c>
-      <c r="E366" t="s">
+      <c r="E368" t="s">
         <v>25</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F368" t="s">
         <v>493</v>
       </c>
-      <c r="G366" t="s">
+      <c r="G368" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" s="2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
         <v>72</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B370" t="s">
         <v>533</v>
       </c>
-      <c r="C368" s="24" t="s">
+      <c r="C370" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="D368" s="7">
+      <c r="D370" s="7">
         <v>1</v>
       </c>
-      <c r="E368" t="s">
+      <c r="E370" t="s">
         <v>17</v>
       </c>
-      <c r="F368" t="s">
+      <c r="F370" t="s">
         <v>539</v>
-      </c>
-      <c r="G368" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D369" s="7">
-        <v>2</v>
-      </c>
-      <c r="E369" t="s">
-        <v>534</v>
-      </c>
-      <c r="F369" t="s">
-        <v>540</v>
-      </c>
-      <c r="G369" t="s">
-        <v>19</v>
-      </c>
-      <c r="I369" t="s">
-        <v>70</v>
-      </c>
-      <c r="J369" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D370" s="7">
-        <v>3</v>
-      </c>
-      <c r="E370" t="s">
-        <v>535</v>
-      </c>
-      <c r="F370" t="s">
-        <v>541</v>
       </c>
       <c r="G370" t="s">
         <v>19</v>
       </c>
-      <c r="I370" t="s">
-        <v>545</v>
-      </c>
-      <c r="J370" t="s">
-        <v>546</v>
-      </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D371" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E371" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F371" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G371" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I371" t="s">
+        <v>70</v>
+      </c>
+      <c r="J371" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D372" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E372" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F372" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G372" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I372" t="s">
+        <v>545</v>
+      </c>
+      <c r="J372" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D373" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E373" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F373" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G373" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D374" s="7">
+        <v>5</v>
+      </c>
+      <c r="E374" t="s">
+        <v>537</v>
+      </c>
+      <c r="F374" t="s">
+        <v>543</v>
+      </c>
+      <c r="G374" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="2">
+      <c r="D375" s="7">
+        <v>6</v>
+      </c>
+      <c r="E375" t="s">
+        <v>538</v>
+      </c>
+      <c r="F375" t="s">
+        <v>544</v>
+      </c>
+      <c r="G375" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
         <v>73</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B377" t="s">
         <v>548</v>
       </c>
-      <c r="C375" s="9" t="s">
+      <c r="C377" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="D375" s="7">
+      <c r="D377" s="7">
         <v>1</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E377" t="s">
         <v>17</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F377" t="s">
         <v>551</v>
       </c>
-      <c r="G375" t="s">
+      <c r="G377" t="s">
         <v>19</v>
       </c>
-      <c r="K375" s="9" t="s">
+      <c r="K377" s="9" t="s">
         <v>800</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D376" s="7">
-        <v>2</v>
-      </c>
-      <c r="E376" t="s">
-        <v>354</v>
-      </c>
-      <c r="F376" t="s">
-        <v>552</v>
-      </c>
-      <c r="G376" t="s">
-        <v>22</v>
-      </c>
-      <c r="H376" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D377" s="7">
-        <v>3</v>
-      </c>
-      <c r="E377" t="s">
-        <v>23</v>
-      </c>
-      <c r="F377" t="s">
-        <v>553</v>
-      </c>
-      <c r="G377" t="s">
-        <v>22</v>
-      </c>
-      <c r="H377" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D378" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E378" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F378" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G378" t="s">
         <v>22</v>
       </c>
       <c r="H378" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D379" s="7">
+        <v>3</v>
+      </c>
+      <c r="E379" t="s">
+        <v>23</v>
+      </c>
+      <c r="F379" t="s">
+        <v>553</v>
+      </c>
+      <c r="G379" t="s">
+        <v>22</v>
+      </c>
+      <c r="H379" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D380" s="7">
+        <v>4</v>
+      </c>
+      <c r="E380" t="s">
+        <v>51</v>
+      </c>
+      <c r="F380" t="s">
+        <v>554</v>
+      </c>
+      <c r="G380" t="s">
+        <v>22</v>
+      </c>
+      <c r="H380" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D381" s="7">
         <v>5</v>
       </c>
-      <c r="E379" t="s">
+      <c r="E381" t="s">
         <v>25</v>
       </c>
-      <c r="F379" t="s">
+      <c r="F381" t="s">
         <v>555</v>
       </c>
-      <c r="G379" t="s">
+      <c r="G381" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="2">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
         <v>74</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B383" t="s">
         <v>558</v>
       </c>
-      <c r="C381" s="19" t="s">
+      <c r="C383" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="D381" s="7">
+      <c r="D383" s="7">
         <v>1</v>
       </c>
-      <c r="E381" t="s">
+      <c r="E383" t="s">
         <v>17</v>
       </c>
-      <c r="F381" t="s">
+      <c r="F383" t="s">
         <v>561</v>
       </c>
-      <c r="G381" t="s">
+      <c r="G383" t="s">
         <v>19</v>
       </c>
-      <c r="K381" s="19" t="s">
+      <c r="K383" s="19" t="s">
         <v>804</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D382" s="7">
-        <v>2</v>
-      </c>
-      <c r="E382" t="s">
-        <v>354</v>
-      </c>
-      <c r="F382" t="s">
-        <v>562</v>
-      </c>
-      <c r="G382" t="s">
-        <v>22</v>
-      </c>
-      <c r="H382" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D383" s="7">
-        <v>3</v>
-      </c>
-      <c r="E383" t="s">
-        <v>23</v>
-      </c>
-      <c r="F383" t="s">
-        <v>563</v>
-      </c>
-      <c r="G383" t="s">
-        <v>22</v>
-      </c>
-      <c r="H383" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D384" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E384" t="s">
-        <v>604</v>
+        <v>354</v>
       </c>
       <c r="F384" t="s">
-        <v>605</v>
+        <v>562</v>
       </c>
       <c r="G384" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H384" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D385" s="7">
+        <v>3</v>
+      </c>
+      <c r="E385" t="s">
+        <v>23</v>
+      </c>
+      <c r="F385" t="s">
+        <v>563</v>
+      </c>
+      <c r="G385" t="s">
+        <v>22</v>
+      </c>
+      <c r="H385" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D386" s="7">
+        <v>4</v>
+      </c>
+      <c r="E386" t="s">
+        <v>604</v>
+      </c>
+      <c r="F386" t="s">
+        <v>605</v>
+      </c>
+      <c r="G386" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D387" s="7">
         <v>5</v>
       </c>
-      <c r="E385" t="s">
+      <c r="E387" t="s">
         <v>25</v>
       </c>
-      <c r="F385" t="s">
+      <c r="F387" t="s">
         <v>564</v>
       </c>
-      <c r="G385" t="s">
+      <c r="G387" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D386" s="7"/>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="1">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D388" s="7"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
         <v>75</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B389" t="s">
         <v>583</v>
       </c>
-      <c r="C387" s="21" t="s">
+      <c r="C389" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="D387" s="7">
+      <c r="D389" s="7">
         <v>1</v>
       </c>
-      <c r="E387" t="s">
+      <c r="E389" t="s">
         <v>17</v>
       </c>
-      <c r="F387" t="s">
+      <c r="F389" t="s">
         <v>590</v>
       </c>
-      <c r="G387" t="s">
+      <c r="G389" t="s">
         <v>19</v>
       </c>
-      <c r="K387" s="21" t="s">
+      <c r="K389" s="21" t="s">
         <v>819</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D388" s="7">
-        <v>2</v>
-      </c>
-      <c r="E388" t="s">
-        <v>354</v>
-      </c>
-      <c r="F388" t="s">
-        <v>591</v>
-      </c>
-      <c r="G388" t="s">
-        <v>22</v>
-      </c>
-      <c r="H388" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D389" s="7">
-        <v>3</v>
-      </c>
-      <c r="E389" t="s">
-        <v>23</v>
-      </c>
-      <c r="F389" t="s">
-        <v>592</v>
-      </c>
-      <c r="G389" t="s">
-        <v>22</v>
-      </c>
-      <c r="H389" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D390" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E390" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F390" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G390" t="s">
         <v>22</v>
       </c>
       <c r="H390" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D391" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E391" t="s">
-        <v>595</v>
+        <v>23</v>
       </c>
       <c r="F391" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G391" t="s">
-        <v>19</v>
-      </c>
-      <c r="I391" t="s">
-        <v>581</v>
-      </c>
-      <c r="J391" t="s">
-        <v>580</v>
+        <v>22</v>
+      </c>
+      <c r="H391" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D392" s="7">
+        <v>4</v>
+      </c>
+      <c r="E392" t="s">
+        <v>51</v>
+      </c>
+      <c r="F392" t="s">
+        <v>593</v>
+      </c>
+      <c r="G392" t="s">
+        <v>22</v>
+      </c>
+      <c r="H392" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D393" s="7">
+        <v>5</v>
+      </c>
+      <c r="E393" t="s">
+        <v>595</v>
+      </c>
+      <c r="F393" t="s">
+        <v>596</v>
+      </c>
+      <c r="G393" t="s">
+        <v>19</v>
+      </c>
+      <c r="I393" t="s">
+        <v>581</v>
+      </c>
+      <c r="J393" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D394" s="7">
         <v>6</v>
       </c>
-      <c r="E392" t="s">
+      <c r="E394" t="s">
         <v>25</v>
       </c>
-      <c r="F392" t="s">
+      <c r="F394" t="s">
         <v>594</v>
       </c>
-      <c r="G392" t="s">
+      <c r="G394" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
         <v>76</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B396" t="s">
         <v>597</v>
       </c>
-      <c r="C394" s="8" t="s">
+      <c r="C396" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="D394" s="7">
+      <c r="D396" s="7">
         <v>1</v>
       </c>
-      <c r="E394" t="s">
+      <c r="E396" t="s">
         <v>17</v>
       </c>
-      <c r="F394" t="s">
+      <c r="F396" t="s">
         <v>600</v>
       </c>
-      <c r="G394" t="s">
+      <c r="G396" t="s">
         <v>19</v>
       </c>
-      <c r="K394" s="8" t="s">
+      <c r="K396" s="8" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D395" s="7">
-        <v>2</v>
-      </c>
-      <c r="E395" t="s">
-        <v>354</v>
-      </c>
-      <c r="F395" t="s">
-        <v>601</v>
-      </c>
-      <c r="G395" t="s">
-        <v>22</v>
-      </c>
-      <c r="H395" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D396" s="7">
-        <v>3</v>
-      </c>
-      <c r="E396" t="s">
-        <v>23</v>
-      </c>
-      <c r="F396" t="s">
-        <v>602</v>
-      </c>
-      <c r="G396" t="s">
-        <v>22</v>
-      </c>
-      <c r="H396" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D397" s="7">
+        <v>2</v>
+      </c>
+      <c r="E397" t="s">
+        <v>354</v>
+      </c>
+      <c r="F397" t="s">
+        <v>601</v>
+      </c>
+      <c r="G397" t="s">
+        <v>22</v>
+      </c>
+      <c r="H397" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D398" s="7">
+        <v>3</v>
+      </c>
+      <c r="E398" t="s">
+        <v>23</v>
+      </c>
+      <c r="F398" t="s">
+        <v>602</v>
+      </c>
+      <c r="G398" t="s">
+        <v>22</v>
+      </c>
+      <c r="H398" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D399" s="7">
         <v>4</v>
       </c>
-      <c r="E397" t="s">
+      <c r="E399" t="s">
         <v>25</v>
       </c>
-      <c r="F397" t="s">
+      <c r="F399" t="s">
         <v>603</v>
       </c>
-      <c r="G397" t="s">
+      <c r="G399" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="2">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" s="2">
         <v>77</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B401" t="s">
         <v>606</v>
       </c>
-      <c r="C399" s="8" t="s">
+      <c r="C401" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="D399" s="7">
+      <c r="D401" s="7">
         <v>1</v>
       </c>
-      <c r="E399" t="s">
+      <c r="E401" t="s">
         <v>17</v>
       </c>
-      <c r="F399" t="s">
+      <c r="F401" t="s">
         <v>612</v>
       </c>
-      <c r="G399" t="s">
+      <c r="G401" t="s">
         <v>19</v>
       </c>
-      <c r="K399" s="8" t="s">
+      <c r="K401" s="8" t="s">
         <v>774</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D400" s="7">
-        <v>2</v>
-      </c>
-      <c r="E400" t="s">
-        <v>354</v>
-      </c>
-      <c r="F400" t="s">
-        <v>613</v>
-      </c>
-      <c r="G400" t="s">
-        <v>22</v>
-      </c>
-      <c r="H400" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D401" s="7">
-        <v>3</v>
-      </c>
-      <c r="E401" t="s">
-        <v>23</v>
-      </c>
-      <c r="F401" t="s">
-        <v>614</v>
-      </c>
-      <c r="G401" t="s">
-        <v>22</v>
-      </c>
-      <c r="H401" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D402" s="7">
+        <v>2</v>
+      </c>
+      <c r="E402" t="s">
+        <v>354</v>
+      </c>
+      <c r="F402" t="s">
+        <v>613</v>
+      </c>
+      <c r="G402" t="s">
+        <v>22</v>
+      </c>
+      <c r="H402" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D403" s="7">
+        <v>3</v>
+      </c>
+      <c r="E403" t="s">
+        <v>23</v>
+      </c>
+      <c r="F403" t="s">
+        <v>614</v>
+      </c>
+      <c r="G403" t="s">
+        <v>22</v>
+      </c>
+      <c r="H403" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D404" s="7">
         <v>4</v>
       </c>
-      <c r="E402" t="s">
+      <c r="E404" t="s">
         <v>25</v>
       </c>
-      <c r="F402" t="s">
+      <c r="F404" t="s">
         <v>615</v>
       </c>
-      <c r="G402" t="s">
+      <c r="G404" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="2">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" s="2">
         <v>78</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B406" t="s">
         <v>607</v>
       </c>
-      <c r="C404" s="21" t="s">
+      <c r="C406" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="D404" s="7">
+      <c r="D406" s="7">
         <v>1</v>
       </c>
-      <c r="E404" t="s">
+      <c r="E406" t="s">
         <v>17</v>
       </c>
-      <c r="F404" t="s">
+      <c r="F406" t="s">
         <v>616</v>
       </c>
-      <c r="G404" t="s">
+      <c r="G406" t="s">
         <v>19</v>
       </c>
-      <c r="K404" s="21" t="s">
+      <c r="K406" s="21" t="s">
         <v>818</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D405" s="7">
-        <v>2</v>
-      </c>
-      <c r="E405" t="s">
-        <v>354</v>
-      </c>
-      <c r="F405" t="s">
-        <v>617</v>
-      </c>
-      <c r="G405" t="s">
-        <v>22</v>
-      </c>
-      <c r="H405" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D406" s="7">
-        <v>3</v>
-      </c>
-      <c r="E406" t="s">
-        <v>23</v>
-      </c>
-      <c r="F406" t="s">
-        <v>618</v>
-      </c>
-      <c r="G406" t="s">
-        <v>22</v>
-      </c>
-      <c r="H406" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D407" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E407" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F407" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G407" t="s">
         <v>22</v>
       </c>
       <c r="H407" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D408" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E408" t="s">
-        <v>595</v>
+        <v>23</v>
       </c>
       <c r="F408" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G408" t="s">
-        <v>19</v>
-      </c>
-      <c r="I408" t="s">
-        <v>608</v>
-      </c>
-      <c r="J408" t="s">
-        <v>606</v>
+        <v>22</v>
+      </c>
+      <c r="H408" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D409" s="7">
+        <v>4</v>
+      </c>
+      <c r="E409" t="s">
+        <v>51</v>
+      </c>
+      <c r="F409" t="s">
+        <v>619</v>
+      </c>
+      <c r="G409" t="s">
+        <v>22</v>
+      </c>
+      <c r="H409" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D410" s="7">
+        <v>5</v>
+      </c>
+      <c r="E410" t="s">
+        <v>595</v>
+      </c>
+      <c r="F410" t="s">
+        <v>621</v>
+      </c>
+      <c r="G410" t="s">
+        <v>19</v>
+      </c>
+      <c r="I410" t="s">
+        <v>608</v>
+      </c>
+      <c r="J410" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D411" s="7">
         <v>6</v>
       </c>
-      <c r="E409" t="s">
+      <c r="E411" t="s">
         <v>25</v>
       </c>
-      <c r="F409" t="s">
+      <c r="F411" t="s">
         <v>620</v>
       </c>
-      <c r="G409" t="s">
+      <c r="G411" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="1">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
         <v>79</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B413" t="s">
         <v>629</v>
       </c>
-      <c r="C411" s="10" t="s">
+      <c r="C413" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="D411" s="2">
+      <c r="D413" s="2">
         <v>1</v>
       </c>
-      <c r="E411" t="s">
+      <c r="E413" t="s">
         <v>17</v>
       </c>
-      <c r="F411" t="s">
+      <c r="F413" t="s">
         <v>631</v>
       </c>
-      <c r="G411" t="s">
+      <c r="G413" t="s">
         <v>19</v>
       </c>
-      <c r="K411" s="10" t="s">
+      <c r="K413" s="10" t="s">
         <v>803</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="2"/>
-      <c r="D412" s="2">
-        <v>2</v>
-      </c>
-      <c r="E412" t="s">
-        <v>44</v>
-      </c>
-      <c r="F412" t="s">
-        <v>632</v>
-      </c>
-      <c r="G412" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="2"/>
-      <c r="D413" s="2">
-        <v>3</v>
-      </c>
-      <c r="E413" t="s">
-        <v>23</v>
-      </c>
-      <c r="F413" t="s">
-        <v>633</v>
-      </c>
-      <c r="G413" t="s">
-        <v>22</v>
-      </c>
-      <c r="H413" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="D414" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E414" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F414" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G414" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
+      <c r="D415" s="2">
+        <v>3</v>
+      </c>
+      <c r="E415" t="s">
+        <v>23</v>
+      </c>
+      <c r="F415" t="s">
+        <v>633</v>
+      </c>
+      <c r="G415" t="s">
+        <v>22</v>
+      </c>
+      <c r="H415" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="1">
+      <c r="A416" s="2"/>
+      <c r="D416" s="2">
+        <v>4</v>
+      </c>
+      <c r="E416" t="s">
+        <v>25</v>
+      </c>
+      <c r="F416" t="s">
+        <v>634</v>
+      </c>
+      <c r="G416" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="2"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
         <v>80</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B418" t="s">
         <v>635</v>
       </c>
-      <c r="C416" s="21" t="s">
+      <c r="C418" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="D416" s="2">
+      <c r="D418" s="2">
         <v>1</v>
       </c>
-      <c r="E416" t="s">
+      <c r="E418" t="s">
         <v>17</v>
       </c>
-      <c r="F416" t="s">
+      <c r="F418" t="s">
         <v>637</v>
       </c>
-      <c r="G416" t="s">
+      <c r="G418" t="s">
         <v>19</v>
       </c>
-      <c r="K416" s="21" t="s">
+      <c r="K418" s="21" t="s">
         <v>817</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D417" s="2">
-        <v>2</v>
-      </c>
-      <c r="E417" t="s">
-        <v>44</v>
-      </c>
-      <c r="F417" t="s">
-        <v>638</v>
-      </c>
-      <c r="G417" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D418" s="2">
-        <v>3</v>
-      </c>
-      <c r="E418" t="s">
-        <v>23</v>
-      </c>
-      <c r="F418" t="s">
-        <v>639</v>
-      </c>
-      <c r="G418" t="s">
-        <v>22</v>
-      </c>
-      <c r="H418" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D419" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E419" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F419" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G419" t="s">
-        <v>22</v>
-      </c>
-      <c r="H419" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D420" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E420" t="s">
-        <v>645</v>
+        <v>23</v>
       </c>
       <c r="F420" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G420" t="s">
-        <v>19</v>
-      </c>
-      <c r="I420" t="s">
-        <v>630</v>
-      </c>
-      <c r="J420" t="s">
-        <v>629</v>
+        <v>22</v>
+      </c>
+      <c r="H420" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D421" s="2">
+        <v>4</v>
+      </c>
+      <c r="E421" t="s">
+        <v>51</v>
+      </c>
+      <c r="F421" t="s">
+        <v>640</v>
+      </c>
+      <c r="G421" t="s">
+        <v>22</v>
+      </c>
+      <c r="H421" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D422" s="2">
+        <v>5</v>
+      </c>
+      <c r="E422" t="s">
+        <v>645</v>
+      </c>
+      <c r="F422" t="s">
+        <v>641</v>
+      </c>
+      <c r="G422" t="s">
+        <v>19</v>
+      </c>
+      <c r="I422" t="s">
+        <v>630</v>
+      </c>
+      <c r="J422" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D423" s="2">
         <v>6</v>
       </c>
-      <c r="E421" t="s">
+      <c r="E423" t="s">
         <v>25</v>
       </c>
-      <c r="F421" t="s">
+      <c r="F423" t="s">
         <v>642</v>
       </c>
-      <c r="G421" t="s">
+      <c r="G423" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="2">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
         <v>81</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B426" t="s">
         <v>655</v>
       </c>
-      <c r="C424" s="8" t="s">
+      <c r="C426" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="D424" s="2">
+      <c r="D426" s="2">
         <v>1</v>
       </c>
-      <c r="E424" t="s">
+      <c r="E426" t="s">
         <v>17</v>
       </c>
-      <c r="F424" t="s">
+      <c r="F426" t="s">
         <v>651</v>
       </c>
-      <c r="G424" t="s">
+      <c r="G426" t="s">
         <v>19</v>
       </c>
-      <c r="K424" s="8" t="s">
+      <c r="K426" s="8" t="s">
         <v>775</v>
-      </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D425" s="2">
-        <v>2</v>
-      </c>
-      <c r="E425" t="s">
-        <v>20</v>
-      </c>
-      <c r="F425" t="s">
-        <v>652</v>
-      </c>
-      <c r="G425" t="s">
-        <v>22</v>
-      </c>
-      <c r="H425" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D426" s="2">
-        <v>3</v>
-      </c>
-      <c r="E426" t="s">
-        <v>23</v>
-      </c>
-      <c r="F426" t="s">
-        <v>653</v>
-      </c>
-      <c r="G426" t="s">
-        <v>22</v>
-      </c>
-      <c r="H426" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D427" s="2">
+        <v>2</v>
+      </c>
+      <c r="E427" t="s">
+        <v>20</v>
+      </c>
+      <c r="F427" t="s">
+        <v>652</v>
+      </c>
+      <c r="G427" t="s">
+        <v>22</v>
+      </c>
+      <c r="H427" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D428" s="2">
+        <v>3</v>
+      </c>
+      <c r="E428" t="s">
+        <v>23</v>
+      </c>
+      <c r="F428" t="s">
+        <v>653</v>
+      </c>
+      <c r="G428" t="s">
+        <v>22</v>
+      </c>
+      <c r="H428" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D429" s="2">
         <v>4</v>
       </c>
-      <c r="E427" t="s">
+      <c r="E429" t="s">
         <v>31</v>
       </c>
-      <c r="F427" t="s">
+      <c r="F429" t="s">
         <v>654</v>
       </c>
-      <c r="G427" t="s">
+      <c r="G429" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="1">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
         <v>82</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B431" t="s">
         <v>656</v>
       </c>
-      <c r="C429" s="21" t="s">
+      <c r="C431" s="21" t="s">
         <v>657</v>
       </c>
-      <c r="D429" s="2">
+      <c r="D431" s="2">
         <v>1</v>
       </c>
-      <c r="E429" t="s">
+      <c r="E431" t="s">
         <v>17</v>
       </c>
-      <c r="F429" t="s">
+      <c r="F431" t="s">
         <v>659</v>
       </c>
-      <c r="G429" t="s">
+      <c r="G431" t="s">
         <v>19</v>
       </c>
-      <c r="K429" s="21" t="s">
+      <c r="K431" s="21" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D430" s="2">
-        <v>2</v>
-      </c>
-      <c r="E430" t="s">
-        <v>20</v>
-      </c>
-      <c r="F430" t="s">
-        <v>660</v>
-      </c>
-      <c r="G430" t="s">
-        <v>22</v>
-      </c>
-      <c r="H430" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D431" s="2">
-        <v>3</v>
-      </c>
-      <c r="E431" t="s">
-        <v>23</v>
-      </c>
-      <c r="F431" t="s">
-        <v>661</v>
-      </c>
-      <c r="G431" t="s">
-        <v>22</v>
-      </c>
-      <c r="H431" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D432" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E432" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F432" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G432" t="s">
         <v>22</v>
       </c>
       <c r="H432" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D433" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E433" t="s">
-        <v>662</v>
+        <v>23</v>
       </c>
       <c r="F433" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G433" t="s">
-        <v>19</v>
-      </c>
-      <c r="I433" t="s">
-        <v>328</v>
-      </c>
-      <c r="J433" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="H433" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D434" s="2">
+        <v>4</v>
+      </c>
+      <c r="E434" t="s">
+        <v>51</v>
+      </c>
+      <c r="F434" t="s">
+        <v>664</v>
+      </c>
+      <c r="G434" t="s">
+        <v>22</v>
+      </c>
+      <c r="H434" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D435" s="2">
+        <v>5</v>
+      </c>
+      <c r="E435" t="s">
+        <v>662</v>
+      </c>
+      <c r="F435" t="s">
+        <v>663</v>
+      </c>
+      <c r="G435" t="s">
+        <v>19</v>
+      </c>
+      <c r="I435" t="s">
+        <v>328</v>
+      </c>
+      <c r="J435" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D436" s="2">
         <v>6</v>
       </c>
-      <c r="E434" t="s">
+      <c r="E436" t="s">
         <v>25</v>
       </c>
-      <c r="F434" t="s">
+      <c r="F436" t="s">
         <v>665</v>
       </c>
-      <c r="G434" t="s">
+      <c r="G436" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="2">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
         <v>83</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B439" t="s">
         <v>667</v>
       </c>
-      <c r="C437" s="8" t="s">
+      <c r="C439" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="D437" s="2">
+      <c r="D439" s="2">
         <v>1</v>
       </c>
-      <c r="E437" t="s">
+      <c r="E439" t="s">
         <v>17</v>
       </c>
-      <c r="F437" t="s">
+      <c r="F439" t="s">
         <v>669</v>
       </c>
-      <c r="G437" t="s">
+      <c r="G439" t="s">
         <v>19</v>
       </c>
-      <c r="K437" s="8" t="s">
+      <c r="K439" s="8" t="s">
         <v>776</v>
-      </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D438" s="2">
-        <v>2</v>
-      </c>
-      <c r="E438" t="s">
-        <v>20</v>
-      </c>
-      <c r="F438" t="s">
-        <v>670</v>
-      </c>
-      <c r="G438" t="s">
-        <v>22</v>
-      </c>
-      <c r="H438" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D439" s="2">
-        <v>3</v>
-      </c>
-      <c r="E439" t="s">
-        <v>23</v>
-      </c>
-      <c r="F439" t="s">
-        <v>671</v>
-      </c>
-      <c r="G439" t="s">
-        <v>22</v>
-      </c>
-      <c r="H439" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D440" s="2">
+        <v>2</v>
+      </c>
+      <c r="E440" t="s">
+        <v>20</v>
+      </c>
+      <c r="F440" t="s">
+        <v>670</v>
+      </c>
+      <c r="G440" t="s">
+        <v>22</v>
+      </c>
+      <c r="H440" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D441" s="2">
+        <v>3</v>
+      </c>
+      <c r="E441" t="s">
+        <v>23</v>
+      </c>
+      <c r="F441" t="s">
+        <v>671</v>
+      </c>
+      <c r="G441" t="s">
+        <v>22</v>
+      </c>
+      <c r="H441" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D442" s="2">
         <v>4</v>
       </c>
-      <c r="E440" t="s">
+      <c r="E442" t="s">
         <v>31</v>
       </c>
-      <c r="F440" t="s">
+      <c r="F442" t="s">
         <v>672</v>
       </c>
-      <c r="G440" t="s">
+      <c r="G442" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="2">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
         <v>84</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B444" t="s">
         <v>673</v>
       </c>
-      <c r="C442" s="8" t="s">
+      <c r="C444" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="D442" s="2">
+      <c r="D444" s="2">
         <v>1</v>
       </c>
-      <c r="E442" t="s">
+      <c r="E444" t="s">
         <v>17</v>
       </c>
-      <c r="F442" t="s">
+      <c r="F444" t="s">
         <v>676</v>
       </c>
-      <c r="G442" t="s">
+      <c r="G444" t="s">
         <v>19</v>
       </c>
-      <c r="K442" s="8" t="s">
+      <c r="K444" s="8" t="s">
         <v>782</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D443" s="2">
-        <v>2</v>
-      </c>
-      <c r="E443" t="s">
-        <v>20</v>
-      </c>
-      <c r="F443" t="s">
-        <v>677</v>
-      </c>
-      <c r="G443" t="s">
-        <v>22</v>
-      </c>
-      <c r="H443" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D444" s="2">
-        <v>3</v>
-      </c>
-      <c r="E444" t="s">
-        <v>23</v>
-      </c>
-      <c r="F444" t="s">
-        <v>678</v>
-      </c>
-      <c r="G444" t="s">
-        <v>22</v>
-      </c>
-      <c r="H444" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D445" s="2">
+        <v>2</v>
+      </c>
+      <c r="E445" t="s">
+        <v>20</v>
+      </c>
+      <c r="F445" t="s">
+        <v>677</v>
+      </c>
+      <c r="G445" t="s">
+        <v>22</v>
+      </c>
+      <c r="H445" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D446" s="2">
+        <v>3</v>
+      </c>
+      <c r="E446" t="s">
+        <v>23</v>
+      </c>
+      <c r="F446" t="s">
+        <v>678</v>
+      </c>
+      <c r="G446" t="s">
+        <v>22</v>
+      </c>
+      <c r="H446" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D447" s="2">
         <v>4</v>
       </c>
-      <c r="E445" t="s">
+      <c r="E447" t="s">
         <v>31</v>
       </c>
-      <c r="F445" t="s">
+      <c r="F447" t="s">
         <v>679</v>
       </c>
-      <c r="G445" t="s">
+      <c r="G447" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12426,8 +12455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC3A7C8-423C-4447-AAAD-B70897D5CA88}">
   <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13592,7 +13621,7 @@
         <v>156</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>781</v>
@@ -13665,9 +13694,15 @@
       <c r="C64" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
+      <c r="D64" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
@@ -13693,9 +13728,15 @@
       <c r="C66" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
+      <c r="D66" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
@@ -13708,7 +13749,7 @@
         <v>424</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>781</v>
@@ -13730,7 +13771,7 @@
       <c r="D68" s="30"/>
       <c r="E68" s="30"/>
       <c r="F68" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">

--- a/db_structure/00B. Masters.xlsx
+++ b/db_structure/00B. Masters.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{313E2354-0C9C-4F29-B212-B620170D1BCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BAF19B5E-7297-4B66-A6F4-A17A5040057B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="844">
   <si>
     <t>Table Description</t>
   </si>
@@ -2537,6 +2537,18 @@
   </si>
   <si>
     <t>locm_a_flg</t>
+  </si>
+  <si>
+    <t>A74</t>
+  </si>
+  <si>
+    <t>Sys Table Need to Complete</t>
+  </si>
+  <si>
+    <t>ptml_a_flg</t>
+  </si>
+  <si>
+    <t>a72</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2651,19 +2663,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2713,7 +2712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2739,7 +2738,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2747,10 +2745,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5189,10 +5187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K447"/>
+  <dimension ref="A1:K448"/>
   <sheetViews>
-    <sheetView topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I301" sqref="I301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5950,7 +5948,7 @@
       <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>137</v>
       </c>
       <c r="D47" s="2">
@@ -5965,7 +5963,7 @@
       <c r="G47" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="21" t="s">
+      <c r="K47" s="20" t="s">
         <v>814</v>
       </c>
     </row>
@@ -6126,7 +6124,7 @@
       <c r="B58" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>144</v>
       </c>
       <c r="D58" s="2">
@@ -6220,7 +6218,7 @@
       <c r="B64" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>156</v>
       </c>
       <c r="D64" s="2">
@@ -6235,7 +6233,7 @@
       <c r="G64" t="s">
         <v>19</v>
       </c>
-      <c r="K64" s="24" t="s">
+      <c r="K64" s="23" t="s">
         <v>836</v>
       </c>
     </row>
@@ -6530,7 +6528,7 @@
       <c r="B82" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>88</v>
       </c>
       <c r="D82" s="2">
@@ -6545,7 +6543,7 @@
       <c r="G82" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="21" t="s">
+      <c r="K82" s="20" t="s">
         <v>809</v>
       </c>
     </row>
@@ -6649,7 +6647,7 @@
       <c r="B89" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="2">
@@ -6664,7 +6662,7 @@
       <c r="G89" t="s">
         <v>19</v>
       </c>
-      <c r="K89" s="21" t="s">
+      <c r="K89" s="20" t="s">
         <v>807</v>
       </c>
     </row>
@@ -6760,7 +6758,7 @@
       <c r="B96" t="s">
         <v>199</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="23" t="s">
         <v>197</v>
       </c>
       <c r="D96" s="2">
@@ -6775,7 +6773,7 @@
       <c r="G96" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="24" t="s">
+      <c r="K96" s="23" t="s">
         <v>833</v>
       </c>
     </row>
@@ -7287,7 +7285,7 @@
       <c r="B126" t="s">
         <v>76</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D126" s="2">
@@ -7302,7 +7300,7 @@
       <c r="G126" t="s">
         <v>19</v>
       </c>
-      <c r="K126" s="21" t="s">
+      <c r="K126" s="20" t="s">
         <v>808</v>
       </c>
     </row>
@@ -7579,7 +7577,7 @@
       <c r="B144" t="s">
         <v>82</v>
       </c>
-      <c r="C144" s="24" t="s">
+      <c r="C144" s="23" t="s">
         <v>261</v>
       </c>
       <c r="D144" s="2">
@@ -8125,7 +8123,7 @@
       <c r="B175" t="s">
         <v>115</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="20" t="s">
         <v>300</v>
       </c>
       <c r="D175" s="2">
@@ -8140,7 +8138,7 @@
       <c r="G175" t="s">
         <v>19</v>
       </c>
-      <c r="K175" s="21" t="s">
+      <c r="K175" s="20" t="s">
         <v>810</v>
       </c>
     </row>
@@ -8313,7 +8311,7 @@
       <c r="B187" t="s">
         <v>116</v>
       </c>
-      <c r="C187" s="21" t="s">
+      <c r="C187" s="20" t="s">
         <v>301</v>
       </c>
       <c r="D187" s="2">
@@ -8328,7 +8326,7 @@
       <c r="G187" t="s">
         <v>19</v>
       </c>
-      <c r="K187" s="21" t="s">
+      <c r="K187" s="20" t="s">
         <v>811</v>
       </c>
     </row>
@@ -8522,7 +8520,7 @@
       <c r="B200" t="s">
         <v>96</v>
       </c>
-      <c r="C200" s="21" t="s">
+      <c r="C200" s="20" t="s">
         <v>330</v>
       </c>
       <c r="D200" s="2">
@@ -8537,7 +8535,7 @@
       <c r="G200" t="s">
         <v>19</v>
       </c>
-      <c r="K200" s="21" t="s">
+      <c r="K200" s="20" t="s">
         <v>812</v>
       </c>
     </row>
@@ -8636,7 +8634,7 @@
       <c r="B207" t="s">
         <v>97</v>
       </c>
-      <c r="C207" s="24" t="s">
+      <c r="C207" s="23" t="s">
         <v>328</v>
       </c>
       <c r="D207" s="2">
@@ -8651,7 +8649,7 @@
       <c r="G207" t="s">
         <v>19</v>
       </c>
-      <c r="K207" s="24" t="s">
+      <c r="K207" s="23" t="s">
         <v>831</v>
       </c>
     </row>
@@ -8776,7 +8774,7 @@
       <c r="B215" t="s">
         <v>98</v>
       </c>
-      <c r="C215" s="21" t="s">
+      <c r="C215" s="20" t="s">
         <v>331</v>
       </c>
       <c r="D215" s="2">
@@ -8791,7 +8789,7 @@
       <c r="G215" t="s">
         <v>19</v>
       </c>
-      <c r="K215" s="21" t="s">
+      <c r="K215" s="20" t="s">
         <v>813</v>
       </c>
     </row>
@@ -9091,7 +9089,7 @@
       <c r="B234" t="s">
         <v>114</v>
       </c>
-      <c r="C234" s="24" t="s">
+      <c r="C234" s="23" t="s">
         <v>626</v>
       </c>
       <c r="D234" s="2">
@@ -9106,7 +9104,7 @@
       <c r="G234" t="s">
         <v>19</v>
       </c>
-      <c r="K234" s="29" t="s">
+      <c r="K234" s="28" t="s">
         <v>838</v>
       </c>
     </row>
@@ -9224,7 +9222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="D241" s="2">
         <v>8</v>
@@ -9242,7 +9240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D242" s="2">
         <v>9</v>
       </c>
@@ -9259,7 +9257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D243" s="2">
         <v>10</v>
       </c>
@@ -9279,7 +9277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D244" s="2">
         <v>11</v>
       </c>
@@ -9299,7 +9297,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D245" s="2">
         <v>12</v>
       </c>
@@ -9319,7 +9317,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D246" s="2">
         <v>13</v>
       </c>
@@ -9336,7 +9334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D247" s="2">
         <v>14</v>
       </c>
@@ -9353,7 +9351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D248" s="2">
         <v>15</v>
       </c>
@@ -9370,7 +9368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D249" s="2">
         <v>16</v>
       </c>
@@ -9387,7 +9385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D250" s="2">
         <v>17</v>
       </c>
@@ -9404,109 +9402,109 @@
         <v>100</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D251" s="2">
+        <v>18</v>
+      </c>
+      <c r="E251" t="s">
+        <v>25</v>
+      </c>
+      <c r="F251" t="s">
+        <v>842</v>
+      </c>
+      <c r="G251" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
         <v>55</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>108</v>
       </c>
-      <c r="C252" s="24" t="s">
+      <c r="C253" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D253" s="2">
         <v>1</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E253" t="s">
         <v>17</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F253" t="s">
         <v>400</v>
-      </c>
-      <c r="G252" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D253" s="2">
-        <v>2</v>
-      </c>
-      <c r="E253" t="s">
-        <v>384</v>
-      </c>
-      <c r="F253" t="s">
-        <v>401</v>
       </c>
       <c r="G253" t="s">
         <v>19</v>
       </c>
-      <c r="I253" t="s">
-        <v>333</v>
-      </c>
-      <c r="J253" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D254" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E254" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="F254" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G254" t="s">
         <v>19</v>
       </c>
       <c r="I254" t="s">
-        <v>626</v>
+        <v>333</v>
       </c>
       <c r="J254" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K254" s="28" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D255" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E255" t="s">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="F255" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G255" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I255" t="s">
+        <v>626</v>
+      </c>
+      <c r="J255" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D256" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="F256" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G256" t="s">
-        <v>22</v>
-      </c>
-      <c r="H256" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D257" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E257" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F257" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G257" t="s">
         <v>22</v>
@@ -9517,13 +9515,13 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D258" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E258" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F258" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G258" t="s">
         <v>22</v>
@@ -9534,13 +9532,13 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D259" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E259" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F259" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G259" t="s">
         <v>22</v>
@@ -9551,13 +9549,13 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D260" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E260" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F260" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G260" t="s">
         <v>22</v>
@@ -9568,13 +9566,13 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D261" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E261" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F261" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G261" t="s">
         <v>22</v>
@@ -9585,167 +9583,167 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D262" s="2">
+        <v>10</v>
+      </c>
+      <c r="E262" t="s">
+        <v>230</v>
+      </c>
+      <c r="F262" t="s">
+        <v>410</v>
+      </c>
+      <c r="G262" t="s">
+        <v>22</v>
+      </c>
+      <c r="H262" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D263" s="2">
         <v>11</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E263" t="s">
         <v>25</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F263" t="s">
         <v>411</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G263" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
         <v>56</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B265" t="s">
         <v>374</v>
       </c>
-      <c r="C264" s="24" t="s">
+      <c r="C265" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D265" s="2">
         <v>1</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E265" t="s">
         <v>17</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F265" t="s">
         <v>412</v>
-      </c>
-      <c r="G264" t="s">
-        <v>19</v>
-      </c>
-      <c r="K264" s="24" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D265" s="2">
-        <v>2</v>
-      </c>
-      <c r="E265" t="s">
-        <v>384</v>
-      </c>
-      <c r="F265" t="s">
-        <v>413</v>
       </c>
       <c r="G265" t="s">
         <v>19</v>
       </c>
-      <c r="I265" t="s">
-        <v>333</v>
-      </c>
-      <c r="J265" t="s">
-        <v>100</v>
+      <c r="K265" s="23" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D266" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E266" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="F266" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G266" t="s">
         <v>19</v>
       </c>
       <c r="I266" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J266" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D267" s="2">
+        <v>3</v>
+      </c>
+      <c r="E267" t="s">
+        <v>414</v>
+      </c>
+      <c r="F267" t="s">
+        <v>415</v>
+      </c>
+      <c r="G267" t="s">
+        <v>19</v>
+      </c>
+      <c r="I267" t="s">
+        <v>331</v>
+      </c>
+      <c r="J267" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D268" s="2">
         <v>4</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E268" t="s">
         <v>25</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F268" t="s">
         <v>416</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G268" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>57</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B270" t="s">
         <v>101</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C270" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D270" s="2">
         <v>1</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E270" t="s">
         <v>17</v>
       </c>
-      <c r="F269" t="s">
+      <c r="F270" t="s">
         <v>419</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G270" t="s">
         <v>19</v>
       </c>
-      <c r="K269" s="9" t="s">
+      <c r="K270" s="9" t="s">
         <v>794</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D270" s="2">
-        <v>2</v>
-      </c>
-      <c r="E270" t="s">
-        <v>354</v>
-      </c>
-      <c r="F270" t="s">
-        <v>420</v>
-      </c>
-      <c r="G270" t="s">
-        <v>22</v>
-      </c>
-      <c r="H270" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D271" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E271" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F271" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G271" t="s">
         <v>22</v>
       </c>
       <c r="H271" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D272" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F272" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G272" t="s">
         <v>22</v>
@@ -9756,107 +9754,107 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D273" s="2">
+        <v>4</v>
+      </c>
+      <c r="E273" t="s">
+        <v>51</v>
+      </c>
+      <c r="F273" t="s">
+        <v>422</v>
+      </c>
+      <c r="G273" t="s">
+        <v>22</v>
+      </c>
+      <c r="H273" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D274" s="2">
         <v>5</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E274" t="s">
         <v>25</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F274" t="s">
         <v>423</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G274" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
         <v>58</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B276" t="s">
         <v>102</v>
       </c>
-      <c r="C275" s="24" t="s">
+      <c r="C276" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D276" s="2">
         <v>1</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E276" t="s">
         <v>17</v>
       </c>
-      <c r="F275" t="s">
+      <c r="F276" t="s">
         <v>427</v>
-      </c>
-      <c r="G275" t="s">
-        <v>19</v>
-      </c>
-      <c r="K275" s="29" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D276" s="2">
-        <v>2</v>
-      </c>
-      <c r="E276" t="s">
-        <v>428</v>
-      </c>
-      <c r="F276" t="s">
-        <v>426</v>
       </c>
       <c r="G276" t="s">
         <v>19</v>
       </c>
-      <c r="I276" t="s">
-        <v>417</v>
-      </c>
-      <c r="J276" t="s">
-        <v>101</v>
+      <c r="K276" s="28" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D277" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E277" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="F277" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G277" t="s">
-        <v>22</v>
-      </c>
-      <c r="H277" s="2">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="I277" t="s">
+        <v>417</v>
+      </c>
+      <c r="J277" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D278" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E278" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F278" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G278" t="s">
         <v>22</v>
       </c>
       <c r="H278" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D279" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E279" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F279" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G279" t="s">
         <v>22</v>
@@ -9867,13 +9865,13 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D280" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E280" t="s">
-        <v>437</v>
+        <v>51</v>
       </c>
       <c r="F280" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G280" t="s">
         <v>22</v>
@@ -9884,13 +9882,13 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D281" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E281" t="s">
-        <v>202</v>
+        <v>437</v>
       </c>
       <c r="F281" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G281" t="s">
         <v>22</v>
@@ -9901,13 +9899,13 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D282" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E282" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F282" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G282" t="s">
         <v>22</v>
@@ -9918,13 +9916,13 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D283" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E283" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F283" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G283" t="s">
         <v>22</v>
@@ -9935,13 +9933,13 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D284" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E284" t="s">
-        <v>496</v>
+        <v>204</v>
       </c>
       <c r="F284" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="G284" t="s">
         <v>22</v>
@@ -9952,13 +9950,13 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D285" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E285" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F285" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G285" t="s">
         <v>22</v>
@@ -9969,13 +9967,13 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D286" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E286" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F286" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G286" t="s">
         <v>22</v>
@@ -9986,164 +9984,164 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D287" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E287" t="s">
-        <v>205</v>
+        <v>498</v>
       </c>
       <c r="F287" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="G287" t="s">
-        <v>19</v>
-      </c>
-      <c r="I287" t="s">
-        <v>91</v>
-      </c>
-      <c r="J287" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="H287" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D288" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E288" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F288" t="s">
-        <v>628</v>
+        <v>439</v>
       </c>
       <c r="G288" t="s">
         <v>19</v>
       </c>
       <c r="I288" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J288" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D289" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E289" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F289" t="s">
-        <v>440</v>
+        <v>628</v>
       </c>
       <c r="G289" t="s">
         <v>19</v>
       </c>
       <c r="I289" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J289" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D290" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E290" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F290" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G290" t="s">
-        <v>22</v>
-      </c>
-      <c r="H290" s="2">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="I290" t="s">
+        <v>94</v>
+      </c>
+      <c r="J290" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D291" s="2">
+        <v>16</v>
+      </c>
+      <c r="E291" t="s">
+        <v>206</v>
+      </c>
+      <c r="F291" t="s">
+        <v>438</v>
+      </c>
+      <c r="G291" t="s">
+        <v>22</v>
+      </c>
+      <c r="H291" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D292" s="2">
         <v>17</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E292" t="s">
         <v>25</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F292" t="s">
         <v>436</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G292" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
         <v>59</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B294" t="s">
         <v>103</v>
       </c>
-      <c r="C293" s="9" t="s">
+      <c r="C294" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D294" s="2">
         <v>1</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E294" t="s">
         <v>17</v>
       </c>
-      <c r="F293" t="s">
+      <c r="F294" t="s">
         <v>443</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G294" t="s">
         <v>19</v>
       </c>
-      <c r="K293" s="9" t="s">
+      <c r="K294" s="9" t="s">
         <v>795</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D294" s="2">
-        <v>2</v>
-      </c>
-      <c r="E294" t="s">
-        <v>354</v>
-      </c>
-      <c r="F294" t="s">
-        <v>444</v>
-      </c>
-      <c r="G294" t="s">
-        <v>22</v>
-      </c>
-      <c r="H294" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D295" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E295" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F295" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G295" t="s">
         <v>22</v>
       </c>
       <c r="H295" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D296" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E296" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F296" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G296" t="s">
         <v>22</v>
@@ -10154,161 +10152,161 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D297" s="2">
+        <v>4</v>
+      </c>
+      <c r="E297" t="s">
+        <v>51</v>
+      </c>
+      <c r="F297" t="s">
+        <v>446</v>
+      </c>
+      <c r="G297" t="s">
+        <v>22</v>
+      </c>
+      <c r="H297" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D298" s="2">
         <v>5</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E298" t="s">
         <v>25</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F298" t="s">
         <v>447</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G298" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
         <v>60</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B300" t="s">
         <v>502</v>
       </c>
-      <c r="C299" s="21" t="s">
+      <c r="C300" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D300" s="2">
         <v>1</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E300" t="s">
         <v>17</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F300" t="s">
         <v>505</v>
-      </c>
-      <c r="G299" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D300" s="2">
-        <v>2</v>
-      </c>
-      <c r="E300" t="s">
-        <v>506</v>
-      </c>
-      <c r="F300" t="s">
-        <v>507</v>
       </c>
       <c r="G300" t="s">
         <v>19</v>
       </c>
-      <c r="I300" t="s">
-        <v>441</v>
-      </c>
-      <c r="J300" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D301" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E301" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F301" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G301" t="s">
-        <v>150</v>
+        <v>19</v>
+      </c>
+      <c r="I301" t="s">
+        <v>441</v>
+      </c>
+      <c r="J301" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D302" s="2">
+        <v>3</v>
+      </c>
+      <c r="E302" t="s">
+        <v>508</v>
+      </c>
+      <c r="F302" t="s">
+        <v>509</v>
+      </c>
+      <c r="G302" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D303" s="2">
         <v>4</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E303" t="s">
         <v>510</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F303" t="s">
         <v>511</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G303" t="s">
         <v>151</v>
       </c>
-      <c r="H302" s="2" t="s">
+      <c r="H303" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
         <v>61</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B305" t="s">
         <v>104</v>
       </c>
-      <c r="C304" s="9" t="s">
+      <c r="C305" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D305" s="2">
         <v>1</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E305" t="s">
         <v>17</v>
       </c>
-      <c r="F304" t="s">
+      <c r="F305" t="s">
         <v>450</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G305" t="s">
         <v>19</v>
       </c>
-      <c r="K304" s="9" t="s">
+      <c r="K305" s="9" t="s">
         <v>796</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D305" s="2">
-        <v>2</v>
-      </c>
-      <c r="E305" t="s">
-        <v>354</v>
-      </c>
-      <c r="F305" t="s">
-        <v>451</v>
-      </c>
-      <c r="G305" t="s">
-        <v>22</v>
-      </c>
-      <c r="H305" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D306" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E306" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F306" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G306" t="s">
         <v>22</v>
       </c>
       <c r="H306" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D307" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E307" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F307" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G307" t="s">
         <v>22</v>
@@ -10319,235 +10317,235 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D308" s="2">
+        <v>4</v>
+      </c>
+      <c r="E308" t="s">
+        <v>51</v>
+      </c>
+      <c r="F308" t="s">
+        <v>453</v>
+      </c>
+      <c r="G308" t="s">
+        <v>22</v>
+      </c>
+      <c r="H308" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D309" s="2">
         <v>5</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E309" t="s">
         <v>25</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F309" t="s">
         <v>454</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G309" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
         <v>62</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B311" t="s">
         <v>580</v>
       </c>
-      <c r="C310" s="8" t="s">
+      <c r="C311" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D311" s="2">
         <v>1</v>
       </c>
-      <c r="E310" t="s">
+      <c r="E311" t="s">
         <v>17</v>
       </c>
-      <c r="F310" t="s">
+      <c r="F311" t="s">
         <v>584</v>
       </c>
-      <c r="G310" t="s">
+      <c r="G311" t="s">
         <v>19</v>
       </c>
-      <c r="K310" s="8" t="s">
+      <c r="K311" s="8" t="s">
         <v>769</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D311" s="2">
-        <v>2</v>
-      </c>
-      <c r="E311" t="s">
-        <v>354</v>
-      </c>
-      <c r="F311" t="s">
-        <v>585</v>
-      </c>
-      <c r="G311" t="s">
-        <v>22</v>
-      </c>
-      <c r="H311" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D312" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E312" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F312" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G312" t="s">
         <v>22</v>
       </c>
       <c r="H312" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D313" s="2">
+        <v>3</v>
+      </c>
+      <c r="E313" t="s">
+        <v>23</v>
+      </c>
+      <c r="F313" t="s">
+        <v>586</v>
+      </c>
+      <c r="G313" t="s">
+        <v>22</v>
+      </c>
+      <c r="H313" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D314" s="2">
         <v>4</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E314" t="s">
         <v>25</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F314" t="s">
         <v>587</v>
       </c>
-      <c r="G313" t="s">
+      <c r="G314" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
         <v>63</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B316" t="s">
         <v>105</v>
       </c>
-      <c r="C315" s="8" t="s">
+      <c r="C316" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D316" s="2">
         <v>1</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E316" t="s">
         <v>17</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F316" t="s">
         <v>455</v>
       </c>
-      <c r="G315" t="s">
+      <c r="G316" t="s">
         <v>19</v>
       </c>
-      <c r="K315" s="8" t="s">
+      <c r="K316" s="8" t="s">
         <v>770</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D316" s="2">
-        <v>2</v>
-      </c>
-      <c r="E316" t="s">
-        <v>354</v>
-      </c>
-      <c r="F316" t="s">
-        <v>456</v>
-      </c>
-      <c r="G316" t="s">
-        <v>22</v>
-      </c>
-      <c r="H316" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D317" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E317" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F317" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G317" t="s">
         <v>22</v>
       </c>
       <c r="H317" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D318" s="2">
+        <v>3</v>
+      </c>
+      <c r="E318" t="s">
+        <v>23</v>
+      </c>
+      <c r="F318" t="s">
+        <v>457</v>
+      </c>
+      <c r="G318" t="s">
+        <v>22</v>
+      </c>
+      <c r="H318" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D319" s="2">
         <v>4</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E319" t="s">
         <v>25</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F319" t="s">
         <v>458</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G319" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
         <v>64</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>109</v>
       </c>
-      <c r="C320" s="21" t="s">
+      <c r="C321" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="D320" s="2">
+      <c r="D321" s="2">
         <v>1</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E321" t="s">
         <v>17</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F321" t="s">
         <v>461</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G321" t="s">
         <v>19</v>
       </c>
-      <c r="K320" s="21" t="s">
+      <c r="K321" s="20" t="s">
         <v>815</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D321" s="2">
-        <v>2</v>
-      </c>
-      <c r="E321" t="s">
-        <v>354</v>
-      </c>
-      <c r="F321" t="s">
-        <v>462</v>
-      </c>
-      <c r="G321" t="s">
-        <v>22</v>
-      </c>
-      <c r="H321" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D322" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E322" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F322" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G322" t="s">
         <v>22</v>
       </c>
       <c r="H322" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D323" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E323" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F323" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G323" t="s">
         <v>22</v>
@@ -10558,382 +10556,377 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D324" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E324" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="F324" t="s">
-        <v>556</v>
+        <v>464</v>
       </c>
       <c r="G324" t="s">
-        <v>19</v>
-      </c>
-      <c r="I324" t="s">
-        <v>137</v>
-      </c>
-      <c r="J324" t="s">
-        <v>86</v>
+        <v>22</v>
+      </c>
+      <c r="H324" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D325" s="2">
+        <v>5</v>
+      </c>
+      <c r="E325" t="s">
+        <v>163</v>
+      </c>
+      <c r="F325" t="s">
+        <v>556</v>
+      </c>
+      <c r="G325" t="s">
+        <v>19</v>
+      </c>
+      <c r="I325" t="s">
+        <v>137</v>
+      </c>
+      <c r="J325" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D326" s="2">
         <v>6</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E326" t="s">
         <v>25</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F326" t="s">
         <v>465</v>
       </c>
-      <c r="G325" t="s">
+      <c r="G326" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
         <v>65</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B328" t="s">
         <v>110</v>
       </c>
-      <c r="C327" s="8" t="s">
+      <c r="C328" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="D327" s="2">
+      <c r="D328" s="2">
         <v>1</v>
       </c>
-      <c r="E327" t="s">
+      <c r="E328" t="s">
         <v>17</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F328" t="s">
         <v>467</v>
       </c>
-      <c r="G327" t="s">
+      <c r="G328" t="s">
         <v>19</v>
       </c>
-      <c r="K327" s="8" t="s">
+      <c r="K328" s="8" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D328" s="2">
-        <v>2</v>
-      </c>
-      <c r="E328" t="s">
-        <v>354</v>
-      </c>
-      <c r="F328" t="s">
-        <v>468</v>
-      </c>
-      <c r="G328" t="s">
-        <v>22</v>
-      </c>
-      <c r="H328" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D329" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E329" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F329" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G329" t="s">
         <v>22</v>
       </c>
       <c r="H329" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D330" s="2">
+        <v>3</v>
+      </c>
+      <c r="E330" t="s">
+        <v>23</v>
+      </c>
+      <c r="F330" t="s">
+        <v>469</v>
+      </c>
+      <c r="G330" t="s">
+        <v>22</v>
+      </c>
+      <c r="H330" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D331" s="2">
         <v>4</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E331" t="s">
         <v>25</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F331" t="s">
         <v>470</v>
       </c>
-      <c r="G330" t="s">
+      <c r="G331" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
         <v>66</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>112</v>
       </c>
-      <c r="C332" s="21" t="s">
+      <c r="C333" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="D332" s="2">
+      <c r="D333" s="2">
         <v>1</v>
       </c>
-      <c r="E332" t="s">
+      <c r="E333" t="s">
         <v>17</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F333" t="s">
         <v>514</v>
-      </c>
-      <c r="G332" t="s">
-        <v>19</v>
-      </c>
-      <c r="K332" s="21" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D333" s="2">
-        <v>2</v>
-      </c>
-      <c r="E333" t="s">
-        <v>515</v>
-      </c>
-      <c r="F333" t="s">
-        <v>516</v>
       </c>
       <c r="G333" t="s">
         <v>19</v>
       </c>
-      <c r="I333" t="s">
-        <v>494</v>
-      </c>
-      <c r="J333" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D334" s="7">
-        <v>3</v>
+      <c r="K333" s="20" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D334" s="2">
+        <v>2</v>
       </c>
       <c r="E334" t="s">
-        <v>44</v>
+        <v>515</v>
       </c>
       <c r="F334" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G334" t="s">
         <v>19</v>
       </c>
-      <c r="H334" s="2"/>
+      <c r="I334" t="s">
+        <v>494</v>
+      </c>
+      <c r="J334" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="335" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D335" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E335" t="s">
-        <v>518</v>
+        <v>44</v>
       </c>
       <c r="F335" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G335" t="s">
-        <v>22</v>
-      </c>
-      <c r="H335" s="2">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H335" s="2"/>
     </row>
     <row r="336" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D336" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E336" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F336" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G336" t="s">
         <v>22</v>
       </c>
       <c r="H336" s="2">
-        <v>200</v>
-      </c>
-      <c r="J336" s="6" t="s">
-        <v>579</v>
+        <v>50</v>
       </c>
     </row>
     <row r="337" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D337" s="7">
+        <v>5</v>
+      </c>
+      <c r="E337" t="s">
+        <v>519</v>
+      </c>
+      <c r="F337" t="s">
+        <v>521</v>
+      </c>
+      <c r="G337" t="s">
+        <v>22</v>
+      </c>
+      <c r="H337" s="2">
+        <v>200</v>
+      </c>
+      <c r="J337" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D338" s="7">
         <v>6</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E338" t="s">
         <v>25</v>
       </c>
-      <c r="F337" t="s">
+      <c r="F338" t="s">
         <v>688</v>
       </c>
-      <c r="G337" t="s">
+      <c r="G338" t="s">
         <v>27</v>
       </c>
-      <c r="H337" s="2"/>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
+      <c r="H338" s="2"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
         <v>67</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B340" t="s">
         <v>111</v>
       </c>
-      <c r="C339" s="8" t="s">
+      <c r="C340" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="D339" s="7">
+      <c r="D340" s="7">
         <v>1</v>
       </c>
-      <c r="E339" t="s">
+      <c r="E340" t="s">
         <v>17</v>
       </c>
-      <c r="F339" t="s">
+      <c r="F340" t="s">
         <v>472</v>
       </c>
-      <c r="G339" t="s">
+      <c r="G340" t="s">
         <v>19</v>
       </c>
-      <c r="K339" s="8" t="s">
+      <c r="K340" s="8" t="s">
         <v>772</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D340" s="7">
-        <v>2</v>
-      </c>
-      <c r="E340" t="s">
-        <v>354</v>
-      </c>
-      <c r="F340" t="s">
-        <v>473</v>
-      </c>
-      <c r="G340" t="s">
-        <v>22</v>
-      </c>
-      <c r="H340" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D341" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E341" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F341" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G341" t="s">
         <v>22</v>
       </c>
       <c r="H341" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D342" s="7">
+        <v>3</v>
+      </c>
+      <c r="E342" t="s">
+        <v>23</v>
+      </c>
+      <c r="F342" t="s">
+        <v>474</v>
+      </c>
+      <c r="G342" t="s">
+        <v>22</v>
+      </c>
+      <c r="H342" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D343" s="7">
         <v>4</v>
       </c>
-      <c r="E342" t="s">
+      <c r="E343" t="s">
         <v>25</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F343" t="s">
         <v>475</v>
       </c>
-      <c r="G342" t="s">
+      <c r="G343" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
         <v>68</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B345" t="s">
         <v>113</v>
       </c>
-      <c r="C344" s="21" t="s">
+      <c r="C345" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="D344" s="7">
+      <c r="D345" s="7">
         <v>1</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E345" t="s">
         <v>17</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F345" t="s">
         <v>524</v>
-      </c>
-      <c r="G344" t="s">
-        <v>19</v>
-      </c>
-      <c r="K344" s="21" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D345" s="7">
-        <v>2</v>
-      </c>
-      <c r="E345" t="s">
-        <v>527</v>
-      </c>
-      <c r="F345" t="s">
-        <v>525</v>
       </c>
       <c r="G345" t="s">
         <v>19</v>
       </c>
-      <c r="I345" t="s">
-        <v>495</v>
-      </c>
-      <c r="J345" t="s">
-        <v>111</v>
+      <c r="K345" s="20" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A346" s="6"/>
-      <c r="B346" s="6"/>
-      <c r="C346" s="6"/>
       <c r="D346" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E346" t="s">
-        <v>44</v>
+        <v>527</v>
       </c>
       <c r="F346" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G346" t="s">
         <v>19</v>
       </c>
-      <c r="I346" s="6"/>
-      <c r="J346" s="6"/>
+      <c r="I346" t="s">
+        <v>495</v>
+      </c>
+      <c r="J346" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
       <c r="D347" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E347" t="s">
-        <v>528</v>
+        <v>44</v>
       </c>
       <c r="F347" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G347" t="s">
-        <v>22</v>
-      </c>
-      <c r="H347" s="2">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
@@ -10943,89 +10936,94 @@
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
       <c r="D348" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E348" t="s">
-        <v>25</v>
+        <v>528</v>
       </c>
       <c r="F348" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G348" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H348" s="2">
+        <v>500</v>
       </c>
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" s="2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="6"/>
+      <c r="B349" s="6"/>
+      <c r="C349" s="6"/>
+      <c r="D349" s="7">
+        <v>5</v>
+      </c>
+      <c r="E349" t="s">
+        <v>25</v>
+      </c>
+      <c r="F349" t="s">
+        <v>530</v>
+      </c>
+      <c r="G349" t="s">
+        <v>27</v>
+      </c>
+      <c r="I349" s="6"/>
+      <c r="J349" s="6"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
         <v>69</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B351" t="s">
         <v>63</v>
       </c>
-      <c r="C350" s="9" t="s">
+      <c r="C351" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D350" s="7">
+      <c r="D351" s="7">
         <v>1</v>
       </c>
-      <c r="E350" t="s">
+      <c r="E351" t="s">
         <v>17</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F351" t="s">
         <v>476</v>
       </c>
-      <c r="G350" t="s">
+      <c r="G351" t="s">
         <v>19</v>
       </c>
-      <c r="K350" s="9" t="s">
+      <c r="K351" s="9" t="s">
         <v>799</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D351" s="7">
-        <v>2</v>
-      </c>
-      <c r="E351" t="s">
-        <v>354</v>
-      </c>
-      <c r="F351" t="s">
-        <v>477</v>
-      </c>
-      <c r="G351" t="s">
-        <v>22</v>
-      </c>
-      <c r="H351" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D352" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E352" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F352" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G352" t="s">
         <v>22</v>
       </c>
       <c r="H352" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D353" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E353" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F353" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G353" t="s">
         <v>22</v>
@@ -11036,87 +11034,87 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D354" s="7">
+        <v>4</v>
+      </c>
+      <c r="E354" t="s">
+        <v>51</v>
+      </c>
+      <c r="F354" t="s">
+        <v>479</v>
+      </c>
+      <c r="G354" t="s">
+        <v>22</v>
+      </c>
+      <c r="H354" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D355" s="7">
         <v>5</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E355" t="s">
         <v>25</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F355" t="s">
         <v>480</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G355" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
         <v>70</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B357" t="s">
         <v>66</v>
       </c>
-      <c r="C356" s="21" t="s">
+      <c r="C357" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D356" s="7">
+      <c r="D357" s="7">
         <v>1</v>
       </c>
-      <c r="E356" t="s">
+      <c r="E357" t="s">
         <v>17</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F357" t="s">
         <v>481</v>
       </c>
-      <c r="G356" t="s">
+      <c r="G357" t="s">
         <v>19</v>
       </c>
-      <c r="K356" s="21" t="s">
+      <c r="K357" s="20" t="s">
         <v>820</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D357" s="7">
-        <v>2</v>
-      </c>
-      <c r="E357" t="s">
-        <v>354</v>
-      </c>
-      <c r="F357" t="s">
-        <v>482</v>
-      </c>
-      <c r="G357" t="s">
-        <v>22</v>
-      </c>
-      <c r="H357" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D358" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E358" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F358" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G358" t="s">
         <v>22</v>
       </c>
       <c r="H358" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D359" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E359" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F359" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G359" t="s">
         <v>22</v>
@@ -11127,107 +11125,107 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D360" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E360" t="s">
-        <v>487</v>
+        <v>51</v>
       </c>
       <c r="F360" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G360" t="s">
-        <v>19</v>
-      </c>
-      <c r="I360" t="s">
-        <v>64</v>
-      </c>
-      <c r="J360" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="H360" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D361" s="7">
+        <v>5</v>
+      </c>
+      <c r="E361" t="s">
+        <v>487</v>
+      </c>
+      <c r="F361" t="s">
+        <v>486</v>
+      </c>
+      <c r="G361" t="s">
+        <v>19</v>
+      </c>
+      <c r="I361" t="s">
+        <v>64</v>
+      </c>
+      <c r="J361" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D362" s="7">
         <v>6</v>
       </c>
-      <c r="E361" t="s">
+      <c r="E362" t="s">
         <v>25</v>
       </c>
-      <c r="F361" t="s">
+      <c r="F362" t="s">
         <v>485</v>
       </c>
-      <c r="G361" t="s">
+      <c r="G362" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
         <v>71</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B364" t="s">
         <v>69</v>
       </c>
-      <c r="C363" s="21" t="s">
+      <c r="C364" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D363" s="7">
+      <c r="D364" s="7">
         <v>1</v>
       </c>
-      <c r="E363" t="s">
+      <c r="E364" t="s">
         <v>17</v>
       </c>
-      <c r="F363" t="s">
+      <c r="F364" t="s">
         <v>488</v>
       </c>
-      <c r="G363" t="s">
+      <c r="G364" t="s">
         <v>19</v>
       </c>
-      <c r="K363" s="21" t="s">
+      <c r="K364" s="20" t="s">
         <v>821</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D364" s="7">
-        <v>2</v>
-      </c>
-      <c r="E364" t="s">
-        <v>354</v>
-      </c>
-      <c r="F364" t="s">
-        <v>489</v>
-      </c>
-      <c r="G364" t="s">
-        <v>22</v>
-      </c>
-      <c r="H364" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D365" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E365" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F365" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G365" t="s">
         <v>22</v>
       </c>
       <c r="H365" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D366" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E366" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F366" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G366" t="s">
         <v>22</v>
@@ -11238,124 +11236,127 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D367" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E367" t="s">
-        <v>547</v>
+        <v>51</v>
       </c>
       <c r="F367" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G367" t="s">
-        <v>19</v>
-      </c>
-      <c r="I367" t="s">
-        <v>67</v>
-      </c>
-      <c r="J367" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="H367" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D368" s="7">
+        <v>5</v>
+      </c>
+      <c r="E368" t="s">
+        <v>547</v>
+      </c>
+      <c r="F368" t="s">
+        <v>492</v>
+      </c>
+      <c r="G368" t="s">
+        <v>19</v>
+      </c>
+      <c r="I368" t="s">
+        <v>67</v>
+      </c>
+      <c r="J368" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D369" s="7">
         <v>6</v>
       </c>
-      <c r="E368" t="s">
+      <c r="E369" t="s">
         <v>25</v>
       </c>
-      <c r="F368" t="s">
+      <c r="F369" t="s">
         <v>493</v>
       </c>
-      <c r="G368" t="s">
+      <c r="G369" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A370" s="2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
         <v>72</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B371" t="s">
         <v>533</v>
       </c>
-      <c r="C370" s="24" t="s">
+      <c r="C371" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="D370" s="7">
+      <c r="D371" s="7">
         <v>1</v>
       </c>
-      <c r="E370" t="s">
+      <c r="E371" t="s">
         <v>17</v>
       </c>
-      <c r="F370" t="s">
+      <c r="F371" t="s">
         <v>539</v>
-      </c>
-      <c r="G370" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D371" s="7">
-        <v>2</v>
-      </c>
-      <c r="E371" t="s">
-        <v>534</v>
-      </c>
-      <c r="F371" t="s">
-        <v>540</v>
       </c>
       <c r="G371" t="s">
         <v>19</v>
       </c>
-      <c r="I371" t="s">
-        <v>70</v>
-      </c>
-      <c r="J371" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D372" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E372" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F372" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G372" t="s">
         <v>19</v>
       </c>
       <c r="I372" t="s">
-        <v>545</v>
+        <v>70</v>
       </c>
       <c r="J372" t="s">
-        <v>546</v>
+        <v>69</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D373" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E373" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F373" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G373" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I373" t="s">
+        <v>545</v>
+      </c>
+      <c r="J373" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D374" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E374" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F374" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G374" t="s">
         <v>27</v>
@@ -11363,87 +11364,84 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D375" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E375" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F375" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G375" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="2">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D376" s="7">
+        <v>6</v>
+      </c>
+      <c r="E376" t="s">
+        <v>538</v>
+      </c>
+      <c r="F376" t="s">
+        <v>544</v>
+      </c>
+      <c r="G376" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
         <v>73</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B378" t="s">
         <v>548</v>
       </c>
-      <c r="C377" s="9" t="s">
+      <c r="C378" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="D377" s="7">
+      <c r="D378" s="7">
         <v>1</v>
       </c>
-      <c r="E377" t="s">
+      <c r="E378" t="s">
         <v>17</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F378" t="s">
         <v>551</v>
       </c>
-      <c r="G377" t="s">
+      <c r="G378" t="s">
         <v>19</v>
       </c>
-      <c r="K377" s="9" t="s">
+      <c r="K378" s="9" t="s">
         <v>800</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D378" s="7">
-        <v>2</v>
-      </c>
-      <c r="E378" t="s">
-        <v>354</v>
-      </c>
-      <c r="F378" t="s">
-        <v>552</v>
-      </c>
-      <c r="G378" t="s">
-        <v>22</v>
-      </c>
-      <c r="H378" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D379" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E379" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F379" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G379" t="s">
         <v>22</v>
       </c>
       <c r="H379" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D380" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E380" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F380" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G380" t="s">
         <v>22</v>
@@ -11454,178 +11452,178 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D381" s="7">
+        <v>4</v>
+      </c>
+      <c r="E381" t="s">
+        <v>51</v>
+      </c>
+      <c r="F381" t="s">
+        <v>554</v>
+      </c>
+      <c r="G381" t="s">
+        <v>22</v>
+      </c>
+      <c r="H381" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D382" s="7">
         <v>5</v>
       </c>
-      <c r="E381" t="s">
+      <c r="E382" t="s">
         <v>25</v>
       </c>
-      <c r="F381" t="s">
+      <c r="F382" t="s">
         <v>555</v>
       </c>
-      <c r="G381" t="s">
+      <c r="G382" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="2">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
         <v>74</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B384" t="s">
         <v>558</v>
       </c>
-      <c r="C383" s="19" t="s">
+      <c r="C384" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="D383" s="7">
+      <c r="D384" s="7">
         <v>1</v>
       </c>
-      <c r="E383" t="s">
+      <c r="E384" t="s">
         <v>17</v>
       </c>
-      <c r="F383" t="s">
+      <c r="F384" t="s">
         <v>561</v>
       </c>
-      <c r="G383" t="s">
+      <c r="G384" t="s">
         <v>19</v>
       </c>
-      <c r="K383" s="19" t="s">
+      <c r="K384" s="18" t="s">
         <v>804</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D384" s="7">
-        <v>2</v>
-      </c>
-      <c r="E384" t="s">
-        <v>354</v>
-      </c>
-      <c r="F384" t="s">
-        <v>562</v>
-      </c>
-      <c r="G384" t="s">
-        <v>22</v>
-      </c>
-      <c r="H384" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D385" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E385" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F385" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G385" t="s">
         <v>22</v>
       </c>
       <c r="H385" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D386" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E386" t="s">
-        <v>604</v>
+        <v>23</v>
       </c>
       <c r="F386" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="G386" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H386" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D387" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E387" t="s">
-        <v>25</v>
+        <v>604</v>
       </c>
       <c r="F387" t="s">
-        <v>564</v>
+        <v>605</v>
       </c>
       <c r="G387" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D388" s="7"/>
+      <c r="D388" s="7">
+        <v>5</v>
+      </c>
+      <c r="E388" t="s">
+        <v>25</v>
+      </c>
+      <c r="F388" t="s">
+        <v>564</v>
+      </c>
+      <c r="G388" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
+      <c r="D389" s="7"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
         <v>75</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B390" t="s">
         <v>583</v>
       </c>
-      <c r="C389" s="21" t="s">
+      <c r="C390" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="D389" s="7">
+      <c r="D390" s="7">
         <v>1</v>
       </c>
-      <c r="E389" t="s">
+      <c r="E390" t="s">
         <v>17</v>
       </c>
-      <c r="F389" t="s">
+      <c r="F390" t="s">
         <v>590</v>
       </c>
-      <c r="G389" t="s">
+      <c r="G390" t="s">
         <v>19</v>
       </c>
-      <c r="K389" s="21" t="s">
+      <c r="K390" s="20" t="s">
         <v>819</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D390" s="7">
-        <v>2</v>
-      </c>
-      <c r="E390" t="s">
-        <v>354</v>
-      </c>
-      <c r="F390" t="s">
-        <v>591</v>
-      </c>
-      <c r="G390" t="s">
-        <v>22</v>
-      </c>
-      <c r="H390" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D391" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E391" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F391" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G391" t="s">
         <v>22</v>
       </c>
       <c r="H391" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D392" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E392" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F392" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G392" t="s">
         <v>22</v>
@@ -11636,255 +11634,255 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D393" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E393" t="s">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="F393" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G393" t="s">
-        <v>19</v>
-      </c>
-      <c r="I393" t="s">
-        <v>581</v>
-      </c>
-      <c r="J393" t="s">
-        <v>580</v>
+        <v>22</v>
+      </c>
+      <c r="H393" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D394" s="7">
+        <v>5</v>
+      </c>
+      <c r="E394" t="s">
+        <v>595</v>
+      </c>
+      <c r="F394" t="s">
+        <v>596</v>
+      </c>
+      <c r="G394" t="s">
+        <v>19</v>
+      </c>
+      <c r="I394" t="s">
+        <v>581</v>
+      </c>
+      <c r="J394" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D395" s="7">
         <v>6</v>
       </c>
-      <c r="E394" t="s">
+      <c r="E395" t="s">
         <v>25</v>
       </c>
-      <c r="F394" t="s">
+      <c r="F395" t="s">
         <v>594</v>
       </c>
-      <c r="G394" t="s">
+      <c r="G395" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
         <v>76</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B397" t="s">
         <v>597</v>
       </c>
-      <c r="C396" s="8" t="s">
+      <c r="C397" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="D396" s="7">
+      <c r="D397" s="7">
         <v>1</v>
       </c>
-      <c r="E396" t="s">
+      <c r="E397" t="s">
         <v>17</v>
       </c>
-      <c r="F396" t="s">
+      <c r="F397" t="s">
         <v>600</v>
       </c>
-      <c r="G396" t="s">
+      <c r="G397" t="s">
         <v>19</v>
       </c>
-      <c r="K396" s="8" t="s">
+      <c r="K397" s="8" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D397" s="7">
-        <v>2</v>
-      </c>
-      <c r="E397" t="s">
-        <v>354</v>
-      </c>
-      <c r="F397" t="s">
-        <v>601</v>
-      </c>
-      <c r="G397" t="s">
-        <v>22</v>
-      </c>
-      <c r="H397" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D398" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E398" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F398" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G398" t="s">
         <v>22</v>
       </c>
       <c r="H398" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D399" s="7">
+        <v>3</v>
+      </c>
+      <c r="E399" t="s">
+        <v>23</v>
+      </c>
+      <c r="F399" t="s">
+        <v>602</v>
+      </c>
+      <c r="G399" t="s">
+        <v>22</v>
+      </c>
+      <c r="H399" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D400" s="7">
         <v>4</v>
       </c>
-      <c r="E399" t="s">
+      <c r="E400" t="s">
         <v>25</v>
       </c>
-      <c r="F399" t="s">
+      <c r="F400" t="s">
         <v>603</v>
       </c>
-      <c r="G399" t="s">
+      <c r="G400" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="2">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" s="2">
         <v>77</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B402" t="s">
         <v>606</v>
       </c>
-      <c r="C401" s="8" t="s">
+      <c r="C402" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="D401" s="7">
+      <c r="D402" s="7">
         <v>1</v>
       </c>
-      <c r="E401" t="s">
+      <c r="E402" t="s">
         <v>17</v>
       </c>
-      <c r="F401" t="s">
+      <c r="F402" t="s">
         <v>612</v>
       </c>
-      <c r="G401" t="s">
+      <c r="G402" t="s">
         <v>19</v>
       </c>
-      <c r="K401" s="8" t="s">
+      <c r="K402" s="8" t="s">
         <v>774</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D402" s="7">
-        <v>2</v>
-      </c>
-      <c r="E402" t="s">
-        <v>354</v>
-      </c>
-      <c r="F402" t="s">
-        <v>613</v>
-      </c>
-      <c r="G402" t="s">
-        <v>22</v>
-      </c>
-      <c r="H402" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D403" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E403" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F403" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G403" t="s">
         <v>22</v>
       </c>
       <c r="H403" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D404" s="7">
+        <v>3</v>
+      </c>
+      <c r="E404" t="s">
+        <v>23</v>
+      </c>
+      <c r="F404" t="s">
+        <v>614</v>
+      </c>
+      <c r="G404" t="s">
+        <v>22</v>
+      </c>
+      <c r="H404" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D405" s="7">
         <v>4</v>
       </c>
-      <c r="E404" t="s">
+      <c r="E405" t="s">
         <v>25</v>
       </c>
-      <c r="F404" t="s">
+      <c r="F405" t="s">
         <v>615</v>
       </c>
-      <c r="G404" t="s">
+      <c r="G405" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="2">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="2">
         <v>78</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B407" t="s">
         <v>607</v>
       </c>
-      <c r="C406" s="21" t="s">
+      <c r="C407" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="D406" s="7">
+      <c r="D407" s="7">
         <v>1</v>
       </c>
-      <c r="E406" t="s">
+      <c r="E407" t="s">
         <v>17</v>
       </c>
-      <c r="F406" t="s">
+      <c r="F407" t="s">
         <v>616</v>
       </c>
-      <c r="G406" t="s">
+      <c r="G407" t="s">
         <v>19</v>
       </c>
-      <c r="K406" s="21" t="s">
+      <c r="K407" s="20" t="s">
         <v>818</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D407" s="7">
-        <v>2</v>
-      </c>
-      <c r="E407" t="s">
-        <v>354</v>
-      </c>
-      <c r="F407" t="s">
-        <v>617</v>
-      </c>
-      <c r="G407" t="s">
-        <v>22</v>
-      </c>
-      <c r="H407" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D408" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E408" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F408" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G408" t="s">
         <v>22</v>
       </c>
       <c r="H408" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D409" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E409" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F409" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G409" t="s">
         <v>22</v>
@@ -11895,181 +11893,181 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D410" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E410" t="s">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="F410" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G410" t="s">
-        <v>19</v>
-      </c>
-      <c r="I410" t="s">
-        <v>608</v>
-      </c>
-      <c r="J410" t="s">
-        <v>606</v>
+        <v>22</v>
+      </c>
+      <c r="H410" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D411" s="7">
+        <v>5</v>
+      </c>
+      <c r="E411" t="s">
+        <v>595</v>
+      </c>
+      <c r="F411" t="s">
+        <v>621</v>
+      </c>
+      <c r="G411" t="s">
+        <v>19</v>
+      </c>
+      <c r="I411" t="s">
+        <v>608</v>
+      </c>
+      <c r="J411" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D412" s="7">
         <v>6</v>
       </c>
-      <c r="E411" t="s">
+      <c r="E412" t="s">
         <v>25</v>
       </c>
-      <c r="F411" t="s">
+      <c r="F412" t="s">
         <v>620</v>
       </c>
-      <c r="G411" t="s">
+      <c r="G412" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="1">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
         <v>79</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B414" t="s">
         <v>629</v>
       </c>
-      <c r="C413" s="10" t="s">
+      <c r="C414" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="D413" s="2">
+      <c r="D414" s="2">
         <v>1</v>
       </c>
-      <c r="E413" t="s">
+      <c r="E414" t="s">
         <v>17</v>
       </c>
-      <c r="F413" t="s">
+      <c r="F414" t="s">
         <v>631</v>
-      </c>
-      <c r="G413" t="s">
-        <v>19</v>
-      </c>
-      <c r="K413" s="10" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="2"/>
-      <c r="D414" s="2">
-        <v>2</v>
-      </c>
-      <c r="E414" t="s">
-        <v>44</v>
-      </c>
-      <c r="F414" t="s">
-        <v>632</v>
       </c>
       <c r="G414" t="s">
         <v>19</v>
+      </c>
+      <c r="K414" s="10" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="D415" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E415" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F415" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G415" t="s">
-        <v>22</v>
-      </c>
-      <c r="H415" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="D416" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E416" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F416" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G416" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H416" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
+      <c r="D417" s="2">
+        <v>4</v>
+      </c>
+      <c r="E417" t="s">
+        <v>25</v>
+      </c>
+      <c r="F417" t="s">
+        <v>634</v>
+      </c>
+      <c r="G417" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="1">
+      <c r="A418" s="2"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
         <v>80</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B419" t="s">
         <v>635</v>
       </c>
-      <c r="C418" s="21" t="s">
+      <c r="C419" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="D418" s="2">
+      <c r="D419" s="2">
         <v>1</v>
       </c>
-      <c r="E418" t="s">
+      <c r="E419" t="s">
         <v>17</v>
       </c>
-      <c r="F418" t="s">
+      <c r="F419" t="s">
         <v>637</v>
-      </c>
-      <c r="G418" t="s">
-        <v>19</v>
-      </c>
-      <c r="K418" s="21" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D419" s="2">
-        <v>2</v>
-      </c>
-      <c r="E419" t="s">
-        <v>44</v>
-      </c>
-      <c r="F419" t="s">
-        <v>638</v>
       </c>
       <c r="G419" t="s">
         <v>19</v>
       </c>
+      <c r="K419" s="20" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D420" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E420" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F420" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G420" t="s">
-        <v>22</v>
-      </c>
-      <c r="H420" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D421" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E421" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F421" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G421" t="s">
         <v>22</v>
@@ -12080,181 +12078,181 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D422" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E422" t="s">
-        <v>645</v>
+        <v>51</v>
       </c>
       <c r="F422" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G422" t="s">
-        <v>19</v>
-      </c>
-      <c r="I422" t="s">
-        <v>630</v>
-      </c>
-      <c r="J422" t="s">
-        <v>629</v>
+        <v>22</v>
+      </c>
+      <c r="H422" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D423" s="2">
+        <v>5</v>
+      </c>
+      <c r="E423" t="s">
+        <v>645</v>
+      </c>
+      <c r="F423" t="s">
+        <v>641</v>
+      </c>
+      <c r="G423" t="s">
+        <v>19</v>
+      </c>
+      <c r="I423" t="s">
+        <v>630</v>
+      </c>
+      <c r="J423" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D424" s="2">
         <v>6</v>
       </c>
-      <c r="E423" t="s">
+      <c r="E424" t="s">
         <v>25</v>
       </c>
-      <c r="F423" t="s">
+      <c r="F424" t="s">
         <v>642</v>
       </c>
-      <c r="G423" t="s">
+      <c r="G424" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="2">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
         <v>81</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B427" t="s">
         <v>655</v>
       </c>
-      <c r="C426" s="8" t="s">
+      <c r="C427" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="D426" s="2">
+      <c r="D427" s="2">
         <v>1</v>
       </c>
-      <c r="E426" t="s">
+      <c r="E427" t="s">
         <v>17</v>
       </c>
-      <c r="F426" t="s">
+      <c r="F427" t="s">
         <v>651</v>
       </c>
-      <c r="G426" t="s">
+      <c r="G427" t="s">
         <v>19</v>
       </c>
-      <c r="K426" s="8" t="s">
+      <c r="K427" s="8" t="s">
         <v>775</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D427" s="2">
-        <v>2</v>
-      </c>
-      <c r="E427" t="s">
-        <v>20</v>
-      </c>
-      <c r="F427" t="s">
-        <v>652</v>
-      </c>
-      <c r="G427" t="s">
-        <v>22</v>
-      </c>
-      <c r="H427" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D428" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E428" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F428" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G428" t="s">
         <v>22</v>
       </c>
       <c r="H428" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D429" s="2">
+        <v>3</v>
+      </c>
+      <c r="E429" t="s">
+        <v>23</v>
+      </c>
+      <c r="F429" t="s">
+        <v>653</v>
+      </c>
+      <c r="G429" t="s">
+        <v>22</v>
+      </c>
+      <c r="H429" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D430" s="2">
         <v>4</v>
       </c>
-      <c r="E429" t="s">
+      <c r="E430" t="s">
         <v>31</v>
       </c>
-      <c r="F429" t="s">
+      <c r="F430" t="s">
         <v>654</v>
       </c>
-      <c r="G429" t="s">
+      <c r="G430" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="1">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
         <v>82</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B432" t="s">
         <v>656</v>
       </c>
-      <c r="C431" s="21" t="s">
+      <c r="C432" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="D431" s="2">
+      <c r="D432" s="2">
         <v>1</v>
       </c>
-      <c r="E431" t="s">
+      <c r="E432" t="s">
         <v>17</v>
       </c>
-      <c r="F431" t="s">
+      <c r="F432" t="s">
         <v>659</v>
       </c>
-      <c r="G431" t="s">
+      <c r="G432" t="s">
         <v>19</v>
       </c>
-      <c r="K431" s="21" t="s">
+      <c r="K432" s="20" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D432" s="2">
-        <v>2</v>
-      </c>
-      <c r="E432" t="s">
-        <v>20</v>
-      </c>
-      <c r="F432" t="s">
-        <v>660</v>
-      </c>
-      <c r="G432" t="s">
-        <v>22</v>
-      </c>
-      <c r="H432" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D433" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E433" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F433" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G433" t="s">
         <v>22</v>
       </c>
       <c r="H433" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D434" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E434" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F434" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G434" t="s">
         <v>22</v>
@@ -12265,183 +12263,200 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D435" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E435" t="s">
-        <v>662</v>
+        <v>51</v>
       </c>
       <c r="F435" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G435" t="s">
-        <v>19</v>
-      </c>
-      <c r="I435" t="s">
-        <v>328</v>
-      </c>
-      <c r="J435" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="H435" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D436" s="2">
+        <v>5</v>
+      </c>
+      <c r="E436" t="s">
+        <v>662</v>
+      </c>
+      <c r="F436" t="s">
+        <v>663</v>
+      </c>
+      <c r="G436" t="s">
+        <v>19</v>
+      </c>
+      <c r="I436" t="s">
+        <v>328</v>
+      </c>
+      <c r="J436" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D437" s="2">
         <v>6</v>
       </c>
-      <c r="E436" t="s">
+      <c r="E437" t="s">
         <v>25</v>
       </c>
-      <c r="F436" t="s">
+      <c r="F437" t="s">
         <v>665</v>
       </c>
-      <c r="G436" t="s">
+      <c r="G437" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="2">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
         <v>83</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B440" t="s">
         <v>667</v>
       </c>
-      <c r="C439" s="8" t="s">
+      <c r="C440" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="D439" s="2">
+      <c r="D440" s="2">
         <v>1</v>
       </c>
-      <c r="E439" t="s">
+      <c r="E440" t="s">
         <v>17</v>
       </c>
-      <c r="F439" t="s">
+      <c r="F440" t="s">
         <v>669</v>
       </c>
-      <c r="G439" t="s">
+      <c r="G440" t="s">
         <v>19</v>
       </c>
-      <c r="K439" s="8" t="s">
+      <c r="K440" s="8" t="s">
         <v>776</v>
-      </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D440" s="2">
-        <v>2</v>
-      </c>
-      <c r="E440" t="s">
-        <v>20</v>
-      </c>
-      <c r="F440" t="s">
-        <v>670</v>
-      </c>
-      <c r="G440" t="s">
-        <v>22</v>
-      </c>
-      <c r="H440" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D441" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E441" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F441" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G441" t="s">
         <v>22</v>
       </c>
       <c r="H441" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D442" s="2">
+        <v>3</v>
+      </c>
+      <c r="E442" t="s">
+        <v>23</v>
+      </c>
+      <c r="F442" t="s">
+        <v>671</v>
+      </c>
+      <c r="G442" t="s">
+        <v>22</v>
+      </c>
+      <c r="H442" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D443" s="2">
         <v>4</v>
       </c>
-      <c r="E442" t="s">
+      <c r="E443" t="s">
         <v>31</v>
       </c>
-      <c r="F442" t="s">
+      <c r="F443" t="s">
         <v>672</v>
       </c>
-      <c r="G442" t="s">
+      <c r="G443" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A444" s="2">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
         <v>84</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B445" t="s">
         <v>673</v>
       </c>
-      <c r="C444" s="8" t="s">
+      <c r="C445" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="D444" s="2">
+      <c r="D445" s="2">
         <v>1</v>
       </c>
-      <c r="E444" t="s">
+      <c r="E445" t="s">
         <v>17</v>
       </c>
-      <c r="F444" t="s">
+      <c r="F445" t="s">
         <v>676</v>
       </c>
-      <c r="G444" t="s">
+      <c r="G445" t="s">
         <v>19</v>
       </c>
-      <c r="K444" s="8" t="s">
+      <c r="K445" s="8" t="s">
         <v>782</v>
-      </c>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D445" s="2">
-        <v>2</v>
-      </c>
-      <c r="E445" t="s">
-        <v>20</v>
-      </c>
-      <c r="F445" t="s">
-        <v>677</v>
-      </c>
-      <c r="G445" t="s">
-        <v>22</v>
-      </c>
-      <c r="H445" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D446" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E446" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F446" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G446" t="s">
         <v>22</v>
       </c>
       <c r="H446" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D447" s="2">
+        <v>3</v>
+      </c>
+      <c r="E447" t="s">
+        <v>23</v>
+      </c>
+      <c r="F447" t="s">
+        <v>678</v>
+      </c>
+      <c r="G447" t="s">
+        <v>22</v>
+      </c>
+      <c r="H447" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D448" s="2">
         <v>4</v>
       </c>
-      <c r="E447" t="s">
+      <c r="E448" t="s">
         <v>31</v>
       </c>
-      <c r="F447" t="s">
+      <c r="F448" t="s">
         <v>679</v>
       </c>
-      <c r="G447" t="s">
+      <c r="G448" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12453,10 +12468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC3A7C8-423C-4447-AAAD-B70897D5CA88}">
-  <dimension ref="A2:I70"/>
+  <dimension ref="A2:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12469,10 +12484,11 @@
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>778</v>
       </c>
@@ -12495,11 +12511,16 @@
         <v>790</v>
       </c>
       <c r="I2" s="11">
-        <f>84-22</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="L2" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -12522,10 +12543,16 @@
         <v>797</v>
       </c>
       <c r="I3" s="11">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -12549,10 +12576,17 @@
       </c>
       <c r="I4" s="11">
         <f>I2-I3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="L4" s="11">
+        <f>L2-L3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -12572,7 +12606,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -12592,7 +12626,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -12612,7 +12646,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -12632,7 +12666,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -12652,7 +12686,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -12672,7 +12706,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -12692,7 +12726,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -12712,7 +12746,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -12732,7 +12766,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -12752,7 +12786,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -12772,7 +12806,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -12817,8 +12851,8 @@
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -12881,7 +12915,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="11">
         <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -12890,7 +12924,7 @@
       <c r="C22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>785</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -13141,12 +13175,12 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
@@ -13164,7 +13198,7 @@
       <c r="E36" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="25" t="s">
         <v>829</v>
       </c>
     </row>
@@ -13229,11 +13263,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="11" t="s">
         <v>825</v>
       </c>
@@ -13397,7 +13431,7 @@
       <c r="F48" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="G48" s="28" t="s">
+      <c r="G48" s="27" t="s">
         <v>830</v>
       </c>
     </row>
@@ -13420,7 +13454,7 @@
       <c r="F49" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="27" t="s">
         <v>830</v>
       </c>
     </row>
@@ -13584,35 +13618,35 @@
         <v>829</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="30">
+    <row r="58" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
         <v>53</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30" t="s">
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="11" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>61</v>
@@ -13632,7 +13666,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>199</v>
@@ -13652,7 +13686,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>82</v>
@@ -13660,13 +13694,19 @@
       <c r="C62" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+      <c r="D62" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>97</v>
@@ -13686,7 +13726,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>114</v>
@@ -13706,7 +13746,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>108</v>
@@ -13714,13 +13754,19 @@
       <c r="C65" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="11"/>
+      <c r="D65" s="24" t="s">
+        <v>843</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>374</v>
@@ -13740,7 +13786,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>102</v>
@@ -13758,25 +13804,25 @@
         <v>829</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="30">
-        <v>61</v>
-      </c>
-      <c r="B68" s="31" t="s">
+    <row r="68" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>62</v>
+      </c>
+      <c r="B68" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30" t="s">
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>143</v>
@@ -13790,7 +13836,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>

--- a/db_structure/00B. Masters.xlsx
+++ b/db_structure/00B. Masters.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BAF19B5E-7297-4B66-A6F4-A17A5040057B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0646898E-2486-4DC0-ADEE-8BFB918D0A46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="849">
   <si>
     <t>Table Description</t>
   </si>
@@ -2549,6 +2549,21 @@
   </si>
   <si>
     <t>a72</t>
+  </si>
+  <si>
+    <t>a48</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>dONE</t>
+  </si>
+  <si>
+    <t>itmt_a_flg</t>
+  </si>
+  <si>
+    <t>a28</t>
   </si>
 </sst>
 </file>
@@ -2712,7 +2727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2753,6 +2768,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5187,10 +5203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K448"/>
+  <dimension ref="A1:K449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I301" sqref="I301"/>
+    <sheetView topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H340" sqref="H340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6139,6 +6155,9 @@
       <c r="G58" t="s">
         <v>19</v>
       </c>
+      <c r="K58" s="28" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
@@ -6423,78 +6442,74 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D75" s="2">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" t="s">
+        <v>847</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>34</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>189</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D77" s="2">
         <v>1</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>176</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>177</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G77" t="s">
         <v>19</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="K77" s="9" t="s">
         <v>787</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="D77" s="2">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" t="s">
-        <v>178</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="D78" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G78" t="s">
         <v>22</v>
       </c>
       <c r="H78" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="D79" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G79" t="s">
         <v>22</v>
@@ -6506,93 +6521,93 @@
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="D80" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G80" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H80" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
+      <c r="D81" s="2">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>181</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>35</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C83" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D83" s="2">
         <v>1</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>17</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>182</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="20" t="s">
+      <c r="K83" s="20" t="s">
         <v>809</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="D83" s="2">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" t="s">
-        <v>183</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="D84" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G84" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="D85" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G85" t="s">
         <v>22</v>
@@ -6604,111 +6619,112 @@
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="D86" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="F86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" t="s">
-        <v>94</v>
-      </c>
-      <c r="J86" t="s">
-        <v>189</v>
+        <v>22</v>
+      </c>
+      <c r="H86" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="D87" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="F87" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G87" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I87" t="s">
+        <v>94</v>
+      </c>
+      <c r="J87" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
+      <c r="D88" s="2">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>188</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>36</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C90" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D90" s="2">
         <v>1</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>17</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>190</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G90" t="s">
         <v>19</v>
       </c>
-      <c r="K89" s="20" t="s">
+      <c r="K90" s="20" t="s">
         <v>807</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D90" s="2">
-        <v>2</v>
-      </c>
-      <c r="E90" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" t="s">
-        <v>191</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D91" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G91" t="s">
         <v>22</v>
       </c>
       <c r="H91" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D92" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G92" t="s">
         <v>22</v>
@@ -6719,110 +6735,109 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D93" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
-      </c>
-      <c r="I93" t="s">
-        <v>88</v>
-      </c>
-      <c r="J93" t="s">
-        <v>87</v>
+        <v>22</v>
+      </c>
+      <c r="H93" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D94" s="2">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>194</v>
+      </c>
+      <c r="F94" t="s">
+        <v>195</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s">
+        <v>88</v>
+      </c>
+      <c r="J94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D95" s="2">
         <v>6</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>25</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>196</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
         <v>37</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>199</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C97" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D97" s="2">
         <v>1</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>17</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>210</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G97" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="23" t="s">
+      <c r="K97" s="23" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="D97" s="2">
-        <v>2</v>
-      </c>
-      <c r="E97" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" t="s">
-        <v>211</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="D98" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G98" t="s">
         <v>22</v>
       </c>
       <c r="H98" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="D99" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G99" t="s">
         <v>22</v>
@@ -6831,76 +6846,76 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="D100" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="F100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H100" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="D101" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G101" t="s">
         <v>19</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J101" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="D102" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G102" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="D103" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G103" t="s">
         <v>22</v>
@@ -6909,16 +6924,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="D104" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G104" t="s">
         <v>22</v>
@@ -6927,115 +6942,115 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="D105" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
-      </c>
-      <c r="I105" t="s">
-        <v>91</v>
-      </c>
-      <c r="J105" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H105" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="D106" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>557</v>
+        <v>219</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
       </c>
       <c r="I106" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J106" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="D107" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F107" t="s">
-        <v>220</v>
+        <v>557</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
       </c>
       <c r="I107" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J107" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="D108" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F108" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G108" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I108" t="s">
+        <v>94</v>
+      </c>
+      <c r="J108" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="D109" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G109" t="s">
         <v>22</v>
       </c>
       <c r="H109" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="D110" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G110" t="s">
         <v>22</v>
@@ -7044,16 +7059,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="D111" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G111" t="s">
         <v>22</v>
@@ -7062,16 +7077,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="D112" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>622</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>623</v>
+        <v>224</v>
       </c>
       <c r="G112" t="s">
         <v>22</v>
@@ -7083,175 +7098,175 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="D113" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>622</v>
       </c>
       <c r="F113" t="s">
-        <v>839</v>
+        <v>623</v>
       </c>
       <c r="G113" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H113" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2">
+        <v>18</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" t="s">
+        <v>839</v>
+      </c>
+      <c r="G114" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="A115" s="2"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>38</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>72</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C116" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D116" s="2">
         <v>1</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E116" t="s">
         <v>17</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F116" t="s">
         <v>234</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G116" t="s">
         <v>19</v>
       </c>
-      <c r="K115" s="8" t="s">
+      <c r="K116" s="8" t="s">
         <v>767</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="D116" s="2">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" t="s">
-        <v>235</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
-      <c r="H116" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="D117" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G117" t="s">
         <v>22</v>
       </c>
       <c r="H117" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="D118" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G118" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H118" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" t="s">
+        <v>237</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+      <c r="A120" s="2"/>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>39</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>646</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C121" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D121" s="2">
         <v>1</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E121" t="s">
         <v>17</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>238</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G121" t="s">
         <v>19</v>
       </c>
-      <c r="K120" s="9" t="s">
+      <c r="K121" s="9" t="s">
         <v>788</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="D121" s="2">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s">
-        <v>20</v>
-      </c>
-      <c r="F121" t="s">
-        <v>239</v>
-      </c>
-      <c r="G121" t="s">
-        <v>22</v>
-      </c>
-      <c r="H121" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="D122" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G122" t="s">
         <v>22</v>
       </c>
       <c r="H122" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="D123" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G123" t="s">
         <v>22</v>
@@ -7263,90 +7278,91 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="D124" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G124" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H124" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
+      <c r="D125" s="2">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" t="s">
+        <v>242</v>
+      </c>
+      <c r="G125" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>40</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>76</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C127" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D127" s="2">
         <v>1</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E127" t="s">
         <v>17</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F127" t="s">
         <v>243</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G127" t="s">
         <v>19</v>
       </c>
-      <c r="K126" s="20" t="s">
+      <c r="K127" s="20" t="s">
         <v>808</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D127" s="2">
-        <v>2</v>
-      </c>
-      <c r="E127" t="s">
-        <v>20</v>
-      </c>
-      <c r="F127" t="s">
-        <v>245</v>
-      </c>
-      <c r="G127" t="s">
-        <v>22</v>
-      </c>
-      <c r="H127" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D128" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G128" t="s">
         <v>22</v>
       </c>
       <c r="H128" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D129" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G129" t="s">
         <v>22</v>
@@ -7357,113 +7373,112 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D130" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G130" t="s">
-        <v>19</v>
-      </c>
-      <c r="I130" t="s">
-        <v>74</v>
-      </c>
-      <c r="J130" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="H130" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D131" s="2">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>244</v>
+      </c>
+      <c r="F131" t="s">
+        <v>248</v>
+      </c>
+      <c r="G131" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s">
+        <v>74</v>
+      </c>
+      <c r="J131" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D132" s="2">
         <v>6</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E132" t="s">
         <v>25</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F132" t="s">
         <v>249</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G132" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-    </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>41</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>79</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C134" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D134" s="2">
         <v>1</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E134" t="s">
         <v>17</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F134" t="s">
         <v>250</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G134" t="s">
         <v>19</v>
       </c>
-      <c r="K133" s="9" t="s">
+      <c r="K134" s="9" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="D134" s="2">
-        <v>2</v>
-      </c>
-      <c r="E134" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" t="s">
-        <v>251</v>
-      </c>
-      <c r="G134" t="s">
-        <v>22</v>
-      </c>
-      <c r="H134" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="D135" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G135" t="s">
         <v>22</v>
       </c>
       <c r="H135" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="D136" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G136" t="s">
         <v>22</v>
@@ -7475,170 +7490,170 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="D137" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F137" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G137" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H137" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
+      <c r="D138" s="2">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" t="s">
+        <v>254</v>
+      </c>
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>42</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>255</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C140" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D140" s="2">
         <v>1</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E140" t="s">
         <v>17</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F140" t="s">
         <v>257</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G140" t="s">
         <v>19</v>
       </c>
-      <c r="K139" s="8" t="s">
+      <c r="K140" s="8" t="s">
         <v>768</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="D140" s="2">
-        <v>2</v>
-      </c>
-      <c r="E140" t="s">
-        <v>20</v>
-      </c>
-      <c r="F140" t="s">
-        <v>258</v>
-      </c>
-      <c r="G140" t="s">
-        <v>22</v>
-      </c>
-      <c r="H140" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="D141" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G141" t="s">
         <v>22</v>
       </c>
       <c r="H141" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="D142" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G142" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H142" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
+      <c r="D143" s="2">
+        <v>4</v>
+      </c>
+      <c r="E143" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143" t="s">
+        <v>260</v>
+      </c>
+      <c r="G143" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>43</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>82</v>
       </c>
-      <c r="C144" s="23" t="s">
+      <c r="C145" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D145" s="2">
         <v>1</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E145" t="s">
         <v>17</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F145" t="s">
         <v>263</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G145" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="D145" s="2">
-        <v>2</v>
-      </c>
-      <c r="E145" t="s">
-        <v>20</v>
-      </c>
-      <c r="F145" t="s">
-        <v>273</v>
-      </c>
-      <c r="G145" t="s">
-        <v>22</v>
-      </c>
-      <c r="H145" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="D146" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G146" t="s">
         <v>22</v>
       </c>
       <c r="H146" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="D147" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="F147" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G147" t="s">
         <v>22</v>
@@ -7650,193 +7665,193 @@
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="D148" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E148" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G148" t="s">
-        <v>150</v>
+        <v>22</v>
+      </c>
+      <c r="H148" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="D149" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="F149" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G149" t="s">
-        <v>19</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="D150" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E150" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="F150" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G150" t="s">
         <v>19</v>
       </c>
-      <c r="I150" t="s">
-        <v>197</v>
-      </c>
-      <c r="J150" t="s">
-        <v>62</v>
+      <c r="I150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="D151" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F151" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G151" t="s">
         <v>19</v>
       </c>
       <c r="I151" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="J151" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="D152" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E152" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="F152" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G152" t="s">
         <v>19</v>
       </c>
       <c r="I152" t="s">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="J152" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="D153" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="F153" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G153" t="s">
         <v>19</v>
       </c>
       <c r="I153" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J153" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="D154" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F154" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G154" t="s">
         <v>19</v>
       </c>
       <c r="I154" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J154" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="D155" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F155" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G155" t="s">
         <v>19</v>
       </c>
       <c r="I155" t="s">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="J155" t="s">
-        <v>255</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="D156" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="F156" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G156" t="s">
-        <v>22</v>
-      </c>
-      <c r="H156" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="I156" t="s">
+        <v>231</v>
+      </c>
+      <c r="J156" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="D157" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E157" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F157" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G157" t="s">
         <v>22</v>
@@ -7848,13 +7863,13 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="D158" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F158" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G158" t="s">
         <v>22</v>
@@ -7866,112 +7881,112 @@
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="D159" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E159" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F159" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G159" t="s">
-        <v>19</v>
-      </c>
-      <c r="I159" t="s">
-        <v>91</v>
-      </c>
-      <c r="J159" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="H159" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="D160" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E160" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F160" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G160" t="s">
         <v>19</v>
       </c>
       <c r="I160" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J160" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="D161" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E161" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F161" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G161" t="s">
         <v>19</v>
       </c>
       <c r="I161" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J161" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="D162" s="2">
+        <v>18</v>
+      </c>
+      <c r="E162" t="s">
+        <v>187</v>
+      </c>
+      <c r="F162" t="s">
+        <v>289</v>
+      </c>
+      <c r="G162" t="s">
         <v>19</v>
       </c>
-      <c r="E162" t="s">
-        <v>271</v>
-      </c>
-      <c r="F162" t="s">
-        <v>290</v>
-      </c>
-      <c r="G162" t="s">
-        <v>22</v>
-      </c>
-      <c r="H162" s="2">
-        <v>50</v>
+      <c r="I162" t="s">
+        <v>94</v>
+      </c>
+      <c r="J162" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="D163" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E163" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="F163" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G163" t="s">
         <v>22</v>
       </c>
       <c r="H163" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="D164" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G164" t="s">
         <v>22</v>
@@ -7983,13 +7998,13 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="D165" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F165" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G165" t="s">
         <v>22</v>
@@ -8001,13 +8016,13 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="D166" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E166" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F166" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G166" t="s">
         <v>22</v>
@@ -8019,169 +8034,170 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="D167" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E167" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="F167" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G167" t="s">
-        <v>150</v>
+        <v>22</v>
+      </c>
+      <c r="H167" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
-      <c r="D168" s="2"/>
+      <c r="D168" s="2">
+        <v>24</v>
+      </c>
+      <c r="E168" t="s">
+        <v>272</v>
+      </c>
+      <c r="F168" t="s">
+        <v>295</v>
+      </c>
+      <c r="G168" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+      <c r="A170" s="2"/>
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>44</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>296</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C171" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D171" s="2">
         <v>1</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E171" t="s">
         <v>17</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F171" t="s">
         <v>306</v>
-      </c>
-      <c r="G170" t="s">
-        <v>19</v>
-      </c>
-      <c r="K170" s="10" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="D171" s="2">
-        <v>2</v>
-      </c>
-      <c r="E171" t="s">
-        <v>44</v>
-      </c>
-      <c r="F171" t="s">
-        <v>307</v>
       </c>
       <c r="G171" t="s">
         <v>19</v>
+      </c>
+      <c r="K171" s="10" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="D172" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G172" t="s">
-        <v>22</v>
-      </c>
-      <c r="H172" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="D173" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F173" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G173" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H173" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
+      <c r="D174" s="2">
+        <v>4</v>
+      </c>
+      <c r="E174" t="s">
+        <v>25</v>
+      </c>
+      <c r="F174" t="s">
+        <v>309</v>
+      </c>
+      <c r="G174" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>45</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>115</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="C176" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D176" s="2">
         <v>1</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E176" t="s">
         <v>17</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F176" t="s">
         <v>310</v>
-      </c>
-      <c r="G175" t="s">
-        <v>19</v>
-      </c>
-      <c r="K175" s="20" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D176" s="2">
-        <v>2</v>
-      </c>
-      <c r="E176" t="s">
-        <v>44</v>
-      </c>
-      <c r="F176" t="s">
-        <v>311</v>
       </c>
       <c r="G176" t="s">
         <v>19</v>
       </c>
+      <c r="K176" s="20" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D177" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F177" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G177" t="s">
-        <v>22</v>
-      </c>
-      <c r="H177" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D178" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F178" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G178" t="s">
         <v>22</v>
@@ -8192,184 +8208,184 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D179" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>314</v>
+        <v>51</v>
       </c>
       <c r="F179" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G179" t="s">
-        <v>19</v>
-      </c>
-      <c r="I179" t="s">
-        <v>298</v>
-      </c>
-      <c r="J179" t="s">
-        <v>296</v>
+        <v>22</v>
+      </c>
+      <c r="H179" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D180" s="2">
+        <v>5</v>
+      </c>
+      <c r="E180" t="s">
+        <v>314</v>
+      </c>
+      <c r="F180" t="s">
+        <v>315</v>
+      </c>
+      <c r="G180" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" t="s">
+        <v>298</v>
+      </c>
+      <c r="J180" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D181" s="2">
         <v>6</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E181" t="s">
         <v>25</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F181" t="s">
         <v>316</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G181" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-    </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>46</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>297</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C183" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D183" s="2">
         <v>1</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E183" t="s">
         <v>17</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F183" t="s">
         <v>317</v>
-      </c>
-      <c r="G182" t="s">
-        <v>19</v>
-      </c>
-      <c r="K182" s="10" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="D183" s="2">
-        <v>2</v>
-      </c>
-      <c r="E183" t="s">
-        <v>44</v>
-      </c>
-      <c r="F183" t="s">
-        <v>318</v>
       </c>
       <c r="G183" t="s">
         <v>19</v>
+      </c>
+      <c r="K183" s="10" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="D184" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E184" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F184" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G184" t="s">
-        <v>22</v>
-      </c>
-      <c r="H184" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="D185" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F185" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G185" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H185" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
+      <c r="D186" s="2">
+        <v>4</v>
+      </c>
+      <c r="E186" t="s">
+        <v>25</v>
+      </c>
+      <c r="F186" t="s">
+        <v>320</v>
+      </c>
+      <c r="G186" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>47</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>116</v>
       </c>
-      <c r="C187" s="20" t="s">
+      <c r="C188" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D188" s="2">
         <v>1</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E188" t="s">
         <v>17</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F188" t="s">
         <v>321</v>
-      </c>
-      <c r="G187" t="s">
-        <v>19</v>
-      </c>
-      <c r="K187" s="20" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D188" s="2">
-        <v>2</v>
-      </c>
-      <c r="E188" t="s">
-        <v>44</v>
-      </c>
-      <c r="F188" t="s">
-        <v>322</v>
       </c>
       <c r="G188" t="s">
         <v>19</v>
       </c>
+      <c r="K188" s="20" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D189" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F189" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G189" t="s">
-        <v>22</v>
-      </c>
-      <c r="H189" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D190" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F190" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G190" t="s">
         <v>22</v>
@@ -8380,113 +8396,112 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D191" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E191" t="s">
-        <v>327</v>
+        <v>51</v>
       </c>
       <c r="F191" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G191" t="s">
-        <v>19</v>
-      </c>
-      <c r="I191" t="s">
-        <v>299</v>
-      </c>
-      <c r="J191" t="s">
-        <v>297</v>
+        <v>22</v>
+      </c>
+      <c r="H191" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D192" s="2">
+        <v>5</v>
+      </c>
+      <c r="E192" t="s">
+        <v>327</v>
+      </c>
+      <c r="F192" t="s">
+        <v>325</v>
+      </c>
+      <c r="G192" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192" t="s">
+        <v>299</v>
+      </c>
+      <c r="J192" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D193" s="2">
         <v>6</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E193" t="s">
         <v>25</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F193" t="s">
         <v>326</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G193" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-    </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>48</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>341</v>
       </c>
-      <c r="C194" s="9" t="s">
+      <c r="C195" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D195" s="2">
         <v>1</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E195" t="s">
         <v>17</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F195" t="s">
         <v>340</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G195" t="s">
         <v>19</v>
       </c>
-      <c r="K194" s="9" t="s">
+      <c r="K195" s="9" t="s">
         <v>791</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="D195" s="2">
-        <v>2</v>
-      </c>
-      <c r="E195" t="s">
-        <v>20</v>
-      </c>
-      <c r="F195" t="s">
-        <v>342</v>
-      </c>
-      <c r="G195" t="s">
-        <v>22</v>
-      </c>
-      <c r="H195" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="D196" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F196" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G196" t="s">
         <v>22</v>
       </c>
       <c r="H196" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="D197" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F197" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G197" t="s">
         <v>22</v>
@@ -8498,90 +8513,91 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="D198" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E198" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F198" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G198" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H198" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
+      <c r="D199" s="2">
+        <v>5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>25</v>
+      </c>
+      <c r="F199" t="s">
+        <v>345</v>
+      </c>
+      <c r="G199" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+      <c r="A200" s="2"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>49</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>96</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="C201" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D201" s="2">
         <v>1</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E201" t="s">
         <v>17</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F201" t="s">
         <v>346</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G201" t="s">
         <v>19</v>
       </c>
-      <c r="K200" s="20" t="s">
+      <c r="K201" s="20" t="s">
         <v>812</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D201" s="2">
-        <v>2</v>
-      </c>
-      <c r="E201" t="s">
-        <v>20</v>
-      </c>
-      <c r="F201" t="s">
-        <v>347</v>
-      </c>
-      <c r="G201" t="s">
-        <v>22</v>
-      </c>
-      <c r="H201" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D202" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E202" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F202" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G202" t="s">
         <v>22</v>
       </c>
       <c r="H202" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D203" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F203" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G203" t="s">
         <v>22</v>
@@ -8592,113 +8608,112 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D204" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="F204" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G204" t="s">
-        <v>19</v>
-      </c>
-      <c r="I204" t="s">
-        <v>329</v>
-      </c>
-      <c r="J204" t="s">
-        <v>341</v>
+        <v>22</v>
+      </c>
+      <c r="H204" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D205" s="2">
+        <v>5</v>
+      </c>
+      <c r="E205" t="s">
+        <v>350</v>
+      </c>
+      <c r="F205" t="s">
+        <v>351</v>
+      </c>
+      <c r="G205" t="s">
+        <v>19</v>
+      </c>
+      <c r="I205" t="s">
+        <v>329</v>
+      </c>
+      <c r="J205" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D206" s="2">
         <v>6</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E206" t="s">
         <v>25</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F206" t="s">
         <v>352</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G206" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-    </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+      <c r="A207" s="2"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>50</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>97</v>
       </c>
-      <c r="C207" s="23" t="s">
+      <c r="C208" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D208" s="2">
         <v>1</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E208" t="s">
         <v>17</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F208" t="s">
         <v>353</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G208" t="s">
         <v>19</v>
       </c>
-      <c r="K207" s="23" t="s">
+      <c r="K208" s="23" t="s">
         <v>831</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="D208" s="2">
-        <v>2</v>
-      </c>
-      <c r="E208" t="s">
-        <v>354</v>
-      </c>
-      <c r="F208" t="s">
-        <v>355</v>
-      </c>
-      <c r="G208" t="s">
-        <v>22</v>
-      </c>
-      <c r="H208" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="D209" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E209" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F209" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G209" t="s">
         <v>22</v>
       </c>
       <c r="H209" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="D210" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F210" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G210" t="s">
         <v>22</v>
@@ -8710,135 +8725,135 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="D211" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="F211" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G211" t="s">
-        <v>19</v>
-      </c>
-      <c r="I211" t="s">
-        <v>329</v>
-      </c>
-      <c r="J211" t="s">
-        <v>341</v>
+        <v>22</v>
+      </c>
+      <c r="H211" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="D212" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E212" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F212" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G212" t="s">
         <v>19</v>
       </c>
       <c r="I212" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J212" t="s">
-        <v>96</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="D213" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E213" t="s">
-        <v>25</v>
+        <v>358</v>
       </c>
       <c r="F213" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G213" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I213" t="s">
+        <v>330</v>
+      </c>
+      <c r="J213" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
+      <c r="D214" s="2">
+        <v>7</v>
+      </c>
+      <c r="E214" t="s">
+        <v>25</v>
+      </c>
+      <c r="F214" t="s">
+        <v>361</v>
+      </c>
+      <c r="G214" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>51</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B216" t="s">
         <v>98</v>
       </c>
-      <c r="C215" s="20" t="s">
+      <c r="C216" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D216" s="2">
         <v>1</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E216" t="s">
         <v>17</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F216" t="s">
         <v>362</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G216" t="s">
         <v>19</v>
       </c>
-      <c r="K215" s="20" t="s">
+      <c r="K216" s="20" t="s">
         <v>813</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-      <c r="D216" s="2">
-        <v>2</v>
-      </c>
-      <c r="E216" t="s">
-        <v>354</v>
-      </c>
-      <c r="F216" t="s">
-        <v>363</v>
-      </c>
-      <c r="G216" t="s">
-        <v>22</v>
-      </c>
-      <c r="H216" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="D217" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E217" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F217" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G217" t="s">
         <v>22</v>
       </c>
       <c r="H217" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="D218" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F218" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G218" t="s">
         <v>22</v>
@@ -8850,114 +8865,114 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="D219" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>367</v>
+        <v>51</v>
       </c>
       <c r="F219" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G219" t="s">
-        <v>19</v>
-      </c>
-      <c r="I219" t="s">
-        <v>328</v>
-      </c>
-      <c r="J219" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="H219" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="D220" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E220" t="s">
-        <v>25</v>
+        <v>367</v>
       </c>
       <c r="F220" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G220" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I220" t="s">
+        <v>328</v>
+      </c>
+      <c r="J220" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
+      <c r="D221" s="2">
+        <v>6</v>
+      </c>
+      <c r="E221" t="s">
+        <v>25</v>
+      </c>
+      <c r="F221" t="s">
+        <v>366</v>
+      </c>
+      <c r="G221" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+      <c r="A222" s="2"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>52</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>99</v>
       </c>
-      <c r="C222" s="9" t="s">
+      <c r="C223" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D223" s="2">
         <v>1</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E223" t="s">
         <v>17</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F223" t="s">
         <v>369</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G223" t="s">
         <v>19</v>
       </c>
-      <c r="K222" s="9" t="s">
+      <c r="K223" s="9" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="D223" s="2">
-        <v>2</v>
-      </c>
-      <c r="E223" t="s">
-        <v>354</v>
-      </c>
-      <c r="F223" t="s">
-        <v>370</v>
-      </c>
-      <c r="G223" t="s">
-        <v>22</v>
-      </c>
-      <c r="H223" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="D224" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E224" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F224" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G224" t="s">
         <v>22</v>
       </c>
       <c r="H224" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="D225" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F225" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G225" t="s">
         <v>22</v>
@@ -8969,93 +8984,93 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="D226" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E226" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F226" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G226" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H226" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
+      <c r="D227" s="2">
+        <v>5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>25</v>
+      </c>
+      <c r="F227" t="s">
+        <v>373</v>
+      </c>
+      <c r="G227" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>53</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>100</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C229" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D229" s="2">
         <v>1</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E229" t="s">
         <v>17</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F229" t="s">
         <v>379</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G229" t="s">
         <v>19</v>
       </c>
-      <c r="K228" s="9" t="s">
+      <c r="K229" s="9" t="s">
         <v>793</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="D229" s="2">
-        <v>2</v>
-      </c>
-      <c r="E229" t="s">
-        <v>354</v>
-      </c>
-      <c r="F229" t="s">
-        <v>380</v>
-      </c>
-      <c r="G229" t="s">
-        <v>22</v>
-      </c>
-      <c r="H229" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="D230" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E230" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F230" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G230" t="s">
         <v>22</v>
       </c>
       <c r="H230" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="D231" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E231" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F231" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G231" t="s">
         <v>22</v>
@@ -9067,93 +9082,93 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="D232" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F232" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G232" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H232" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
+      <c r="D233" s="2">
+        <v>5</v>
+      </c>
+      <c r="E233" t="s">
+        <v>25</v>
+      </c>
+      <c r="F233" t="s">
+        <v>383</v>
+      </c>
+      <c r="G233" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
         <v>54</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>114</v>
       </c>
-      <c r="C234" s="23" t="s">
+      <c r="C235" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D235" s="2">
         <v>1</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E235" t="s">
         <v>17</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F235" t="s">
         <v>385</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G235" t="s">
         <v>19</v>
       </c>
-      <c r="K234" s="28" t="s">
+      <c r="K235" s="28" t="s">
         <v>838</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="D235" s="2">
-        <v>2</v>
-      </c>
-      <c r="E235" t="s">
-        <v>20</v>
-      </c>
-      <c r="F235" t="s">
-        <v>386</v>
-      </c>
-      <c r="G235" t="s">
-        <v>22</v>
-      </c>
-      <c r="H235" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="D236" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E236" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F236" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G236" t="s">
         <v>22</v>
       </c>
       <c r="H236" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="D237" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F237" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G237" t="s">
         <v>22</v>
@@ -9165,73 +9180,73 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="D238" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E238" t="s">
-        <v>384</v>
+        <v>51</v>
       </c>
       <c r="F238" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G238" t="s">
-        <v>19</v>
-      </c>
-      <c r="I238" t="s">
-        <v>333</v>
-      </c>
-      <c r="J238" t="s">
+        <v>22</v>
+      </c>
+      <c r="H238" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="D239" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>201</v>
+        <v>384</v>
       </c>
       <c r="F239" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G239" t="s">
         <v>19</v>
       </c>
-      <c r="I239" s="1" t="s">
-        <v>10</v>
+      <c r="I239" t="s">
+        <v>333</v>
       </c>
       <c r="J239" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="D240" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E240" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F240" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G240" t="s">
-        <v>22</v>
-      </c>
-      <c r="H240" s="2">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J240" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="D241" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E241" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F241" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G241" t="s">
         <v>22</v>
@@ -9241,14 +9256,15 @@
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
       <c r="D242" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E242" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F242" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G242" t="s">
         <v>22</v>
@@ -9259,107 +9275,107 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D243" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E243" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F243" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G243" t="s">
-        <v>19</v>
-      </c>
-      <c r="I243" t="s">
-        <v>91</v>
-      </c>
-      <c r="J243" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="H243" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D244" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E244" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F244" t="s">
-        <v>578</v>
+        <v>394</v>
       </c>
       <c r="G244" t="s">
         <v>19</v>
       </c>
       <c r="I244" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J244" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D245" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E245" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F245" t="s">
-        <v>395</v>
+        <v>578</v>
       </c>
       <c r="G245" t="s">
         <v>19</v>
       </c>
       <c r="I245" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J245" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D246" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E246" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F246" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G246" t="s">
-        <v>22</v>
-      </c>
-      <c r="H246" s="2">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="I246" t="s">
+        <v>94</v>
+      </c>
+      <c r="J246" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D247" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E247" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F247" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G247" t="s">
         <v>22</v>
       </c>
       <c r="H247" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D248" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E248" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F248" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G248" t="s">
         <v>22</v>
@@ -9370,13 +9386,13 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D249" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E249" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F249" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G249" t="s">
         <v>22</v>
@@ -9387,13 +9403,13 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D250" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E250" t="s">
-        <v>624</v>
+        <v>209</v>
       </c>
       <c r="F250" t="s">
-        <v>625</v>
+        <v>399</v>
       </c>
       <c r="G250" t="s">
         <v>22</v>
@@ -9404,124 +9420,124 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D251" s="2">
+        <v>17</v>
+      </c>
+      <c r="E251" t="s">
+        <v>624</v>
+      </c>
+      <c r="F251" t="s">
+        <v>625</v>
+      </c>
+      <c r="G251" t="s">
+        <v>22</v>
+      </c>
+      <c r="H251" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D252" s="2">
         <v>18</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E252" t="s">
         <v>25</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F252" t="s">
         <v>842</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G252" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>55</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B254" t="s">
         <v>108</v>
       </c>
-      <c r="C253" s="23" t="s">
+      <c r="C254" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D254" s="2">
         <v>1</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E254" t="s">
         <v>17</v>
       </c>
-      <c r="F253" t="s">
+      <c r="F254" t="s">
         <v>400</v>
-      </c>
-      <c r="G253" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D254" s="2">
-        <v>2</v>
-      </c>
-      <c r="E254" t="s">
-        <v>384</v>
-      </c>
-      <c r="F254" t="s">
-        <v>401</v>
       </c>
       <c r="G254" t="s">
         <v>19</v>
       </c>
-      <c r="I254" t="s">
-        <v>333</v>
-      </c>
-      <c r="J254" t="s">
-        <v>100</v>
-      </c>
-      <c r="K254" s="28" t="s">
-        <v>843</v>
-      </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D255" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E255" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="F255" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G255" t="s">
         <v>19</v>
       </c>
       <c r="I255" t="s">
-        <v>626</v>
+        <v>333</v>
       </c>
       <c r="J255" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="K255" s="28" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D256" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E256" t="s">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="F256" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G256" t="s">
         <v>19</v>
       </c>
+      <c r="I256" t="s">
+        <v>626</v>
+      </c>
+      <c r="J256" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D257" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E257" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="F257" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G257" t="s">
-        <v>22</v>
-      </c>
-      <c r="H257" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D258" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E258" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F258" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G258" t="s">
         <v>22</v>
@@ -9532,13 +9548,13 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D259" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E259" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F259" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G259" t="s">
         <v>22</v>
@@ -9549,13 +9565,13 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D260" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E260" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F260" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G260" t="s">
         <v>22</v>
@@ -9566,13 +9582,13 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D261" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E261" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F261" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G261" t="s">
         <v>22</v>
@@ -9583,13 +9599,13 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D262" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E262" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F262" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G262" t="s">
         <v>22</v>
@@ -9600,167 +9616,167 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D263" s="2">
+        <v>10</v>
+      </c>
+      <c r="E263" t="s">
+        <v>230</v>
+      </c>
+      <c r="F263" t="s">
+        <v>410</v>
+      </c>
+      <c r="G263" t="s">
+        <v>22</v>
+      </c>
+      <c r="H263" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D264" s="2">
         <v>11</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E264" t="s">
         <v>25</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F264" t="s">
         <v>411</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G264" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>56</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>374</v>
       </c>
-      <c r="C265" s="23" t="s">
+      <c r="C266" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D266" s="2">
         <v>1</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E266" t="s">
         <v>17</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F266" t="s">
         <v>412</v>
-      </c>
-      <c r="G265" t="s">
-        <v>19</v>
-      </c>
-      <c r="K265" s="23" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D266" s="2">
-        <v>2</v>
-      </c>
-      <c r="E266" t="s">
-        <v>384</v>
-      </c>
-      <c r="F266" t="s">
-        <v>413</v>
       </c>
       <c r="G266" t="s">
         <v>19</v>
       </c>
-      <c r="I266" t="s">
-        <v>333</v>
-      </c>
-      <c r="J266" t="s">
-        <v>100</v>
+      <c r="K266" s="23" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D267" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E267" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="F267" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G267" t="s">
         <v>19</v>
       </c>
       <c r="I267" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J267" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D268" s="2">
+        <v>3</v>
+      </c>
+      <c r="E268" t="s">
+        <v>414</v>
+      </c>
+      <c r="F268" t="s">
+        <v>415</v>
+      </c>
+      <c r="G268" t="s">
+        <v>19</v>
+      </c>
+      <c r="I268" t="s">
+        <v>331</v>
+      </c>
+      <c r="J268" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D269" s="2">
         <v>4</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E269" t="s">
         <v>25</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F269" t="s">
         <v>416</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G269" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
         <v>57</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B271" t="s">
         <v>101</v>
       </c>
-      <c r="C270" s="9" t="s">
+      <c r="C271" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D271" s="2">
         <v>1</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E271" t="s">
         <v>17</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F271" t="s">
         <v>419</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G271" t="s">
         <v>19</v>
       </c>
-      <c r="K270" s="9" t="s">
+      <c r="K271" s="9" t="s">
         <v>794</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D271" s="2">
-        <v>2</v>
-      </c>
-      <c r="E271" t="s">
-        <v>354</v>
-      </c>
-      <c r="F271" t="s">
-        <v>420</v>
-      </c>
-      <c r="G271" t="s">
-        <v>22</v>
-      </c>
-      <c r="H271" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D272" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E272" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F272" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G272" t="s">
         <v>22</v>
       </c>
       <c r="H272" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D273" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F273" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G273" t="s">
         <v>22</v>
@@ -9771,107 +9787,107 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D274" s="2">
+        <v>4</v>
+      </c>
+      <c r="E274" t="s">
+        <v>51</v>
+      </c>
+      <c r="F274" t="s">
+        <v>422</v>
+      </c>
+      <c r="G274" t="s">
+        <v>22</v>
+      </c>
+      <c r="H274" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D275" s="2">
         <v>5</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E275" t="s">
         <v>25</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F275" t="s">
         <v>423</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G275" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>58</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B277" t="s">
         <v>102</v>
       </c>
-      <c r="C276" s="23" t="s">
+      <c r="C277" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D277" s="2">
         <v>1</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E277" t="s">
         <v>17</v>
       </c>
-      <c r="F276" t="s">
+      <c r="F277" t="s">
         <v>427</v>
-      </c>
-      <c r="G276" t="s">
-        <v>19</v>
-      </c>
-      <c r="K276" s="28" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D277" s="2">
-        <v>2</v>
-      </c>
-      <c r="E277" t="s">
-        <v>428</v>
-      </c>
-      <c r="F277" t="s">
-        <v>426</v>
       </c>
       <c r="G277" t="s">
         <v>19</v>
       </c>
-      <c r="I277" t="s">
-        <v>417</v>
-      </c>
-      <c r="J277" t="s">
-        <v>101</v>
+      <c r="K277" s="28" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D278" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E278" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="F278" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G278" t="s">
-        <v>22</v>
-      </c>
-      <c r="H278" s="2">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="I278" t="s">
+        <v>417</v>
+      </c>
+      <c r="J278" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D279" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E279" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F279" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G279" t="s">
         <v>22</v>
       </c>
       <c r="H279" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D280" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E280" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F280" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G280" t="s">
         <v>22</v>
@@ -9882,13 +9898,13 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D281" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E281" t="s">
-        <v>437</v>
+        <v>51</v>
       </c>
       <c r="F281" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G281" t="s">
         <v>22</v>
@@ -9899,13 +9915,13 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D282" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E282" t="s">
-        <v>202</v>
+        <v>437</v>
       </c>
       <c r="F282" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G282" t="s">
         <v>22</v>
@@ -9916,13 +9932,13 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D283" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E283" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F283" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G283" t="s">
         <v>22</v>
@@ -9933,13 +9949,13 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D284" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E284" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F284" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G284" t="s">
         <v>22</v>
@@ -9950,13 +9966,13 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D285" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E285" t="s">
-        <v>496</v>
+        <v>204</v>
       </c>
       <c r="F285" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="G285" t="s">
         <v>22</v>
@@ -9967,13 +9983,13 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D286" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E286" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F286" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G286" t="s">
         <v>22</v>
@@ -9984,13 +10000,13 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D287" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E287" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F287" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G287" t="s">
         <v>22</v>
@@ -10001,164 +10017,164 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D288" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E288" t="s">
-        <v>205</v>
+        <v>498</v>
       </c>
       <c r="F288" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="G288" t="s">
-        <v>19</v>
-      </c>
-      <c r="I288" t="s">
-        <v>91</v>
-      </c>
-      <c r="J288" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="H288" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D289" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E289" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F289" t="s">
-        <v>628</v>
+        <v>439</v>
       </c>
       <c r="G289" t="s">
         <v>19</v>
       </c>
       <c r="I289" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J289" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D290" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E290" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F290" t="s">
-        <v>440</v>
+        <v>628</v>
       </c>
       <c r="G290" t="s">
         <v>19</v>
       </c>
       <c r="I290" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J290" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D291" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E291" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F291" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G291" t="s">
-        <v>22</v>
-      </c>
-      <c r="H291" s="2">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="I291" t="s">
+        <v>94</v>
+      </c>
+      <c r="J291" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D292" s="2">
+        <v>16</v>
+      </c>
+      <c r="E292" t="s">
+        <v>206</v>
+      </c>
+      <c r="F292" t="s">
+        <v>438</v>
+      </c>
+      <c r="G292" t="s">
+        <v>22</v>
+      </c>
+      <c r="H292" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D293" s="2">
         <v>17</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E293" t="s">
         <v>25</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F293" t="s">
         <v>436</v>
       </c>
-      <c r="G292" t="s">
+      <c r="G293" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
         <v>59</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B295" t="s">
         <v>103</v>
       </c>
-      <c r="C294" s="9" t="s">
+      <c r="C295" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D295" s="2">
         <v>1</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E295" t="s">
         <v>17</v>
       </c>
-      <c r="F294" t="s">
+      <c r="F295" t="s">
         <v>443</v>
       </c>
-      <c r="G294" t="s">
+      <c r="G295" t="s">
         <v>19</v>
       </c>
-      <c r="K294" s="9" t="s">
+      <c r="K295" s="9" t="s">
         <v>795</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D295" s="2">
-        <v>2</v>
-      </c>
-      <c r="E295" t="s">
-        <v>354</v>
-      </c>
-      <c r="F295" t="s">
-        <v>444</v>
-      </c>
-      <c r="G295" t="s">
-        <v>22</v>
-      </c>
-      <c r="H295" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D296" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E296" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F296" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G296" t="s">
         <v>22</v>
       </c>
       <c r="H296" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D297" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F297" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G297" t="s">
         <v>22</v>
@@ -10169,161 +10185,164 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D298" s="2">
+        <v>4</v>
+      </c>
+      <c r="E298" t="s">
+        <v>51</v>
+      </c>
+      <c r="F298" t="s">
+        <v>446</v>
+      </c>
+      <c r="G298" t="s">
+        <v>22</v>
+      </c>
+      <c r="H298" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D299" s="2">
         <v>5</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E299" t="s">
         <v>25</v>
       </c>
-      <c r="F298" t="s">
+      <c r="F299" t="s">
         <v>447</v>
       </c>
-      <c r="G298" t="s">
+      <c r="G299" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
         <v>60</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B301" t="s">
         <v>502</v>
       </c>
-      <c r="C300" s="20" t="s">
+      <c r="C301" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D301" s="2">
         <v>1</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E301" t="s">
         <v>17</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F301" t="s">
         <v>505</v>
-      </c>
-      <c r="G300" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D301" s="2">
-        <v>2</v>
-      </c>
-      <c r="E301" t="s">
-        <v>506</v>
-      </c>
-      <c r="F301" t="s">
-        <v>507</v>
       </c>
       <c r="G301" t="s">
         <v>19</v>
       </c>
-      <c r="I301" t="s">
-        <v>441</v>
-      </c>
-      <c r="J301" t="s">
-        <v>103</v>
+      <c r="K301" s="20" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D302" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E302" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F302" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G302" t="s">
-        <v>150</v>
+        <v>19</v>
+      </c>
+      <c r="I302" t="s">
+        <v>441</v>
+      </c>
+      <c r="J302" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D303" s="2">
+        <v>3</v>
+      </c>
+      <c r="E303" t="s">
+        <v>508</v>
+      </c>
+      <c r="F303" t="s">
+        <v>509</v>
+      </c>
+      <c r="G303" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D304" s="2">
         <v>4</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E304" t="s">
         <v>510</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F304" t="s">
         <v>511</v>
       </c>
-      <c r="G303" t="s">
+      <c r="G304" t="s">
         <v>151</v>
       </c>
-      <c r="H303" s="2" t="s">
+      <c r="H304" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
         <v>61</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B306" t="s">
         <v>104</v>
       </c>
-      <c r="C305" s="9" t="s">
+      <c r="C306" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D306" s="2">
         <v>1</v>
       </c>
-      <c r="E305" t="s">
+      <c r="E306" t="s">
         <v>17</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F306" t="s">
         <v>450</v>
       </c>
-      <c r="G305" t="s">
+      <c r="G306" t="s">
         <v>19</v>
       </c>
-      <c r="K305" s="9" t="s">
+      <c r="K306" s="9" t="s">
         <v>796</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D306" s="2">
-        <v>2</v>
-      </c>
-      <c r="E306" t="s">
-        <v>354</v>
-      </c>
-      <c r="F306" t="s">
-        <v>451</v>
-      </c>
-      <c r="G306" t="s">
-        <v>22</v>
-      </c>
-      <c r="H306" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D307" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E307" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F307" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G307" t="s">
         <v>22</v>
       </c>
       <c r="H307" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D308" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E308" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F308" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G308" t="s">
         <v>22</v>
@@ -10334,235 +10353,235 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D309" s="2">
+        <v>4</v>
+      </c>
+      <c r="E309" t="s">
+        <v>51</v>
+      </c>
+      <c r="F309" t="s">
+        <v>453</v>
+      </c>
+      <c r="G309" t="s">
+        <v>22</v>
+      </c>
+      <c r="H309" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D310" s="2">
         <v>5</v>
       </c>
-      <c r="E309" t="s">
+      <c r="E310" t="s">
         <v>25</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F310" t="s">
         <v>454</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G310" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
         <v>62</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B312" t="s">
         <v>580</v>
       </c>
-      <c r="C311" s="8" t="s">
+      <c r="C312" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="D311" s="2">
+      <c r="D312" s="2">
         <v>1</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E312" t="s">
         <v>17</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F312" t="s">
         <v>584</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G312" t="s">
         <v>19</v>
       </c>
-      <c r="K311" s="8" t="s">
+      <c r="K312" s="8" t="s">
         <v>769</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D312" s="2">
-        <v>2</v>
-      </c>
-      <c r="E312" t="s">
-        <v>354</v>
-      </c>
-      <c r="F312" t="s">
-        <v>585</v>
-      </c>
-      <c r="G312" t="s">
-        <v>22</v>
-      </c>
-      <c r="H312" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D313" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E313" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F313" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G313" t="s">
         <v>22</v>
       </c>
       <c r="H313" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D314" s="2">
+        <v>3</v>
+      </c>
+      <c r="E314" t="s">
+        <v>23</v>
+      </c>
+      <c r="F314" t="s">
+        <v>586</v>
+      </c>
+      <c r="G314" t="s">
+        <v>22</v>
+      </c>
+      <c r="H314" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D315" s="2">
         <v>4</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E315" t="s">
         <v>25</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F315" t="s">
         <v>587</v>
       </c>
-      <c r="G314" t="s">
+      <c r="G315" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
         <v>63</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B317" t="s">
         <v>105</v>
       </c>
-      <c r="C316" s="8" t="s">
+      <c r="C317" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D316" s="2">
+      <c r="D317" s="2">
         <v>1</v>
       </c>
-      <c r="E316" t="s">
+      <c r="E317" t="s">
         <v>17</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F317" t="s">
         <v>455</v>
       </c>
-      <c r="G316" t="s">
+      <c r="G317" t="s">
         <v>19</v>
       </c>
-      <c r="K316" s="8" t="s">
+      <c r="K317" s="8" t="s">
         <v>770</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D317" s="2">
-        <v>2</v>
-      </c>
-      <c r="E317" t="s">
-        <v>354</v>
-      </c>
-      <c r="F317" t="s">
-        <v>456</v>
-      </c>
-      <c r="G317" t="s">
-        <v>22</v>
-      </c>
-      <c r="H317" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D318" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E318" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F318" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G318" t="s">
         <v>22</v>
       </c>
       <c r="H318" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D319" s="2">
+        <v>3</v>
+      </c>
+      <c r="E319" t="s">
+        <v>23</v>
+      </c>
+      <c r="F319" t="s">
+        <v>457</v>
+      </c>
+      <c r="G319" t="s">
+        <v>22</v>
+      </c>
+      <c r="H319" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D320" s="2">
         <v>4</v>
       </c>
-      <c r="E319" t="s">
+      <c r="E320" t="s">
         <v>25</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F320" t="s">
         <v>458</v>
       </c>
-      <c r="G319" t="s">
+      <c r="G320" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
         <v>64</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" t="s">
         <v>109</v>
       </c>
-      <c r="C321" s="20" t="s">
+      <c r="C322" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="D321" s="2">
+      <c r="D322" s="2">
         <v>1</v>
       </c>
-      <c r="E321" t="s">
+      <c r="E322" t="s">
         <v>17</v>
       </c>
-      <c r="F321" t="s">
+      <c r="F322" t="s">
         <v>461</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G322" t="s">
         <v>19</v>
       </c>
-      <c r="K321" s="20" t="s">
+      <c r="K322" s="20" t="s">
         <v>815</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D322" s="2">
-        <v>2</v>
-      </c>
-      <c r="E322" t="s">
-        <v>354</v>
-      </c>
-      <c r="F322" t="s">
-        <v>462</v>
-      </c>
-      <c r="G322" t="s">
-        <v>22</v>
-      </c>
-      <c r="H322" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D323" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E323" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F323" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G323" t="s">
         <v>22</v>
       </c>
       <c r="H323" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D324" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E324" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F324" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G324" t="s">
         <v>22</v>
@@ -10573,382 +10592,377 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D325" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E325" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="F325" t="s">
-        <v>556</v>
+        <v>464</v>
       </c>
       <c r="G325" t="s">
-        <v>19</v>
-      </c>
-      <c r="I325" t="s">
-        <v>137</v>
-      </c>
-      <c r="J325" t="s">
-        <v>86</v>
+        <v>22</v>
+      </c>
+      <c r="H325" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D326" s="2">
+        <v>5</v>
+      </c>
+      <c r="E326" t="s">
+        <v>163</v>
+      </c>
+      <c r="F326" t="s">
+        <v>556</v>
+      </c>
+      <c r="G326" t="s">
+        <v>19</v>
+      </c>
+      <c r="I326" t="s">
+        <v>137</v>
+      </c>
+      <c r="J326" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D327" s="2">
         <v>6</v>
       </c>
-      <c r="E326" t="s">
+      <c r="E327" t="s">
         <v>25</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F327" t="s">
         <v>465</v>
       </c>
-      <c r="G326" t="s">
+      <c r="G327" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
         <v>65</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B329" t="s">
         <v>110</v>
       </c>
-      <c r="C328" s="8" t="s">
+      <c r="C329" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="D328" s="2">
+      <c r="D329" s="2">
         <v>1</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E329" t="s">
         <v>17</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F329" t="s">
         <v>467</v>
       </c>
-      <c r="G328" t="s">
+      <c r="G329" t="s">
         <v>19</v>
       </c>
-      <c r="K328" s="8" t="s">
+      <c r="K329" s="8" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D329" s="2">
-        <v>2</v>
-      </c>
-      <c r="E329" t="s">
-        <v>354</v>
-      </c>
-      <c r="F329" t="s">
-        <v>468</v>
-      </c>
-      <c r="G329" t="s">
-        <v>22</v>
-      </c>
-      <c r="H329" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D330" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E330" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F330" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G330" t="s">
         <v>22</v>
       </c>
       <c r="H330" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D331" s="2">
+        <v>3</v>
+      </c>
+      <c r="E331" t="s">
+        <v>23</v>
+      </c>
+      <c r="F331" t="s">
+        <v>469</v>
+      </c>
+      <c r="G331" t="s">
+        <v>22</v>
+      </c>
+      <c r="H331" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D332" s="2">
         <v>4</v>
       </c>
-      <c r="E331" t="s">
+      <c r="E332" t="s">
         <v>25</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F332" t="s">
         <v>470</v>
       </c>
-      <c r="G331" t="s">
+      <c r="G332" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
         <v>66</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>112</v>
       </c>
-      <c r="C333" s="20" t="s">
+      <c r="C334" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="D333" s="2">
+      <c r="D334" s="2">
         <v>1</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E334" t="s">
         <v>17</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F334" t="s">
         <v>514</v>
-      </c>
-      <c r="G333" t="s">
-        <v>19</v>
-      </c>
-      <c r="K333" s="20" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D334" s="2">
-        <v>2</v>
-      </c>
-      <c r="E334" t="s">
-        <v>515</v>
-      </c>
-      <c r="F334" t="s">
-        <v>516</v>
       </c>
       <c r="G334" t="s">
         <v>19</v>
       </c>
-      <c r="I334" t="s">
-        <v>494</v>
-      </c>
-      <c r="J334" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D335" s="7">
-        <v>3</v>
+      <c r="K334" s="20" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D335" s="2">
+        <v>2</v>
       </c>
       <c r="E335" t="s">
-        <v>44</v>
+        <v>515</v>
       </c>
       <c r="F335" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G335" t="s">
         <v>19</v>
       </c>
-      <c r="H335" s="2"/>
+      <c r="I335" t="s">
+        <v>494</v>
+      </c>
+      <c r="J335" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="336" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D336" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E336" t="s">
-        <v>518</v>
+        <v>44</v>
       </c>
       <c r="F336" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G336" t="s">
-        <v>22</v>
-      </c>
-      <c r="H336" s="2">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H336" s="2"/>
     </row>
     <row r="337" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D337" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E337" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F337" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G337" t="s">
         <v>22</v>
       </c>
       <c r="H337" s="2">
-        <v>200</v>
-      </c>
-      <c r="J337" s="6" t="s">
-        <v>579</v>
+        <v>50</v>
       </c>
     </row>
     <row r="338" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D338" s="7">
+        <v>5</v>
+      </c>
+      <c r="E338" t="s">
+        <v>519</v>
+      </c>
+      <c r="F338" t="s">
+        <v>521</v>
+      </c>
+      <c r="G338" t="s">
+        <v>22</v>
+      </c>
+      <c r="H338" s="2">
+        <v>200</v>
+      </c>
+      <c r="J338" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D339" s="7">
         <v>6</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E339" t="s">
         <v>25</v>
       </c>
-      <c r="F338" t="s">
+      <c r="F339" t="s">
         <v>688</v>
       </c>
-      <c r="G338" t="s">
+      <c r="G339" t="s">
         <v>27</v>
       </c>
-      <c r="H338" s="2"/>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="2">
+      <c r="H339" s="2"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
         <v>67</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B341" t="s">
         <v>111</v>
       </c>
-      <c r="C340" s="8" t="s">
+      <c r="C341" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="D340" s="7">
+      <c r="D341" s="7">
         <v>1</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E341" t="s">
         <v>17</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F341" t="s">
         <v>472</v>
       </c>
-      <c r="G340" t="s">
+      <c r="G341" t="s">
         <v>19</v>
       </c>
-      <c r="K340" s="8" t="s">
+      <c r="K341" s="8" t="s">
         <v>772</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D341" s="7">
-        <v>2</v>
-      </c>
-      <c r="E341" t="s">
-        <v>354</v>
-      </c>
-      <c r="F341" t="s">
-        <v>473</v>
-      </c>
-      <c r="G341" t="s">
-        <v>22</v>
-      </c>
-      <c r="H341" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D342" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E342" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F342" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G342" t="s">
         <v>22</v>
       </c>
       <c r="H342" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D343" s="7">
+        <v>3</v>
+      </c>
+      <c r="E343" t="s">
+        <v>23</v>
+      </c>
+      <c r="F343" t="s">
+        <v>474</v>
+      </c>
+      <c r="G343" t="s">
+        <v>22</v>
+      </c>
+      <c r="H343" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D344" s="7">
         <v>4</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E344" t="s">
         <v>25</v>
       </c>
-      <c r="F343" t="s">
+      <c r="F344" t="s">
         <v>475</v>
       </c>
-      <c r="G343" t="s">
+      <c r="G344" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
         <v>68</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B346" t="s">
         <v>113</v>
       </c>
-      <c r="C345" s="20" t="s">
+      <c r="C346" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="D345" s="7">
+      <c r="D346" s="7">
         <v>1</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E346" t="s">
         <v>17</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F346" t="s">
         <v>524</v>
-      </c>
-      <c r="G345" t="s">
-        <v>19</v>
-      </c>
-      <c r="K345" s="20" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D346" s="7">
-        <v>2</v>
-      </c>
-      <c r="E346" t="s">
-        <v>527</v>
-      </c>
-      <c r="F346" t="s">
-        <v>525</v>
       </c>
       <c r="G346" t="s">
         <v>19</v>
       </c>
-      <c r="I346" t="s">
-        <v>495</v>
-      </c>
-      <c r="J346" t="s">
-        <v>111</v>
+      <c r="K346" s="20" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="6"/>
-      <c r="B347" s="6"/>
-      <c r="C347" s="6"/>
       <c r="D347" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E347" t="s">
-        <v>44</v>
+        <v>527</v>
       </c>
       <c r="F347" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G347" t="s">
         <v>19</v>
       </c>
-      <c r="I347" s="6"/>
-      <c r="J347" s="6"/>
+      <c r="I347" t="s">
+        <v>495</v>
+      </c>
+      <c r="J347" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
       <c r="D348" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E348" t="s">
-        <v>528</v>
+        <v>44</v>
       </c>
       <c r="F348" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G348" t="s">
-        <v>22</v>
-      </c>
-      <c r="H348" s="2">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
@@ -10958,89 +10972,94 @@
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
       <c r="D349" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E349" t="s">
-        <v>25</v>
+        <v>528</v>
       </c>
       <c r="F349" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G349" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H349" s="2">
+        <v>500</v>
       </c>
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="6"/>
+      <c r="B350" s="6"/>
+      <c r="C350" s="6"/>
+      <c r="D350" s="7">
+        <v>5</v>
+      </c>
+      <c r="E350" t="s">
+        <v>25</v>
+      </c>
+      <c r="F350" t="s">
+        <v>530</v>
+      </c>
+      <c r="G350" t="s">
+        <v>27</v>
+      </c>
+      <c r="I350" s="6"/>
+      <c r="J350" s="6"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
         <v>69</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B352" t="s">
         <v>63</v>
       </c>
-      <c r="C351" s="9" t="s">
+      <c r="C352" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D351" s="7">
+      <c r="D352" s="7">
         <v>1</v>
       </c>
-      <c r="E351" t="s">
+      <c r="E352" t="s">
         <v>17</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F352" t="s">
         <v>476</v>
       </c>
-      <c r="G351" t="s">
+      <c r="G352" t="s">
         <v>19</v>
       </c>
-      <c r="K351" s="9" t="s">
+      <c r="K352" s="9" t="s">
         <v>799</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D352" s="7">
-        <v>2</v>
-      </c>
-      <c r="E352" t="s">
-        <v>354</v>
-      </c>
-      <c r="F352" t="s">
-        <v>477</v>
-      </c>
-      <c r="G352" t="s">
-        <v>22</v>
-      </c>
-      <c r="H352" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D353" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E353" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F353" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G353" t="s">
         <v>22</v>
       </c>
       <c r="H353" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D354" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E354" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F354" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G354" t="s">
         <v>22</v>
@@ -11051,87 +11070,87 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D355" s="7">
+        <v>4</v>
+      </c>
+      <c r="E355" t="s">
+        <v>51</v>
+      </c>
+      <c r="F355" t="s">
+        <v>479</v>
+      </c>
+      <c r="G355" t="s">
+        <v>22</v>
+      </c>
+      <c r="H355" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D356" s="7">
         <v>5</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E356" t="s">
         <v>25</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F356" t="s">
         <v>480</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G356" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
         <v>70</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B358" t="s">
         <v>66</v>
       </c>
-      <c r="C357" s="20" t="s">
+      <c r="C358" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D357" s="7">
+      <c r="D358" s="7">
         <v>1</v>
       </c>
-      <c r="E357" t="s">
+      <c r="E358" t="s">
         <v>17</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F358" t="s">
         <v>481</v>
       </c>
-      <c r="G357" t="s">
+      <c r="G358" t="s">
         <v>19</v>
       </c>
-      <c r="K357" s="20" t="s">
+      <c r="K358" s="20" t="s">
         <v>820</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D358" s="7">
-        <v>2</v>
-      </c>
-      <c r="E358" t="s">
-        <v>354</v>
-      </c>
-      <c r="F358" t="s">
-        <v>482</v>
-      </c>
-      <c r="G358" t="s">
-        <v>22</v>
-      </c>
-      <c r="H358" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D359" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E359" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F359" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G359" t="s">
         <v>22</v>
       </c>
       <c r="H359" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D360" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E360" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F360" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G360" t="s">
         <v>22</v>
@@ -11142,107 +11161,107 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D361" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E361" t="s">
-        <v>487</v>
+        <v>51</v>
       </c>
       <c r="F361" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G361" t="s">
-        <v>19</v>
-      </c>
-      <c r="I361" t="s">
-        <v>64</v>
-      </c>
-      <c r="J361" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="H361" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D362" s="7">
+        <v>5</v>
+      </c>
+      <c r="E362" t="s">
+        <v>487</v>
+      </c>
+      <c r="F362" t="s">
+        <v>486</v>
+      </c>
+      <c r="G362" t="s">
+        <v>19</v>
+      </c>
+      <c r="I362" t="s">
+        <v>64</v>
+      </c>
+      <c r="J362" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D363" s="7">
         <v>6</v>
       </c>
-      <c r="E362" t="s">
+      <c r="E363" t="s">
         <v>25</v>
       </c>
-      <c r="F362" t="s">
+      <c r="F363" t="s">
         <v>485</v>
       </c>
-      <c r="G362" t="s">
+      <c r="G363" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
         <v>71</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B365" t="s">
         <v>69</v>
       </c>
-      <c r="C364" s="20" t="s">
+      <c r="C365" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D364" s="7">
+      <c r="D365" s="7">
         <v>1</v>
       </c>
-      <c r="E364" t="s">
+      <c r="E365" t="s">
         <v>17</v>
       </c>
-      <c r="F364" t="s">
+      <c r="F365" t="s">
         <v>488</v>
       </c>
-      <c r="G364" t="s">
+      <c r="G365" t="s">
         <v>19</v>
       </c>
-      <c r="K364" s="20" t="s">
+      <c r="K365" s="20" t="s">
         <v>821</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D365" s="7">
-        <v>2</v>
-      </c>
-      <c r="E365" t="s">
-        <v>354</v>
-      </c>
-      <c r="F365" t="s">
-        <v>489</v>
-      </c>
-      <c r="G365" t="s">
-        <v>22</v>
-      </c>
-      <c r="H365" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D366" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E366" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F366" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G366" t="s">
         <v>22</v>
       </c>
       <c r="H366" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D367" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E367" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F367" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G367" t="s">
         <v>22</v>
@@ -11253,124 +11272,127 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D368" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E368" t="s">
-        <v>547</v>
+        <v>51</v>
       </c>
       <c r="F368" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G368" t="s">
-        <v>19</v>
-      </c>
-      <c r="I368" t="s">
-        <v>67</v>
-      </c>
-      <c r="J368" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="H368" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D369" s="7">
+        <v>5</v>
+      </c>
+      <c r="E369" t="s">
+        <v>547</v>
+      </c>
+      <c r="F369" t="s">
+        <v>492</v>
+      </c>
+      <c r="G369" t="s">
+        <v>19</v>
+      </c>
+      <c r="I369" t="s">
+        <v>67</v>
+      </c>
+      <c r="J369" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D370" s="7">
         <v>6</v>
       </c>
-      <c r="E369" t="s">
+      <c r="E370" t="s">
         <v>25</v>
       </c>
-      <c r="F369" t="s">
+      <c r="F370" t="s">
         <v>493</v>
       </c>
-      <c r="G369" t="s">
+      <c r="G370" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371" s="2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
         <v>72</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B372" t="s">
         <v>533</v>
       </c>
-      <c r="C371" s="23" t="s">
+      <c r="C372" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="D371" s="7">
+      <c r="D372" s="7">
         <v>1</v>
       </c>
-      <c r="E371" t="s">
+      <c r="E372" t="s">
         <v>17</v>
       </c>
-      <c r="F371" t="s">
+      <c r="F372" t="s">
         <v>539</v>
-      </c>
-      <c r="G371" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D372" s="7">
-        <v>2</v>
-      </c>
-      <c r="E372" t="s">
-        <v>534</v>
-      </c>
-      <c r="F372" t="s">
-        <v>540</v>
       </c>
       <c r="G372" t="s">
         <v>19</v>
       </c>
-      <c r="I372" t="s">
-        <v>70</v>
-      </c>
-      <c r="J372" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D373" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E373" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F373" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G373" t="s">
         <v>19</v>
       </c>
       <c r="I373" t="s">
-        <v>545</v>
+        <v>70</v>
       </c>
       <c r="J373" t="s">
-        <v>546</v>
+        <v>69</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D374" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E374" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F374" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G374" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="I374" t="s">
+        <v>545</v>
+      </c>
+      <c r="J374" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D375" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E375" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F375" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G375" t="s">
         <v>27</v>
@@ -11378,87 +11400,84 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D376" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E376" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F376" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G376" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="2">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D377" s="7">
+        <v>6</v>
+      </c>
+      <c r="E377" t="s">
+        <v>538</v>
+      </c>
+      <c r="F377" t="s">
+        <v>544</v>
+      </c>
+      <c r="G377" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
         <v>73</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B379" t="s">
         <v>548</v>
       </c>
-      <c r="C378" s="9" t="s">
+      <c r="C379" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="D378" s="7">
+      <c r="D379" s="7">
         <v>1</v>
       </c>
-      <c r="E378" t="s">
+      <c r="E379" t="s">
         <v>17</v>
       </c>
-      <c r="F378" t="s">
+      <c r="F379" t="s">
         <v>551</v>
       </c>
-      <c r="G378" t="s">
+      <c r="G379" t="s">
         <v>19</v>
       </c>
-      <c r="K378" s="9" t="s">
+      <c r="K379" s="9" t="s">
         <v>800</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D379" s="7">
-        <v>2</v>
-      </c>
-      <c r="E379" t="s">
-        <v>354</v>
-      </c>
-      <c r="F379" t="s">
-        <v>552</v>
-      </c>
-      <c r="G379" t="s">
-        <v>22</v>
-      </c>
-      <c r="H379" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D380" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E380" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F380" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G380" t="s">
         <v>22</v>
       </c>
       <c r="H380" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D381" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E381" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F381" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G381" t="s">
         <v>22</v>
@@ -11469,178 +11488,178 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D382" s="7">
+        <v>4</v>
+      </c>
+      <c r="E382" t="s">
+        <v>51</v>
+      </c>
+      <c r="F382" t="s">
+        <v>554</v>
+      </c>
+      <c r="G382" t="s">
+        <v>22</v>
+      </c>
+      <c r="H382" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D383" s="7">
         <v>5</v>
       </c>
-      <c r="E382" t="s">
+      <c r="E383" t="s">
         <v>25</v>
       </c>
-      <c r="F382" t="s">
+      <c r="F383" t="s">
         <v>555</v>
       </c>
-      <c r="G382" t="s">
+      <c r="G383" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
         <v>74</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B385" t="s">
         <v>558</v>
       </c>
-      <c r="C384" s="18" t="s">
+      <c r="C385" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="D384" s="7">
+      <c r="D385" s="7">
         <v>1</v>
       </c>
-      <c r="E384" t="s">
+      <c r="E385" t="s">
         <v>17</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F385" t="s">
         <v>561</v>
       </c>
-      <c r="G384" t="s">
+      <c r="G385" t="s">
         <v>19</v>
       </c>
-      <c r="K384" s="18" t="s">
+      <c r="K385" s="18" t="s">
         <v>804</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D385" s="7">
-        <v>2</v>
-      </c>
-      <c r="E385" t="s">
-        <v>354</v>
-      </c>
-      <c r="F385" t="s">
-        <v>562</v>
-      </c>
-      <c r="G385" t="s">
-        <v>22</v>
-      </c>
-      <c r="H385" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D386" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E386" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F386" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G386" t="s">
         <v>22</v>
       </c>
       <c r="H386" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D387" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E387" t="s">
-        <v>604</v>
+        <v>23</v>
       </c>
       <c r="F387" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="G387" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H387" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D388" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E388" t="s">
-        <v>25</v>
+        <v>604</v>
       </c>
       <c r="F388" t="s">
-        <v>564</v>
+        <v>605</v>
       </c>
       <c r="G388" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D389" s="7"/>
+      <c r="D389" s="7">
+        <v>5</v>
+      </c>
+      <c r="E389" t="s">
+        <v>25</v>
+      </c>
+      <c r="F389" t="s">
+        <v>564</v>
+      </c>
+      <c r="G389" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
+      <c r="D390" s="7"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
         <v>75</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B391" t="s">
         <v>583</v>
       </c>
-      <c r="C390" s="20" t="s">
+      <c r="C391" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="D390" s="7">
+      <c r="D391" s="7">
         <v>1</v>
       </c>
-      <c r="E390" t="s">
+      <c r="E391" t="s">
         <v>17</v>
       </c>
-      <c r="F390" t="s">
+      <c r="F391" t="s">
         <v>590</v>
       </c>
-      <c r="G390" t="s">
+      <c r="G391" t="s">
         <v>19</v>
       </c>
-      <c r="K390" s="20" t="s">
+      <c r="K391" s="20" t="s">
         <v>819</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D391" s="7">
-        <v>2</v>
-      </c>
-      <c r="E391" t="s">
-        <v>354</v>
-      </c>
-      <c r="F391" t="s">
-        <v>591</v>
-      </c>
-      <c r="G391" t="s">
-        <v>22</v>
-      </c>
-      <c r="H391" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D392" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E392" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F392" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G392" t="s">
         <v>22</v>
       </c>
       <c r="H392" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D393" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E393" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F393" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G393" t="s">
         <v>22</v>
@@ -11651,255 +11670,255 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D394" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E394" t="s">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="F394" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G394" t="s">
-        <v>19</v>
-      </c>
-      <c r="I394" t="s">
-        <v>581</v>
-      </c>
-      <c r="J394" t="s">
-        <v>580</v>
+        <v>22</v>
+      </c>
+      <c r="H394" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D395" s="7">
+        <v>5</v>
+      </c>
+      <c r="E395" t="s">
+        <v>595</v>
+      </c>
+      <c r="F395" t="s">
+        <v>596</v>
+      </c>
+      <c r="G395" t="s">
+        <v>19</v>
+      </c>
+      <c r="I395" t="s">
+        <v>581</v>
+      </c>
+      <c r="J395" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D396" s="7">
         <v>6</v>
       </c>
-      <c r="E395" t="s">
+      <c r="E396" t="s">
         <v>25</v>
       </c>
-      <c r="F395" t="s">
+      <c r="F396" t="s">
         <v>594</v>
       </c>
-      <c r="G395" t="s">
+      <c r="G396" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
         <v>76</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B398" t="s">
         <v>597</v>
       </c>
-      <c r="C397" s="8" t="s">
+      <c r="C398" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="D397" s="7">
+      <c r="D398" s="7">
         <v>1</v>
       </c>
-      <c r="E397" t="s">
+      <c r="E398" t="s">
         <v>17</v>
       </c>
-      <c r="F397" t="s">
+      <c r="F398" t="s">
         <v>600</v>
       </c>
-      <c r="G397" t="s">
+      <c r="G398" t="s">
         <v>19</v>
       </c>
-      <c r="K397" s="8" t="s">
+      <c r="K398" s="8" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D398" s="7">
-        <v>2</v>
-      </c>
-      <c r="E398" t="s">
-        <v>354</v>
-      </c>
-      <c r="F398" t="s">
-        <v>601</v>
-      </c>
-      <c r="G398" t="s">
-        <v>22</v>
-      </c>
-      <c r="H398" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D399" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E399" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F399" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G399" t="s">
         <v>22</v>
       </c>
       <c r="H399" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D400" s="7">
+        <v>3</v>
+      </c>
+      <c r="E400" t="s">
+        <v>23</v>
+      </c>
+      <c r="F400" t="s">
+        <v>602</v>
+      </c>
+      <c r="G400" t="s">
+        <v>22</v>
+      </c>
+      <c r="H400" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D401" s="7">
         <v>4</v>
       </c>
-      <c r="E400" t="s">
+      <c r="E401" t="s">
         <v>25</v>
       </c>
-      <c r="F400" t="s">
+      <c r="F401" t="s">
         <v>603</v>
       </c>
-      <c r="G400" t="s">
+      <c r="G401" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="2">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" s="2">
         <v>77</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B403" t="s">
         <v>606</v>
       </c>
-      <c r="C402" s="8" t="s">
+      <c r="C403" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="D402" s="7">
+      <c r="D403" s="7">
         <v>1</v>
       </c>
-      <c r="E402" t="s">
+      <c r="E403" t="s">
         <v>17</v>
       </c>
-      <c r="F402" t="s">
+      <c r="F403" t="s">
         <v>612</v>
       </c>
-      <c r="G402" t="s">
+      <c r="G403" t="s">
         <v>19</v>
       </c>
-      <c r="K402" s="8" t="s">
+      <c r="K403" s="8" t="s">
         <v>774</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D403" s="7">
-        <v>2</v>
-      </c>
-      <c r="E403" t="s">
-        <v>354</v>
-      </c>
-      <c r="F403" t="s">
-        <v>613</v>
-      </c>
-      <c r="G403" t="s">
-        <v>22</v>
-      </c>
-      <c r="H403" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D404" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E404" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F404" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G404" t="s">
         <v>22</v>
       </c>
       <c r="H404" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D405" s="7">
+        <v>3</v>
+      </c>
+      <c r="E405" t="s">
+        <v>23</v>
+      </c>
+      <c r="F405" t="s">
+        <v>614</v>
+      </c>
+      <c r="G405" t="s">
+        <v>22</v>
+      </c>
+      <c r="H405" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D406" s="7">
         <v>4</v>
       </c>
-      <c r="E405" t="s">
+      <c r="E406" t="s">
         <v>25</v>
       </c>
-      <c r="F405" t="s">
+      <c r="F406" t="s">
         <v>615</v>
       </c>
-      <c r="G405" t="s">
+      <c r="G406" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="2">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" s="2">
         <v>78</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B408" t="s">
         <v>607</v>
       </c>
-      <c r="C407" s="20" t="s">
+      <c r="C408" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="D407" s="7">
+      <c r="D408" s="7">
         <v>1</v>
       </c>
-      <c r="E407" t="s">
+      <c r="E408" t="s">
         <v>17</v>
       </c>
-      <c r="F407" t="s">
+      <c r="F408" t="s">
         <v>616</v>
       </c>
-      <c r="G407" t="s">
+      <c r="G408" t="s">
         <v>19</v>
       </c>
-      <c r="K407" s="20" t="s">
+      <c r="K408" s="20" t="s">
         <v>818</v>
-      </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D408" s="7">
-        <v>2</v>
-      </c>
-      <c r="E408" t="s">
-        <v>354</v>
-      </c>
-      <c r="F408" t="s">
-        <v>617</v>
-      </c>
-      <c r="G408" t="s">
-        <v>22</v>
-      </c>
-      <c r="H408" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D409" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E409" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="F409" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G409" t="s">
         <v>22</v>
       </c>
       <c r="H409" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D410" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E410" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F410" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G410" t="s">
         <v>22</v>
@@ -11910,181 +11929,181 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D411" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E411" t="s">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="F411" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G411" t="s">
-        <v>19</v>
-      </c>
-      <c r="I411" t="s">
-        <v>608</v>
-      </c>
-      <c r="J411" t="s">
-        <v>606</v>
+        <v>22</v>
+      </c>
+      <c r="H411" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D412" s="7">
+        <v>5</v>
+      </c>
+      <c r="E412" t="s">
+        <v>595</v>
+      </c>
+      <c r="F412" t="s">
+        <v>621</v>
+      </c>
+      <c r="G412" t="s">
+        <v>19</v>
+      </c>
+      <c r="I412" t="s">
+        <v>608</v>
+      </c>
+      <c r="J412" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D413" s="7">
         <v>6</v>
       </c>
-      <c r="E412" t="s">
+      <c r="E413" t="s">
         <v>25</v>
       </c>
-      <c r="F412" t="s">
+      <c r="F413" t="s">
         <v>620</v>
       </c>
-      <c r="G412" t="s">
+      <c r="G413" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="1">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
         <v>79</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B415" t="s">
         <v>629</v>
       </c>
-      <c r="C414" s="10" t="s">
+      <c r="C415" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="D414" s="2">
+      <c r="D415" s="2">
         <v>1</v>
       </c>
-      <c r="E414" t="s">
+      <c r="E415" t="s">
         <v>17</v>
       </c>
-      <c r="F414" t="s">
+      <c r="F415" t="s">
         <v>631</v>
-      </c>
-      <c r="G414" t="s">
-        <v>19</v>
-      </c>
-      <c r="K414" s="10" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="2"/>
-      <c r="D415" s="2">
-        <v>2</v>
-      </c>
-      <c r="E415" t="s">
-        <v>44</v>
-      </c>
-      <c r="F415" t="s">
-        <v>632</v>
       </c>
       <c r="G415" t="s">
         <v>19</v>
+      </c>
+      <c r="K415" s="10" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="D416" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E416" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F416" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G416" t="s">
-        <v>22</v>
-      </c>
-      <c r="H416" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="D417" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E417" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F417" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G417" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H417" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
+      <c r="D418" s="2">
+        <v>4</v>
+      </c>
+      <c r="E418" t="s">
+        <v>25</v>
+      </c>
+      <c r="F418" t="s">
+        <v>634</v>
+      </c>
+      <c r="G418" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="1">
+      <c r="A419" s="2"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
         <v>80</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B420" t="s">
         <v>635</v>
       </c>
-      <c r="C419" s="20" t="s">
+      <c r="C420" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="D419" s="2">
+      <c r="D420" s="2">
         <v>1</v>
       </c>
-      <c r="E419" t="s">
+      <c r="E420" t="s">
         <v>17</v>
       </c>
-      <c r="F419" t="s">
+      <c r="F420" t="s">
         <v>637</v>
-      </c>
-      <c r="G419" t="s">
-        <v>19</v>
-      </c>
-      <c r="K419" s="20" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D420" s="2">
-        <v>2</v>
-      </c>
-      <c r="E420" t="s">
-        <v>44</v>
-      </c>
-      <c r="F420" t="s">
-        <v>638</v>
       </c>
       <c r="G420" t="s">
         <v>19</v>
       </c>
+      <c r="K420" s="20" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D421" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E421" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F421" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G421" t="s">
-        <v>22</v>
-      </c>
-      <c r="H421" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D422" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E422" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F422" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G422" t="s">
         <v>22</v>
@@ -12095,181 +12114,181 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D423" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E423" t="s">
-        <v>645</v>
+        <v>51</v>
       </c>
       <c r="F423" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G423" t="s">
-        <v>19</v>
-      </c>
-      <c r="I423" t="s">
-        <v>630</v>
-      </c>
-      <c r="J423" t="s">
-        <v>629</v>
+        <v>22</v>
+      </c>
+      <c r="H423" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D424" s="2">
+        <v>5</v>
+      </c>
+      <c r="E424" t="s">
+        <v>645</v>
+      </c>
+      <c r="F424" t="s">
+        <v>641</v>
+      </c>
+      <c r="G424" t="s">
+        <v>19</v>
+      </c>
+      <c r="I424" t="s">
+        <v>630</v>
+      </c>
+      <c r="J424" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D425" s="2">
         <v>6</v>
       </c>
-      <c r="E424" t="s">
+      <c r="E425" t="s">
         <v>25</v>
       </c>
-      <c r="F424" t="s">
+      <c r="F425" t="s">
         <v>642</v>
       </c>
-      <c r="G424" t="s">
+      <c r="G425" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="2">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
         <v>81</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B428" t="s">
         <v>655</v>
       </c>
-      <c r="C427" s="8" t="s">
+      <c r="C428" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="D427" s="2">
+      <c r="D428" s="2">
         <v>1</v>
       </c>
-      <c r="E427" t="s">
+      <c r="E428" t="s">
         <v>17</v>
       </c>
-      <c r="F427" t="s">
+      <c r="F428" t="s">
         <v>651</v>
       </c>
-      <c r="G427" t="s">
+      <c r="G428" t="s">
         <v>19</v>
       </c>
-      <c r="K427" s="8" t="s">
+      <c r="K428" s="8" t="s">
         <v>775</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D428" s="2">
-        <v>2</v>
-      </c>
-      <c r="E428" t="s">
-        <v>20</v>
-      </c>
-      <c r="F428" t="s">
-        <v>652</v>
-      </c>
-      <c r="G428" t="s">
-        <v>22</v>
-      </c>
-      <c r="H428" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D429" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E429" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F429" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G429" t="s">
         <v>22</v>
       </c>
       <c r="H429" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D430" s="2">
+        <v>3</v>
+      </c>
+      <c r="E430" t="s">
+        <v>23</v>
+      </c>
+      <c r="F430" t="s">
+        <v>653</v>
+      </c>
+      <c r="G430" t="s">
+        <v>22</v>
+      </c>
+      <c r="H430" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D431" s="2">
         <v>4</v>
       </c>
-      <c r="E430" t="s">
+      <c r="E431" t="s">
         <v>31</v>
       </c>
-      <c r="F430" t="s">
+      <c r="F431" t="s">
         <v>654</v>
       </c>
-      <c r="G430" t="s">
+      <c r="G431" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="1">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
         <v>82</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B433" t="s">
         <v>656</v>
       </c>
-      <c r="C432" s="20" t="s">
+      <c r="C433" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="D432" s="2">
+      <c r="D433" s="2">
         <v>1</v>
       </c>
-      <c r="E432" t="s">
+      <c r="E433" t="s">
         <v>17</v>
       </c>
-      <c r="F432" t="s">
+      <c r="F433" t="s">
         <v>659</v>
       </c>
-      <c r="G432" t="s">
+      <c r="G433" t="s">
         <v>19</v>
       </c>
-      <c r="K432" s="20" t="s">
+      <c r="K433" s="20" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D433" s="2">
-        <v>2</v>
-      </c>
-      <c r="E433" t="s">
-        <v>20</v>
-      </c>
-      <c r="F433" t="s">
-        <v>660</v>
-      </c>
-      <c r="G433" t="s">
-        <v>22</v>
-      </c>
-      <c r="H433" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D434" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E434" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F434" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G434" t="s">
         <v>22</v>
       </c>
       <c r="H434" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D435" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E435" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F435" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G435" t="s">
         <v>22</v>
@@ -12280,183 +12299,200 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D436" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E436" t="s">
-        <v>662</v>
+        <v>51</v>
       </c>
       <c r="F436" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G436" t="s">
-        <v>19</v>
-      </c>
-      <c r="I436" t="s">
-        <v>328</v>
-      </c>
-      <c r="J436" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="H436" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D437" s="2">
+        <v>5</v>
+      </c>
+      <c r="E437" t="s">
+        <v>662</v>
+      </c>
+      <c r="F437" t="s">
+        <v>663</v>
+      </c>
+      <c r="G437" t="s">
+        <v>19</v>
+      </c>
+      <c r="I437" t="s">
+        <v>328</v>
+      </c>
+      <c r="J437" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D438" s="2">
         <v>6</v>
       </c>
-      <c r="E437" t="s">
+      <c r="E438" t="s">
         <v>25</v>
       </c>
-      <c r="F437" t="s">
+      <c r="F438" t="s">
         <v>665</v>
       </c>
-      <c r="G437" t="s">
+      <c r="G438" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="2">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
         <v>83</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B441" t="s">
         <v>667</v>
       </c>
-      <c r="C440" s="8" t="s">
+      <c r="C441" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="D440" s="2">
+      <c r="D441" s="2">
         <v>1</v>
       </c>
-      <c r="E440" t="s">
+      <c r="E441" t="s">
         <v>17</v>
       </c>
-      <c r="F440" t="s">
+      <c r="F441" t="s">
         <v>669</v>
       </c>
-      <c r="G440" t="s">
+      <c r="G441" t="s">
         <v>19</v>
       </c>
-      <c r="K440" s="8" t="s">
+      <c r="K441" s="8" t="s">
         <v>776</v>
-      </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D441" s="2">
-        <v>2</v>
-      </c>
-      <c r="E441" t="s">
-        <v>20</v>
-      </c>
-      <c r="F441" t="s">
-        <v>670</v>
-      </c>
-      <c r="G441" t="s">
-        <v>22</v>
-      </c>
-      <c r="H441" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D442" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E442" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F442" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G442" t="s">
         <v>22</v>
       </c>
       <c r="H442" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D443" s="2">
+        <v>3</v>
+      </c>
+      <c r="E443" t="s">
+        <v>23</v>
+      </c>
+      <c r="F443" t="s">
+        <v>671</v>
+      </c>
+      <c r="G443" t="s">
+        <v>22</v>
+      </c>
+      <c r="H443" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D444" s="2">
         <v>4</v>
       </c>
-      <c r="E443" t="s">
+      <c r="E444" t="s">
         <v>31</v>
       </c>
-      <c r="F443" t="s">
+      <c r="F444" t="s">
         <v>672</v>
       </c>
-      <c r="G443" t="s">
+      <c r="G444" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="2">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
         <v>84</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B446" t="s">
         <v>673</v>
       </c>
-      <c r="C445" s="8" t="s">
+      <c r="C446" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="D445" s="2">
+      <c r="D446" s="2">
         <v>1</v>
       </c>
-      <c r="E445" t="s">
+      <c r="E446" t="s">
         <v>17</v>
       </c>
-      <c r="F445" t="s">
+      <c r="F446" t="s">
         <v>676</v>
       </c>
-      <c r="G445" t="s">
+      <c r="G446" t="s">
         <v>19</v>
       </c>
-      <c r="K445" s="8" t="s">
+      <c r="K446" s="8" t="s">
         <v>782</v>
-      </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D446" s="2">
-        <v>2</v>
-      </c>
-      <c r="E446" t="s">
-        <v>20</v>
-      </c>
-      <c r="F446" t="s">
-        <v>677</v>
-      </c>
-      <c r="G446" t="s">
-        <v>22</v>
-      </c>
-      <c r="H446" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D447" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E447" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F447" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G447" t="s">
         <v>22</v>
       </c>
       <c r="H447" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D448" s="2">
+        <v>3</v>
+      </c>
+      <c r="E448" t="s">
+        <v>23</v>
+      </c>
+      <c r="F448" t="s">
+        <v>678</v>
+      </c>
+      <c r="G448" t="s">
+        <v>22</v>
+      </c>
+      <c r="H448" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="449" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D449" s="2">
         <v>4</v>
       </c>
-      <c r="E448" t="s">
+      <c r="E449" t="s">
         <v>31</v>
       </c>
-      <c r="F448" t="s">
+      <c r="F449" t="s">
         <v>679</v>
       </c>
-      <c r="G448" t="s">
+      <c r="G449" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12470,8 +12506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC3A7C8-423C-4447-AAAD-B70897D5CA88}">
   <dimension ref="A2:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12543,13 +12579,13 @@
         <v>797</v>
       </c>
       <c r="I3" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>797</v>
       </c>
       <c r="L3" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -12576,14 +12612,14 @@
       </c>
       <c r="I4" s="11">
         <f>I2-I3</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>798</v>
       </c>
       <c r="L4" s="11">
         <f>L2-L3</f>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -13622,15 +13658,19 @@
       <c r="A58" s="11">
         <v>53</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29" t="s">
+      <c r="D58" s="32" t="s">
+        <v>844</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>781</v>
+      </c>
+      <c r="F58" s="32" t="s">
         <v>824</v>
       </c>
     </row>
@@ -13830,8 +13870,12 @@
       <c r="C69" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>846</v>
+      </c>
       <c r="F69" s="11" t="s">
         <v>824</v>
       </c>

--- a/db_structure/00B. Masters.xlsx
+++ b/db_structure/00B. Masters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0646898E-2486-4DC0-ADEE-8BFB918D0A46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{349A9B89-3AF6-49FD-9CBA-0AF582EA4808}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="851">
   <si>
     <t>Table Description</t>
   </si>
@@ -2524,9 +2524,6 @@
     <t>a50</t>
   </si>
   <si>
-    <t xml:space="preserve">Pending </t>
-  </si>
-  <si>
     <t>A54</t>
   </si>
   <si>
@@ -2557,20 +2554,29 @@
     <t>A28</t>
   </si>
   <si>
-    <t>dONE</t>
-  </si>
-  <si>
     <t>itmt_a_flg</t>
   </si>
   <si>
     <t>a28</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>Testing Pending</t>
+  </si>
+  <si>
+    <t>a74</t>
+  </si>
+  <si>
+    <t>a20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2596,6 +2602,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2727,7 +2739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2765,10 +2777,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5205,8 +5218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K449"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H340" sqref="H340"/>
+    <sheetView topLeftCell="A388" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K372" sqref="K372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6156,7 +6169,7 @@
         <v>19</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -6253,7 +6266,7 @@
         <v>19</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -6450,7 +6463,7 @@
         <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
@@ -7122,7 +7135,7 @@
         <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G114" t="s">
         <v>27</v>
@@ -7603,7 +7616,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43</v>
       </c>
@@ -7625,8 +7638,11 @@
       <c r="G145" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="23" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="D146" s="2">
         <v>2</v>
@@ -7644,7 +7660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="D147" s="2">
         <v>3</v>
@@ -7662,7 +7678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="D148" s="2">
         <v>4</v>
@@ -7680,7 +7696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="D149" s="2">
         <v>5</v>
@@ -7695,7 +7711,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="D150" s="2">
         <v>6</v>
@@ -7716,7 +7732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="D151" s="2">
         <v>7</v>
@@ -7737,7 +7753,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="D152" s="2">
         <v>8</v>
@@ -7758,7 +7774,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="D153" s="2">
         <v>9</v>
@@ -7779,7 +7795,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="D154" s="2">
         <v>10</v>
@@ -7800,7 +7816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="D155" s="2">
         <v>11</v>
@@ -7821,7 +7837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="D156" s="2">
         <v>12</v>
@@ -7842,7 +7858,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="D157" s="2">
         <v>13</v>
@@ -7860,7 +7876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="D158" s="2">
         <v>14</v>
@@ -7878,7 +7894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="D159" s="2">
         <v>15</v>
@@ -7896,7 +7912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="D160" s="2">
         <v>16</v>
@@ -9138,7 +9154,7 @@
         <v>19</v>
       </c>
       <c r="K235" s="28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -9443,7 +9459,7 @@
         <v>25</v>
       </c>
       <c r="F252" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G252" t="s">
         <v>27</v>
@@ -9471,6 +9487,9 @@
       <c r="G254" t="s">
         <v>19</v>
       </c>
+      <c r="K254" s="28" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D255" s="2">
@@ -9491,9 +9510,6 @@
       <c r="J255" t="s">
         <v>100</v>
       </c>
-      <c r="K255" s="28" t="s">
-        <v>843</v>
-      </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D256" s="2">
@@ -9668,7 +9684,7 @@
         <v>19</v>
       </c>
       <c r="K266" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -10237,7 +10253,7 @@
         <v>19</v>
       </c>
       <c r="K301" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -11342,6 +11358,9 @@
       </c>
       <c r="G372" t="s">
         <v>19</v>
+      </c>
+      <c r="K372" s="23" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
@@ -12506,8 +12525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC3A7C8-423C-4447-AAAD-B70897D5CA88}">
   <dimension ref="A2:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12550,10 +12569,10 @@
         <v>63</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L2" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -12579,13 +12598,13 @@
         <v>797</v>
       </c>
       <c r="I3" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>797</v>
       </c>
       <c r="L3" s="11">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -12612,14 +12631,14 @@
       </c>
       <c r="I4" s="11">
         <f>I2-I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>798</v>
       </c>
       <c r="L4" s="11">
         <f>L2-L3</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -13654,23 +13673,23 @@
         <v>829</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>53</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="D58" s="32" t="s">
-        <v>844</v>
-      </c>
-      <c r="E58" s="32" t="s">
+      <c r="D58" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="E58" s="30" t="s">
         <v>781</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="30" t="s">
         <v>824</v>
       </c>
     </row>
@@ -13695,7 +13714,7 @@
         <v>156</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>781</v>
@@ -13735,7 +13754,7 @@
         <v>261</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>781</v>
@@ -13775,7 +13794,7 @@
         <v>626</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>781</v>
@@ -13784,7 +13803,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>59</v>
       </c>
@@ -13795,7 +13814,7 @@
         <v>627</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>781</v>
@@ -13804,7 +13823,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>60</v>
       </c>
@@ -13815,7 +13834,7 @@
         <v>377</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>781</v>
@@ -13824,7 +13843,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>61</v>
       </c>
@@ -13844,23 +13863,30 @@
         <v>829</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
+    <row r="68" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="31">
         <v>62</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="32" t="s">
         <v>533</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="31" t="s">
+        <v>847</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>63</v>
       </c>
@@ -13871,16 +13897,16 @@
         <v>144</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>846</v>
+        <v>781</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
